--- a/nodes_source_analyses/energy/energy_chp_ultra_supercritical_coal.central_producer.xlsx
+++ b/nodes_source_analyses/energy/energy_chp_ultra_supercritical_coal.central_producer.xlsx
@@ -1,10 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="25516"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="27907"/>
   <workbookPr showInkAnnotation="0" codeName="ThisWorkbook" autoCompressPictures="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/dorinevandervlies/Projects/etdataset/nodes_source_analyses/energy/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="1080" yWindow="0" windowWidth="25600" windowHeight="15900" tabRatio="762"/>
+    <workbookView xWindow="1080" yWindow="460" windowWidth="25600" windowHeight="15900" tabRatio="762" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Cover sheet" sheetId="14" r:id="rId1"/>
@@ -31,8 +36,11 @@
     <definedName name="Wp_to_kWp">#REF!</definedName>
     <definedName name="WP_to_MWp">#REF!</definedName>
   </definedNames>
-  <calcPr calcId="140001" calcOnSave="0" concurrentCalc="0"/>
+  <calcPr calcId="150001" concurrentCalc="0"/>
   <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
+      <x14:workbookPr defaultImageDpi="32767"/>
+    </ext>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
     </ext>
@@ -556,9 +564,6 @@
   </si>
   <si>
     <t>Costs</t>
-  </si>
-  <si>
-    <t>This sheet summarizes all node attributes formatted in the way they are used by the Energy Transition Model. Use the Excel formulas to find the original data and sources for these numbers. You can also use this document to update the attribute value. Once you have finished updating, save this document and use the button to update the node attributes on ETSource.</t>
   </si>
   <si>
     <t>MW</t>
@@ -851,17 +856,21 @@
   <si>
     <t>http://refman.et-model.com/publications/1937</t>
   </si>
+  <si>
+    <t xml:space="preserve">This sheet summarizes all node attributes formatted in the way they are used by the Energy Transition Model. Use the Excel formulas to find the original data and sources for these numbers. You can also use this document to update the attribute value. Once you have finished updating, save this document and run rake import:node NODE="nodename" to update the node attributes on ETSource. 
+</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="3">
-    <numFmt numFmtId="165" formatCode="0.0"/>
-    <numFmt numFmtId="166" formatCode="0.0000"/>
-    <numFmt numFmtId="169" formatCode="0.000"/>
+    <numFmt numFmtId="164" formatCode="0.0"/>
+    <numFmt numFmtId="165" formatCode="0.0000"/>
+    <numFmt numFmtId="166" formatCode="0.000"/>
   </numFmts>
-  <fonts count="27" x14ac:knownFonts="1">
+  <fonts count="26" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -1005,11 +1014,6 @@
       <color rgb="FF1F497D"/>
       <name val="Calibri"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color rgb="FF000000"/>
-      <name val="Lucida Grande"/>
     </font>
     <font>
       <u/>
@@ -1660,8 +1664,8 @@
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="10" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="177" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="164" fontId="10" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="177" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="7" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -1671,44 +1675,44 @@
     <xf numFmtId="0" fontId="6" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="23" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="49" fontId="23" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="23" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="23" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="23" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="23" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="24" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="24" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="22" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="49" fontId="22" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="22" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="22" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="22" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="22" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="23" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="23" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="23" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="24" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="24" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="23" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="22" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="22" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="22" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="23" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="23" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="22" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="165" fontId="23" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="22" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="2"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="2"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="22" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="22" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="23" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="22" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="2" borderId="0" xfId="177" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="22" fillId="2" borderId="0" xfId="177" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="49" fontId="23" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="22" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
     <xf numFmtId="2" fontId="6" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
@@ -1723,13 +1727,13 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="169" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="166" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="2" fontId="6" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="169" fontId="6" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="166" fontId="6" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="1" fontId="6" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
@@ -1741,21 +1745,21 @@
     <xf numFmtId="10" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center" indent="2"/>
     </xf>
-    <xf numFmtId="166" fontId="6" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="165" fontId="6" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="2" fontId="6" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="6" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="6" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="10" fontId="6" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center" indent="2"/>
     </xf>
     <xf numFmtId="2" fontId="6" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center" indent="2"/>
     </xf>
-    <xf numFmtId="165" fontId="6" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="164" fontId="6" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
@@ -1789,12 +1793,12 @@
     <xf numFmtId="2" fontId="6" fillId="2" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="16" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="16" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="26" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="25" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -1805,7 +1809,7 @@
     <xf numFmtId="0" fontId="5" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="169" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="166" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
@@ -1825,11 +1829,11 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="169" fontId="5" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="166" fontId="5" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="10" fillId="2" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="10" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="10" fillId="2" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="10" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="10" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center" indent="2"/>
     </xf>
@@ -1847,7 +1851,7 @@
       <alignment horizontal="left" vertical="center" indent="2"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="23" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="22" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -1858,8 +1862,8 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="25" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="25" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="24" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="24" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="2"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1882,38 +1886,38 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="177" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="22" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="2"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="12" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="24" fillId="12" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="12" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="24" fillId="12" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="12" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="24" fillId="12" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="12" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="24" fillId="12" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="24" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="12" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="24" fillId="12" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="24" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="12" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="24" fillId="12" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="12" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="24" fillId="12" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -2159,80 +2163,15 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium4"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
-<file path=xl/ctrlProps/ctrlProp1.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="Button" lockText="1"/>
-</file>
-
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
-      <xdr:twoCellAnchor>
-        <xdr:from>
-          <xdr:col>6</xdr:col>
-          <xdr:colOff>165100</xdr:colOff>
-          <xdr:row>2</xdr:row>
-          <xdr:rowOff>101600</xdr:rowOff>
-        </xdr:from>
-        <xdr:to>
-          <xdr:col>6</xdr:col>
-          <xdr:colOff>3975100</xdr:colOff>
-          <xdr:row>3</xdr:row>
-          <xdr:rowOff>101600</xdr:rowOff>
-        </xdr:to>
-        <xdr:sp macro="" textlink="">
-          <xdr:nvSpPr>
-            <xdr:cNvPr id="2049" name="export_data" hidden="1">
-              <a:extLst>
-                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
-                  <a14:compatExt spid="_x0000_s2049"/>
-                </a:ext>
-              </a:extLst>
-            </xdr:cNvPr>
-            <xdr:cNvSpPr/>
-          </xdr:nvSpPr>
-          <xdr:spPr>
-            <a:xfrm>
-              <a:off x="0" y="0"/>
-              <a:ext cx="0" cy="0"/>
-            </a:xfrm>
-            <a:prstGeom prst="rect">
-              <a:avLst/>
-            </a:prstGeom>
-          </xdr:spPr>
-          <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="22860" rIns="27432" bIns="22860" anchor="ctr" upright="1"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr algn="ctr" rtl="0">
-                <a:defRPr sz="1000"/>
-              </a:pPr>
-              <a:r>
-                <a:rPr lang="en-US" sz="1200" b="0" i="0" u="none" strike="noStrike" baseline="0">
-                  <a:solidFill>
-                    <a:srgbClr val="000000"/>
-                  </a:solidFill>
-                  <a:latin typeface="Lucida Grande"/>
-                  <a:ea typeface="Lucida Grande"/>
-                  <a:cs typeface="Lucida Grande"/>
-                </a:rPr>
-                <a:t>Update node attributes on ETSource</a:t>
-              </a:r>
-            </a:p>
-          </xdr:txBody>
-        </xdr:sp>
-        <xdr:clientData fPrintsWithSheet="0"/>
-      </xdr:twoCellAnchor>
-    </mc:Choice>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-</xdr:wsDr>
-</file>
-
-<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
@@ -2389,7 +2328,7 @@
 </file>
 
 <file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="Cover Sheet"/>
@@ -2826,34 +2765,34 @@
   <sheetPr codeName="Sheet1" enableFormatConditionsCalculation="0"/>
   <dimension ref="A1:C23"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="4.875" style="43" customWidth="1"/>
-    <col min="2" max="2" width="9.25" style="30" customWidth="1"/>
-    <col min="3" max="3" width="38.5" style="30" customWidth="1"/>
-    <col min="4" max="16384" width="10.625" style="30"/>
+    <col min="1" max="1" width="4.85546875" style="43" customWidth="1"/>
+    <col min="2" max="2" width="9.28515625" style="30" customWidth="1"/>
+    <col min="3" max="3" width="38.42578125" style="30" customWidth="1"/>
+    <col min="4" max="16384" width="10.7109375" style="30"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" s="41" customFormat="1">
+    <row r="1" spans="1:3" s="41" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="39"/>
       <c r="B1" s="40"/>
       <c r="C1" s="40"/>
     </row>
-    <row r="2" spans="1:3" ht="20">
+    <row r="2" spans="1:3" ht="21" x14ac:dyDescent="0.25">
       <c r="A2" s="7"/>
       <c r="B2" s="42" t="s">
         <v>19</v>
       </c>
       <c r="C2" s="42"/>
     </row>
-    <row r="3" spans="1:3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3" s="7"/>
       <c r="B3" s="14"/>
       <c r="C3" s="14"/>
     </row>
-    <row r="4" spans="1:3">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A4" s="7"/>
       <c r="B4" s="8" t="s">
         <v>20</v>
@@ -2862,7 +2801,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="5" spans="1:3">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A5" s="7"/>
       <c r="B5" s="10" t="s">
         <v>121</v>
@@ -2871,7 +2810,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="6" spans="1:3">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A6" s="7"/>
       <c r="B6" s="12" t="s">
         <v>22</v>
@@ -2880,29 +2819,29 @@
         <v>23</v>
       </c>
     </row>
-    <row r="7" spans="1:3">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A7" s="7"/>
       <c r="B7" s="14"/>
       <c r="C7" s="14"/>
     </row>
-    <row r="8" spans="1:3">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A8" s="7"/>
       <c r="B8" s="14"/>
       <c r="C8" s="14"/>
     </row>
-    <row r="9" spans="1:3">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A9" s="7"/>
       <c r="B9" s="113" t="s">
         <v>106</v>
       </c>
       <c r="C9" s="114"/>
     </row>
-    <row r="10" spans="1:3">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A10" s="7"/>
       <c r="B10" s="115"/>
       <c r="C10" s="116"/>
     </row>
-    <row r="11" spans="1:3">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A11" s="7"/>
       <c r="B11" s="115" t="s">
         <v>107</v>
@@ -2911,33 +2850,33 @@
         <v>108</v>
       </c>
     </row>
-    <row r="12" spans="1:3" ht="16" thickBot="1">
+    <row r="12" spans="1:3" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A12" s="7"/>
       <c r="B12" s="115"/>
       <c r="C12" s="23" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="13" spans="1:3" ht="16" thickBot="1">
+    <row r="13" spans="1:3" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A13" s="7"/>
       <c r="B13" s="115"/>
       <c r="C13" s="118" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="14" spans="1:3">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A14" s="7"/>
       <c r="B14" s="115"/>
       <c r="C14" s="116" t="s">
         <v>111</v>
       </c>
     </row>
-    <row r="15" spans="1:3">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A15" s="7"/>
       <c r="B15" s="115"/>
       <c r="C15" s="116"/>
     </row>
-    <row r="16" spans="1:3">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A16" s="7"/>
       <c r="B16" s="115" t="s">
         <v>112</v>
@@ -2946,49 +2885,49 @@
         <v>113</v>
       </c>
     </row>
-    <row r="17" spans="1:3">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A17" s="7"/>
       <c r="B17" s="115"/>
       <c r="C17" s="120" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="18" spans="1:3">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A18" s="7"/>
       <c r="B18" s="115"/>
       <c r="C18" s="121" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="19" spans="1:3">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A19" s="7"/>
       <c r="B19" s="115"/>
       <c r="C19" s="122" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="20" spans="1:3">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A20" s="7"/>
       <c r="B20" s="123"/>
       <c r="C20" s="124" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="21" spans="1:3">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A21" s="7"/>
       <c r="B21" s="123"/>
       <c r="C21" s="125" t="s">
         <v>118</v>
       </c>
     </row>
-    <row r="22" spans="1:3">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A22" s="7"/>
       <c r="B22" s="123"/>
       <c r="C22" s="126" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="23" spans="1:3">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B23" s="123"/>
       <c r="C23" s="127" t="s">
         <v>120</v>
@@ -2997,41 +2936,36 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2" enableFormatConditionsCalculation="0">
     <tabColor rgb="FFFFFF00"/>
   </sheetPr>
   <dimension ref="B1:K72"/>
   <sheetViews>
-    <sheetView topLeftCell="D10" workbookViewId="0">
-      <selection activeCell="E18" sqref="E18"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="3.25" style="4" customWidth="1"/>
-    <col min="2" max="2" width="3.75" style="4" customWidth="1"/>
-    <col min="3" max="3" width="44.625" style="4" customWidth="1"/>
-    <col min="4" max="4" width="14.5" style="4" customWidth="1"/>
-    <col min="5" max="5" width="17.375" style="4" customWidth="1"/>
-    <col min="6" max="6" width="4.625" style="4" customWidth="1"/>
+    <col min="1" max="1" width="3.28515625" style="4" customWidth="1"/>
+    <col min="2" max="2" width="3.7109375" style="4" customWidth="1"/>
+    <col min="3" max="3" width="44.5703125" style="4" customWidth="1"/>
+    <col min="4" max="4" width="14.42578125" style="4" customWidth="1"/>
+    <col min="5" max="5" width="17.42578125" style="4" customWidth="1"/>
+    <col min="6" max="6" width="4.5703125" style="4" customWidth="1"/>
     <col min="7" max="7" width="45" style="4" customWidth="1"/>
-    <col min="8" max="8" width="5.125" style="4" customWidth="1"/>
-    <col min="9" max="9" width="49.375" style="4" customWidth="1"/>
-    <col min="10" max="10" width="5.375" style="4" customWidth="1"/>
-    <col min="11" max="16384" width="10.625" style="4"/>
+    <col min="8" max="8" width="5.140625" style="4" customWidth="1"/>
+    <col min="9" max="9" width="49.42578125" style="4" customWidth="1"/>
+    <col min="10" max="10" width="5.42578125" style="4" customWidth="1"/>
+    <col min="11" max="16384" width="10.7109375" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:11">
+    <row r="1" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B1" s="15"/>
       <c r="C1" s="15"/>
       <c r="D1" s="16"/>
@@ -3041,9 +2975,9 @@
       <c r="H1" s="15"/>
       <c r="I1" s="15"/>
     </row>
-    <row r="2" spans="2:11">
+    <row r="2" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B2" s="174" t="s">
-        <v>131</v>
+        <v>166</v>
       </c>
       <c r="C2" s="175"/>
       <c r="D2" s="175"/>
@@ -3053,7 +2987,7 @@
       <c r="H2" s="15"/>
       <c r="I2" s="15"/>
     </row>
-    <row r="3" spans="2:11">
+    <row r="3" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B3" s="177"/>
       <c r="C3" s="178"/>
       <c r="D3" s="178"/>
@@ -3063,7 +2997,7 @@
       <c r="H3" s="15"/>
       <c r="I3" s="15"/>
     </row>
-    <row r="4" spans="2:11">
+    <row r="4" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B4" s="177"/>
       <c r="C4" s="178"/>
       <c r="D4" s="178"/>
@@ -3073,7 +3007,7 @@
       <c r="H4" s="15"/>
       <c r="I4" s="15"/>
     </row>
-    <row r="5" spans="2:11">
+    <row r="5" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B5" s="180"/>
       <c r="C5" s="181"/>
       <c r="D5" s="181"/>
@@ -3083,7 +3017,7 @@
       <c r="H5" s="15"/>
       <c r="I5" s="15"/>
     </row>
-    <row r="6" spans="2:11" ht="17" thickBot="1">
+    <row r="6" spans="2:11" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B6" s="15"/>
       <c r="C6" s="15"/>
       <c r="D6" s="16"/>
@@ -3093,7 +3027,7 @@
       <c r="H6" s="15"/>
       <c r="I6" s="15"/>
     </row>
-    <row r="7" spans="2:11">
+    <row r="7" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B7" s="27"/>
       <c r="C7" s="26"/>
       <c r="D7" s="26"/>
@@ -3104,7 +3038,7 @@
       <c r="I7" s="26"/>
       <c r="J7" s="25"/>
     </row>
-    <row r="8" spans="2:11" s="5" customFormat="1" ht="18">
+    <row r="8" spans="2:11" s="5" customFormat="1" ht="18" x14ac:dyDescent="0.2">
       <c r="B8" s="141"/>
       <c r="C8" s="24" t="s">
         <v>36</v>
@@ -3125,7 +3059,7 @@
       </c>
       <c r="J8" s="143"/>
     </row>
-    <row r="9" spans="2:11" s="5" customFormat="1" ht="18">
+    <row r="9" spans="2:11" s="5" customFormat="1" ht="18" x14ac:dyDescent="0.2">
       <c r="B9" s="37"/>
       <c r="C9" s="23"/>
       <c r="D9" s="45"/>
@@ -3136,7 +3070,7 @@
       <c r="I9" s="23"/>
       <c r="J9" s="22"/>
     </row>
-    <row r="10" spans="2:11" s="5" customFormat="1" ht="19" thickBot="1">
+    <row r="10" spans="2:11" s="5" customFormat="1" ht="19" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B10" s="37"/>
       <c r="C10" s="23" t="s">
         <v>123</v>
@@ -3149,7 +3083,7 @@
       <c r="I10" s="23"/>
       <c r="J10" s="22"/>
     </row>
-    <row r="11" spans="2:11" s="5" customFormat="1" ht="19" thickBot="1">
+    <row r="11" spans="2:11" s="5" customFormat="1" ht="19" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B11" s="37"/>
       <c r="C11" s="48" t="s">
         <v>37</v>
@@ -3168,7 +3102,7 @@
       </c>
       <c r="J11" s="22"/>
     </row>
-    <row r="12" spans="2:11" ht="17" thickBot="1">
+    <row r="12" spans="2:11" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B12" s="32"/>
       <c r="C12" s="48" t="s">
         <v>39</v>
@@ -3188,7 +3122,7 @@
       <c r="J12" s="147"/>
       <c r="K12" s="3"/>
     </row>
-    <row r="13" spans="2:11" ht="17" thickBot="1">
+    <row r="13" spans="2:11" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B13" s="32"/>
       <c r="C13" s="48" t="s">
         <v>40</v>
@@ -3208,7 +3142,7 @@
       <c r="J13" s="147"/>
       <c r="K13" s="3"/>
     </row>
-    <row r="14" spans="2:11" ht="17" thickBot="1">
+    <row r="14" spans="2:11" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B14" s="32"/>
       <c r="C14" s="48" t="s">
         <v>42</v>
@@ -3228,7 +3162,7 @@
       <c r="J14" s="147"/>
       <c r="K14" s="3"/>
     </row>
-    <row r="15" spans="2:11" ht="17" thickBot="1">
+    <row r="15" spans="2:11" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B15" s="32"/>
       <c r="C15" s="48" t="s">
         <v>11</v>
@@ -3248,7 +3182,7 @@
       <c r="J15" s="147"/>
       <c r="K15" s="3"/>
     </row>
-    <row r="16" spans="2:11" s="2" customFormat="1" ht="17" thickBot="1">
+    <row r="16" spans="2:11" s="2" customFormat="1" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B16" s="32"/>
       <c r="C16" s="47" t="s">
         <v>45</v>
@@ -3268,7 +3202,7 @@
       <c r="J16" s="148"/>
       <c r="K16" s="1"/>
     </row>
-    <row r="17" spans="2:11" s="2" customFormat="1" ht="17" thickBot="1">
+    <row r="17" spans="2:11" s="2" customFormat="1" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B17" s="32"/>
       <c r="C17" s="48" t="s">
         <v>46</v>
@@ -3288,13 +3222,13 @@
       <c r="J17" s="148"/>
       <c r="K17" s="1"/>
     </row>
-    <row r="18" spans="2:11" ht="17" thickBot="1">
+    <row r="18" spans="2:11" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B18" s="32"/>
       <c r="C18" s="48" t="s">
         <v>47</v>
       </c>
       <c r="D18" s="33" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="E18" s="54">
         <f>'Research data'!H6</f>
@@ -3310,13 +3244,13 @@
       </c>
       <c r="J18" s="147"/>
     </row>
-    <row r="19" spans="2:11" ht="17" thickBot="1">
+    <row r="19" spans="2:11" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B19" s="32"/>
       <c r="C19" s="48" t="s">
         <v>48</v>
       </c>
       <c r="D19" s="33" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="E19" s="54">
         <v>260.86956521739103</v>
@@ -3331,7 +3265,7 @@
       </c>
       <c r="J19" s="147"/>
     </row>
-    <row r="20" spans="2:11" ht="17" thickBot="1">
+    <row r="20" spans="2:11" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B20" s="32"/>
       <c r="C20" s="48" t="s">
         <v>49</v>
@@ -3352,7 +3286,7 @@
       </c>
       <c r="J20" s="147"/>
     </row>
-    <row r="21" spans="2:11" ht="17" thickBot="1">
+    <row r="21" spans="2:11" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B21" s="32"/>
       <c r="C21" s="48" t="s">
         <v>65</v>
@@ -3373,7 +3307,7 @@
       </c>
       <c r="J21" s="147"/>
     </row>
-    <row r="22" spans="2:11" ht="17" thickBot="1">
+    <row r="22" spans="2:11" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B22" s="32"/>
       <c r="C22" s="48" t="s">
         <v>50</v>
@@ -3394,7 +3328,7 @@
       </c>
       <c r="J22" s="147"/>
     </row>
-    <row r="23" spans="2:11" ht="17" thickBot="1">
+    <row r="23" spans="2:11" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B23" s="32"/>
       <c r="C23" s="48" t="s">
         <v>51</v>
@@ -3415,7 +3349,7 @@
       </c>
       <c r="J23" s="147"/>
     </row>
-    <row r="24" spans="2:11" ht="17" thickBot="1">
+    <row r="24" spans="2:11" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B24" s="32"/>
       <c r="C24" s="48" t="s">
         <v>52</v>
@@ -3436,7 +3370,7 @@
       </c>
       <c r="J24" s="147"/>
     </row>
-    <row r="25" spans="2:11">
+    <row r="25" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B25" s="32"/>
       <c r="C25" s="144"/>
       <c r="D25" s="145"/>
@@ -3447,10 +3381,10 @@
       <c r="I25" s="30"/>
       <c r="J25" s="147"/>
     </row>
-    <row r="26" spans="2:11" ht="17" thickBot="1">
+    <row r="26" spans="2:11" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B26" s="32"/>
       <c r="C26" s="23" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="D26" s="145"/>
       <c r="E26" s="138"/>
@@ -3460,7 +3394,7 @@
       <c r="I26" s="30"/>
       <c r="J26" s="147"/>
     </row>
-    <row r="27" spans="2:11" ht="17" thickBot="1">
+    <row r="27" spans="2:11" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B27" s="32"/>
       <c r="C27" s="48" t="s">
         <v>53</v>
@@ -3482,7 +3416,7 @@
       </c>
       <c r="J27" s="149"/>
     </row>
-    <row r="28" spans="2:11" ht="17" thickBot="1">
+    <row r="28" spans="2:11" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B28" s="32"/>
       <c r="C28" s="48" t="s">
         <v>54</v>
@@ -3503,7 +3437,7 @@
       </c>
       <c r="J28" s="149"/>
     </row>
-    <row r="29" spans="2:11" ht="17" thickBot="1">
+    <row r="29" spans="2:11" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B29" s="32"/>
       <c r="C29" s="48" t="s">
         <v>13</v>
@@ -3524,7 +3458,7 @@
       </c>
       <c r="J29" s="147"/>
     </row>
-    <row r="30" spans="2:11" ht="17" thickBot="1">
+    <row r="30" spans="2:11" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B30" s="32"/>
       <c r="C30" s="48" t="s">
         <v>55</v>
@@ -3545,7 +3479,7 @@
       </c>
       <c r="J30" s="147"/>
     </row>
-    <row r="31" spans="2:11" ht="17" thickBot="1">
+    <row r="31" spans="2:11" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B31" s="32"/>
       <c r="C31" s="48" t="s">
         <v>56</v>
@@ -3567,7 +3501,7 @@
       </c>
       <c r="J31" s="147"/>
     </row>
-    <row r="32" spans="2:11" ht="17" thickBot="1">
+    <row r="32" spans="2:11" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B32" s="32"/>
       <c r="C32" s="48" t="s">
         <v>57</v>
@@ -3589,7 +3523,7 @@
       </c>
       <c r="J32" s="147"/>
     </row>
-    <row r="33" spans="2:10" ht="17" thickBot="1">
+    <row r="33" spans="2:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B33" s="32"/>
       <c r="C33" s="48" t="s">
         <v>58</v>
@@ -3610,7 +3544,7 @@
       </c>
       <c r="J33" s="147"/>
     </row>
-    <row r="34" spans="2:10" ht="17" thickBot="1">
+    <row r="34" spans="2:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B34" s="32"/>
       <c r="C34" s="48" t="s">
         <v>61</v>
@@ -3631,7 +3565,7 @@
       </c>
       <c r="J34" s="147"/>
     </row>
-    <row r="35" spans="2:10" ht="17" thickBot="1">
+    <row r="35" spans="2:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B35" s="32"/>
       <c r="C35" s="48" t="s">
         <v>44</v>
@@ -3650,7 +3584,7 @@
       </c>
       <c r="J35" s="147"/>
     </row>
-    <row r="36" spans="2:10">
+    <row r="36" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B36" s="32"/>
       <c r="C36" s="144"/>
       <c r="D36" s="145"/>
@@ -3661,7 +3595,7 @@
       <c r="I36" s="30"/>
       <c r="J36" s="147"/>
     </row>
-    <row r="37" spans="2:10" ht="17" thickBot="1">
+    <row r="37" spans="2:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B37" s="32"/>
       <c r="C37" s="23" t="s">
         <v>8</v>
@@ -3674,7 +3608,7 @@
       <c r="I37" s="30"/>
       <c r="J37" s="147"/>
     </row>
-    <row r="38" spans="2:10" ht="17" thickBot="1">
+    <row r="38" spans="2:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B38" s="32"/>
       <c r="C38" s="48" t="s">
         <v>43</v>
@@ -3696,7 +3630,7 @@
       </c>
       <c r="J38" s="147"/>
     </row>
-    <row r="39" spans="2:10" ht="17" thickBot="1">
+    <row r="39" spans="2:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B39" s="32"/>
       <c r="C39" s="48" t="s">
         <v>59</v>
@@ -3714,11 +3648,11 @@
       </c>
       <c r="H39" s="28"/>
       <c r="I39" s="160" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="J39" s="147"/>
     </row>
-    <row r="40" spans="2:10" ht="17" thickBot="1">
+    <row r="40" spans="2:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B40" s="32"/>
       <c r="C40" s="48" t="s">
         <v>60</v>
@@ -3736,11 +3670,11 @@
       </c>
       <c r="H40" s="28"/>
       <c r="I40" s="160" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="J40" s="147"/>
     </row>
-    <row r="41" spans="2:10" ht="17" thickBot="1">
+    <row r="41" spans="2:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B41" s="32"/>
       <c r="C41" s="48" t="s">
         <v>41</v>
@@ -3759,7 +3693,7 @@
       </c>
       <c r="J41" s="147"/>
     </row>
-    <row r="42" spans="2:10" ht="17" thickBot="1">
+    <row r="42" spans="2:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B42" s="32"/>
       <c r="C42" s="48" t="s">
         <v>62</v>
@@ -3778,7 +3712,7 @@
       </c>
       <c r="J42" s="147"/>
     </row>
-    <row r="43" spans="2:10" ht="17" thickBot="1">
+    <row r="43" spans="2:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B43" s="32"/>
       <c r="C43" s="48" t="s">
         <v>14</v>
@@ -3797,7 +3731,7 @@
       </c>
       <c r="J43" s="147"/>
     </row>
-    <row r="44" spans="2:10" ht="17" thickBot="1">
+    <row r="44" spans="2:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B44" s="32"/>
       <c r="C44" s="48" t="s">
         <v>63</v>
@@ -3816,7 +3750,7 @@
       </c>
       <c r="J44" s="147"/>
     </row>
-    <row r="45" spans="2:10" ht="17" thickBot="1">
+    <row r="45" spans="2:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B45" s="32"/>
       <c r="C45" s="48" t="s">
         <v>66</v>
@@ -3835,7 +3769,7 @@
       </c>
       <c r="J45" s="147"/>
     </row>
-    <row r="46" spans="2:10" ht="17" thickBot="1">
+    <row r="46" spans="2:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B46" s="32"/>
       <c r="C46" s="48" t="s">
         <v>64</v>
@@ -3854,7 +3788,7 @@
       </c>
       <c r="J46" s="147"/>
     </row>
-    <row r="47" spans="2:10" ht="17" thickBot="1">
+    <row r="47" spans="2:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B47" s="32"/>
       <c r="C47" s="48" t="s">
         <v>67</v>
@@ -3873,7 +3807,7 @@
       </c>
       <c r="J47" s="147"/>
     </row>
-    <row r="48" spans="2:10" ht="17" thickBot="1">
+    <row r="48" spans="2:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B48" s="32"/>
       <c r="C48" s="48" t="s">
         <v>68</v>
@@ -3892,7 +3826,7 @@
       </c>
       <c r="J48" s="147"/>
     </row>
-    <row r="49" spans="2:10">
+    <row r="49" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B49" s="32"/>
       <c r="C49" s="48"/>
       <c r="D49" s="33"/>
@@ -3903,7 +3837,7 @@
       <c r="I49" s="30"/>
       <c r="J49" s="147"/>
     </row>
-    <row r="50" spans="2:10" ht="20" customHeight="1" thickBot="1">
+    <row r="50" spans="2:10" ht="20" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B50" s="34"/>
       <c r="C50" s="35"/>
       <c r="D50" s="35"/>
@@ -3914,7 +3848,7 @@
       <c r="I50" s="35"/>
       <c r="J50" s="6"/>
     </row>
-    <row r="51" spans="2:10">
+    <row r="51" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B51" s="36"/>
       <c r="C51" s="36"/>
       <c r="D51" s="36"/>
@@ -3924,7 +3858,7 @@
       <c r="H51" s="36"/>
       <c r="I51" s="36"/>
     </row>
-    <row r="52" spans="2:10">
+    <row r="52" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B52" s="15"/>
       <c r="C52" s="15"/>
       <c r="D52" s="15"/>
@@ -3934,49 +3868,49 @@
       <c r="H52" s="15"/>
       <c r="I52" s="15"/>
     </row>
-    <row r="53" spans="2:10">
+    <row r="53" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B53" s="15"/>
       <c r="F53" s="15"/>
       <c r="G53" s="15"/>
       <c r="H53" s="15"/>
       <c r="I53" s="15"/>
     </row>
-    <row r="54" spans="2:10">
+    <row r="54" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B54" s="15"/>
       <c r="F54" s="15"/>
       <c r="G54" s="15"/>
       <c r="H54" s="15"/>
       <c r="I54" s="15"/>
     </row>
-    <row r="55" spans="2:10">
+    <row r="55" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B55" s="15"/>
       <c r="F55" s="15"/>
       <c r="G55" s="15"/>
       <c r="H55" s="15"/>
       <c r="I55" s="15"/>
     </row>
-    <row r="56" spans="2:10">
+    <row r="56" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B56" s="15"/>
       <c r="F56" s="15"/>
       <c r="G56" s="15"/>
       <c r="H56" s="15"/>
       <c r="I56" s="15"/>
     </row>
-    <row r="57" spans="2:10">
+    <row r="57" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B57" s="15"/>
       <c r="F57" s="15"/>
       <c r="G57" s="15"/>
       <c r="H57" s="15"/>
       <c r="I57" s="15"/>
     </row>
-    <row r="58" spans="2:10">
+    <row r="58" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B58" s="15"/>
       <c r="F58" s="15"/>
       <c r="G58" s="15"/>
       <c r="H58" s="15"/>
       <c r="I58" s="15"/>
     </row>
-    <row r="59" spans="2:10">
+    <row r="59" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B59" s="15"/>
       <c r="C59" s="15"/>
       <c r="D59" s="15"/>
@@ -3986,7 +3920,7 @@
       <c r="H59" s="15"/>
       <c r="I59" s="15"/>
     </row>
-    <row r="60" spans="2:10">
+    <row r="60" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B60" s="15"/>
       <c r="C60" s="15"/>
       <c r="D60" s="15"/>
@@ -3996,7 +3930,7 @@
       <c r="H60" s="15"/>
       <c r="I60" s="15"/>
     </row>
-    <row r="61" spans="2:10">
+    <row r="61" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B61" s="15"/>
       <c r="C61" s="15"/>
       <c r="D61" s="15"/>
@@ -4006,7 +3940,7 @@
       <c r="H61" s="15"/>
       <c r="I61" s="15"/>
     </row>
-    <row r="62" spans="2:10">
+    <row r="62" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B62" s="15"/>
       <c r="C62" s="15"/>
       <c r="D62" s="15"/>
@@ -4016,7 +3950,7 @@
       <c r="H62" s="15"/>
       <c r="I62" s="15"/>
     </row>
-    <row r="63" spans="2:10">
+    <row r="63" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B63" s="15"/>
       <c r="C63" s="15"/>
       <c r="D63" s="15"/>
@@ -4026,7 +3960,7 @@
       <c r="H63" s="15"/>
       <c r="I63" s="15"/>
     </row>
-    <row r="64" spans="2:10">
+    <row r="64" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B64" s="15"/>
       <c r="C64" s="15"/>
       <c r="D64" s="15"/>
@@ -4036,7 +3970,7 @@
       <c r="H64" s="15"/>
       <c r="I64" s="15"/>
     </row>
-    <row r="65" spans="2:9">
+    <row r="65" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B65" s="15"/>
       <c r="C65" s="15"/>
       <c r="D65" s="15"/>
@@ -4046,7 +3980,7 @@
       <c r="H65" s="15"/>
       <c r="I65" s="15"/>
     </row>
-    <row r="66" spans="2:9">
+    <row r="66" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B66" s="15"/>
       <c r="C66" s="15"/>
       <c r="D66" s="15"/>
@@ -4056,7 +3990,7 @@
       <c r="H66" s="15"/>
       <c r="I66" s="15"/>
     </row>
-    <row r="67" spans="2:9">
+    <row r="67" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B67" s="15"/>
       <c r="C67" s="15"/>
       <c r="D67" s="15"/>
@@ -4066,7 +4000,7 @@
       <c r="H67" s="15"/>
       <c r="I67" s="15"/>
     </row>
-    <row r="68" spans="2:9">
+    <row r="68" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B68" s="15"/>
       <c r="C68" s="15"/>
       <c r="D68" s="15"/>
@@ -4076,7 +4010,7 @@
       <c r="H68" s="15"/>
       <c r="I68" s="15"/>
     </row>
-    <row r="69" spans="2:9">
+    <row r="69" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B69" s="15"/>
       <c r="C69" s="15"/>
       <c r="D69" s="15"/>
@@ -4086,7 +4020,7 @@
       <c r="H69" s="15"/>
       <c r="I69" s="15"/>
     </row>
-    <row r="70" spans="2:9">
+    <row r="70" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B70" s="15"/>
       <c r="C70" s="15"/>
       <c r="D70" s="15"/>
@@ -4096,7 +4030,7 @@
       <c r="H70" s="15"/>
       <c r="I70" s="15"/>
     </row>
-    <row r="71" spans="2:9">
+    <row r="71" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B71" s="15"/>
       <c r="C71" s="15"/>
       <c r="D71" s="15"/>
@@ -4106,7 +4040,7 @@
       <c r="H71" s="15"/>
       <c r="I71" s="15"/>
     </row>
-    <row r="72" spans="2:9">
+    <row r="72" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B72" s="15"/>
       <c r="C72" s="15"/>
       <c r="D72" s="15"/>
@@ -4122,43 +4056,6 @@
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
-  <drawing r:id="rId1"/>
-  <legacyDrawing r:id="rId2"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x14">
-      <controls>
-        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-          <mc:Choice Requires="x14">
-            <control shapeId="2049" r:id="rId3" name="export_data">
-              <controlPr defaultSize="0" print="0" autoFill="0" autoPict="0">
-                <anchor moveWithCells="1" sizeWithCells="1">
-                  <from>
-                    <xdr:col>6</xdr:col>
-                    <xdr:colOff>165100</xdr:colOff>
-                    <xdr:row>2</xdr:row>
-                    <xdr:rowOff>101600</xdr:rowOff>
-                  </from>
-                  <to>
-                    <xdr:col>6</xdr:col>
-                    <xdr:colOff>3975100</xdr:colOff>
-                    <xdr:row>3</xdr:row>
-                    <xdr:rowOff>101600</xdr:rowOff>
-                  </to>
-                </anchor>
-              </controlPr>
-            </control>
-          </mc:Choice>
-          <mc:Fallback/>
-        </mc:AlternateContent>
-      </controls>
-    </mc:Choice>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
 </worksheet>
 </file>
 
@@ -4173,33 +4070,33 @@
       <selection activeCell="T21" sqref="T21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="3.375" style="55" customWidth="1"/>
-    <col min="2" max="2" width="4.25" style="55" customWidth="1"/>
-    <col min="3" max="3" width="35.875" style="55" customWidth="1"/>
-    <col min="4" max="4" width="16.625" style="55" hidden="1" customWidth="1"/>
-    <col min="5" max="5" width="13.875" style="55" hidden="1" customWidth="1"/>
-    <col min="6" max="6" width="11.125" style="55" customWidth="1"/>
-    <col min="7" max="7" width="2.5" style="55" customWidth="1"/>
-    <col min="8" max="8" width="12.375" style="55" customWidth="1"/>
-    <col min="9" max="9" width="2.875" style="55" customWidth="1"/>
-    <col min="10" max="10" width="11.875" style="82" customWidth="1"/>
-    <col min="11" max="11" width="2.375" style="82" customWidth="1"/>
-    <col min="12" max="12" width="9.25" style="82" customWidth="1"/>
-    <col min="13" max="13" width="2.875" style="82" customWidth="1"/>
-    <col min="14" max="14" width="8.5" style="82" customWidth="1"/>
-    <col min="15" max="15" width="2.25" style="55" customWidth="1"/>
+    <col min="1" max="1" width="3.42578125" style="55" customWidth="1"/>
+    <col min="2" max="2" width="4.28515625" style="55" customWidth="1"/>
+    <col min="3" max="3" width="35.85546875" style="55" customWidth="1"/>
+    <col min="4" max="4" width="16.5703125" style="55" hidden="1" customWidth="1"/>
+    <col min="5" max="5" width="13.85546875" style="55" hidden="1" customWidth="1"/>
+    <col min="6" max="6" width="11.140625" style="55" customWidth="1"/>
+    <col min="7" max="7" width="2.42578125" style="55" customWidth="1"/>
+    <col min="8" max="8" width="12.42578125" style="55" customWidth="1"/>
+    <col min="9" max="9" width="2.85546875" style="55" customWidth="1"/>
+    <col min="10" max="10" width="11.85546875" style="82" customWidth="1"/>
+    <col min="11" max="11" width="2.42578125" style="82" customWidth="1"/>
+    <col min="12" max="12" width="9.28515625" style="82" customWidth="1"/>
+    <col min="13" max="13" width="2.85546875" style="82" customWidth="1"/>
+    <col min="14" max="14" width="8.42578125" style="82" customWidth="1"/>
+    <col min="15" max="15" width="2.28515625" style="55" customWidth="1"/>
     <col min="16" max="16" width="10" style="82" customWidth="1"/>
-    <col min="17" max="17" width="3.375" style="82" customWidth="1"/>
+    <col min="17" max="17" width="3.42578125" style="82" customWidth="1"/>
     <col min="18" max="18" width="10" style="82" customWidth="1"/>
-    <col min="19" max="19" width="2.875" style="55" customWidth="1"/>
-    <col min="20" max="20" width="75.5" style="55" customWidth="1"/>
-    <col min="21" max="16384" width="10.625" style="55"/>
+    <col min="19" max="19" width="2.85546875" style="55" customWidth="1"/>
+    <col min="20" max="20" width="75.42578125" style="55" customWidth="1"/>
+    <col min="21" max="16384" width="10.7109375" style="55"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:20" ht="16" thickBot="1"/>
-    <row r="2" spans="2:20">
+    <row r="1" spans="2:20" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="2" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B2" s="56"/>
       <c r="C2" s="57"/>
       <c r="D2" s="57"/>
@@ -4220,7 +4117,7 @@
       <c r="S2" s="57"/>
       <c r="T2" s="57"/>
     </row>
-    <row r="3" spans="2:20" s="38" customFormat="1">
+    <row r="3" spans="2:20" s="38" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B3" s="37"/>
       <c r="C3" s="132" t="s">
         <v>129</v>
@@ -4244,7 +4141,7 @@
       </c>
       <c r="M3" s="133"/>
       <c r="N3" s="133" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="O3" s="132"/>
       <c r="P3" s="133" t="s">
@@ -4256,10 +4153,10 @@
       </c>
       <c r="S3" s="132"/>
       <c r="T3" s="132" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="4" spans="2:20">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="4" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B4" s="58"/>
       <c r="C4" s="84"/>
       <c r="D4" s="84"/>
@@ -4280,7 +4177,7 @@
       <c r="S4" s="134"/>
       <c r="T4" s="17"/>
     </row>
-    <row r="5" spans="2:20" ht="16" thickBot="1">
+    <row r="5" spans="2:20" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B5" s="58"/>
       <c r="C5" s="46" t="s">
         <v>123</v>
@@ -4303,7 +4200,7 @@
       <c r="S5" s="18"/>
       <c r="T5" s="86"/>
     </row>
-    <row r="6" spans="2:20" ht="16" thickBot="1">
+    <row r="6" spans="2:20" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B6" s="58"/>
       <c r="C6" s="87" t="s">
         <v>33</v>
@@ -4329,7 +4226,7 @@
       <c r="O6" s="85"/>
       <c r="T6" s="86"/>
     </row>
-    <row r="7" spans="2:20">
+    <row r="7" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B7" s="58"/>
       <c r="C7" s="97"/>
       <c r="D7" s="97"/>
@@ -4346,7 +4243,7 @@
       <c r="O7" s="95"/>
       <c r="T7" s="135"/>
     </row>
-    <row r="8" spans="2:20" ht="16" thickBot="1">
+    <row r="8" spans="2:20" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B8" s="58"/>
       <c r="C8" s="46" t="s">
         <v>8</v>
@@ -4368,7 +4265,7 @@
       <c r="R8" s="98"/>
       <c r="T8" s="135"/>
     </row>
-    <row r="9" spans="2:20" ht="16" thickBot="1">
+    <row r="9" spans="2:20" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B9" s="58"/>
       <c r="C9" s="93" t="s">
         <v>17</v>
@@ -4399,10 +4296,10 @@
         <v>0.28313100000000002</v>
       </c>
       <c r="T9" s="140" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="10" spans="2:20" ht="16" thickBot="1">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="10" spans="2:20" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B10" s="58"/>
       <c r="C10" s="99" t="s">
         <v>1</v>
@@ -4437,7 +4334,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="11" spans="2:20" ht="16" thickBot="1">
+    <row r="11" spans="2:20" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B11" s="58"/>
       <c r="C11" s="101" t="s">
         <v>6</v>
@@ -4472,7 +4369,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="12" spans="2:20">
+    <row r="12" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B12" s="58"/>
       <c r="C12" s="46"/>
       <c r="D12" s="46"/>
@@ -4492,7 +4389,7 @@
       <c r="R12" s="98"/>
       <c r="T12" s="86"/>
     </row>
-    <row r="13" spans="2:20" ht="16" thickBot="1">
+    <row r="13" spans="2:20" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B13" s="58"/>
       <c r="C13" s="21" t="s">
         <v>130</v>
@@ -4514,10 +4411,10 @@
       <c r="R13" s="98"/>
       <c r="T13" s="86"/>
     </row>
-    <row r="14" spans="2:20" ht="16" thickBot="1">
+    <row r="14" spans="2:20" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B14" s="58"/>
       <c r="C14" s="139" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="D14" s="21"/>
       <c r="E14" s="21"/>
@@ -4540,13 +4437,13 @@
       <c r="Q14" s="98"/>
       <c r="R14" s="98"/>
       <c r="T14" s="151" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="15" spans="2:20" ht="16" thickBot="1">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="15" spans="2:20" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B15" s="58"/>
       <c r="C15" s="139" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="D15" s="104"/>
       <c r="E15" s="104"/>
@@ -4571,13 +4468,13 @@
       <c r="Q15" s="98"/>
       <c r="R15" s="98"/>
       <c r="T15" s="172" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="16" spans="2:20" ht="16" thickBot="1">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="16" spans="2:20" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B16" s="58"/>
       <c r="C16" s="139" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="D16" s="46"/>
       <c r="E16" s="46"/>
@@ -4600,13 +4497,13 @@
       <c r="Q16" s="95"/>
       <c r="R16" s="95"/>
       <c r="T16" s="151" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="17" spans="2:20" ht="16" thickBot="1">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="17" spans="2:20" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B17" s="58"/>
       <c r="C17" s="139" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="D17" s="46"/>
       <c r="E17" s="46"/>
@@ -4631,10 +4528,10 @@
         <v>80</v>
       </c>
     </row>
-    <row r="18" spans="2:20" ht="16" thickBot="1">
+    <row r="18" spans="2:20" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B18" s="58"/>
       <c r="C18" s="139" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="D18" s="108"/>
       <c r="E18" s="108"/>
@@ -4657,10 +4554,10 @@
       <c r="Q18" s="95"/>
       <c r="R18" s="95"/>
       <c r="T18" s="131" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="19" spans="2:20" ht="16" thickBot="1">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="19" spans="2:20" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B19" s="58"/>
       <c r="C19" s="139" t="s">
         <v>77</v>
@@ -4689,7 +4586,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="20" spans="2:20" ht="16" thickBot="1">
+    <row r="20" spans="2:20" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B20" s="58"/>
       <c r="C20" s="139" t="s">
         <v>77</v>
@@ -4715,10 +4612,10 @@
       <c r="R20" s="95"/>
       <c r="T20" s="50"/>
     </row>
-    <row r="21" spans="2:20" ht="16" thickBot="1">
+    <row r="21" spans="2:20" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B21" s="58"/>
       <c r="C21" s="139" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="D21" s="86"/>
       <c r="E21" s="86"/>
@@ -4741,10 +4638,10 @@
       <c r="R21" s="98"/>
       <c r="T21" s="86"/>
     </row>
-    <row r="22" spans="2:20" ht="16" thickBot="1">
+    <row r="22" spans="2:20" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B22" s="58"/>
       <c r="C22" s="150" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="D22" s="86"/>
       <c r="E22" s="86"/>
@@ -4787,11 +4684,6 @@
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
 </worksheet>
 </file>
 
@@ -4806,21 +4698,21 @@
       <selection activeCell="I21" sqref="I21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="33.125" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="33.140625" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="10.125" style="60" customWidth="1"/>
-    <col min="2" max="2" width="5.75" style="60" customWidth="1"/>
-    <col min="3" max="3" width="30.25" style="60" customWidth="1"/>
-    <col min="4" max="4" width="16.125" style="60" customWidth="1"/>
-    <col min="5" max="5" width="10.25" style="60" customWidth="1"/>
-    <col min="6" max="8" width="12.125" style="60" customWidth="1"/>
-    <col min="9" max="9" width="36.75" style="61" customWidth="1"/>
-    <col min="10" max="10" width="105.5" style="60" customWidth="1"/>
-    <col min="11" max="16384" width="33.125" style="60"/>
+    <col min="1" max="1" width="10.140625" style="60" customWidth="1"/>
+    <col min="2" max="2" width="5.7109375" style="60" customWidth="1"/>
+    <col min="3" max="3" width="30.28515625" style="60" customWidth="1"/>
+    <col min="4" max="4" width="16.140625" style="60" customWidth="1"/>
+    <col min="5" max="5" width="10.28515625" style="60" customWidth="1"/>
+    <col min="6" max="8" width="12.140625" style="60" customWidth="1"/>
+    <col min="9" max="9" width="36.7109375" style="61" customWidth="1"/>
+    <col min="10" max="10" width="105.42578125" style="60" customWidth="1"/>
+    <col min="11" max="16384" width="33.140625" style="60"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:10" ht="16" thickBot="1"/>
-    <row r="2" spans="2:10">
+    <row r="1" spans="2:10" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="2" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B2" s="62"/>
       <c r="C2" s="63"/>
       <c r="D2" s="63"/>
@@ -4831,7 +4723,7 @@
       <c r="I2" s="64"/>
       <c r="J2" s="63"/>
     </row>
-    <row r="3" spans="2:10">
+    <row r="3" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B3" s="65"/>
       <c r="C3" s="66" t="s">
         <v>24</v>
@@ -4844,7 +4736,7 @@
       <c r="I3" s="67"/>
       <c r="J3" s="68"/>
     </row>
-    <row r="4" spans="2:10">
+    <row r="4" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B4" s="65"/>
       <c r="C4" s="68"/>
       <c r="D4" s="68"/>
@@ -4855,7 +4747,7 @@
       <c r="I4" s="69"/>
       <c r="J4" s="68"/>
     </row>
-    <row r="5" spans="2:10">
+    <row r="5" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B5" s="70"/>
       <c r="C5" s="71" t="s">
         <v>34</v>
@@ -4870,19 +4762,19 @@
         <v>35</v>
       </c>
       <c r="G5" s="71" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="H5" s="71" t="s">
         <v>91</v>
       </c>
       <c r="I5" s="72" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="J5" s="71" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="6" spans="2:10">
+    <row r="6" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B6" s="65"/>
       <c r="C6" s="66"/>
       <c r="D6" s="66"/>
@@ -4893,7 +4785,7 @@
       <c r="I6" s="67"/>
       <c r="J6" s="66"/>
     </row>
-    <row r="7" spans="2:10">
+    <row r="7" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B7" s="65"/>
       <c r="C7" s="73"/>
       <c r="D7" s="73" t="s">
@@ -4910,13 +4802,13 @@
       </c>
       <c r="H7" s="78"/>
       <c r="I7" s="79" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="J7" s="80" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="8" spans="2:10">
+    <row r="8" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B8" s="65"/>
       <c r="C8" s="74" t="s">
         <v>1</v>
@@ -4929,7 +4821,7 @@
       <c r="I8" s="79"/>
       <c r="J8" s="73"/>
     </row>
-    <row r="9" spans="2:10">
+    <row r="9" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B9" s="65"/>
       <c r="C9" s="75" t="s">
         <v>6</v>
@@ -4942,7 +4834,7 @@
       <c r="I9" s="79"/>
       <c r="J9" s="73"/>
     </row>
-    <row r="10" spans="2:10">
+    <row r="10" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B10" s="65"/>
       <c r="C10" s="171"/>
       <c r="D10" s="73"/>
@@ -4953,14 +4845,14 @@
       <c r="I10" s="79"/>
       <c r="J10" s="73"/>
     </row>
-    <row r="11" spans="2:10" s="153" customFormat="1">
+    <row r="11" spans="2:10" s="153" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B11" s="156"/>
       <c r="C11" s="162"/>
       <c r="D11" s="163" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="E11" s="164" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="F11" s="165" t="s">
         <v>86</v>
@@ -4970,16 +4862,16 @@
       </c>
       <c r="H11" s="165"/>
       <c r="I11" s="173" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="J11" s="163" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="12" spans="2:10" s="153" customFormat="1">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="12" spans="2:10" s="153" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B12" s="156"/>
       <c r="C12" s="167" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="D12" s="163"/>
       <c r="E12" s="157"/>
@@ -4989,10 +4881,10 @@
       <c r="I12" s="168"/>
       <c r="J12" s="170"/>
     </row>
-    <row r="13" spans="2:10" s="153" customFormat="1">
+    <row r="13" spans="2:10" s="153" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B13" s="156"/>
       <c r="C13" s="167" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="D13" s="163"/>
       <c r="E13" s="157"/>
@@ -5002,7 +4894,7 @@
       <c r="I13" s="168"/>
       <c r="J13" s="170"/>
     </row>
-    <row r="14" spans="2:10">
+    <row r="14" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B14" s="65"/>
       <c r="C14" s="171"/>
       <c r="D14" s="73"/>
@@ -5013,7 +4905,7 @@
       <c r="I14" s="79"/>
       <c r="J14" s="73"/>
     </row>
-    <row r="15" spans="2:10">
+    <row r="15" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B15" s="65"/>
       <c r="C15" s="73"/>
       <c r="D15" s="73" t="s">
@@ -5030,11 +4922,11 @@
       </c>
       <c r="H15" s="69"/>
       <c r="I15" s="69" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="J15" s="80"/>
     </row>
-    <row r="16" spans="2:10">
+    <row r="16" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B16" s="65"/>
       <c r="C16" s="76" t="s">
         <v>98</v>
@@ -5047,7 +4939,7 @@
       <c r="I16" s="69"/>
       <c r="J16" s="73"/>
     </row>
-    <row r="17" spans="2:10">
+    <row r="17" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B17" s="65"/>
       <c r="C17" s="76"/>
       <c r="D17" s="73"/>
@@ -5058,7 +4950,7 @@
       <c r="I17" s="69"/>
       <c r="J17" s="73"/>
     </row>
-    <row r="18" spans="2:10">
+    <row r="18" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B18" s="65"/>
       <c r="C18" s="73"/>
       <c r="D18" s="73" t="s">
@@ -5069,7 +4961,7 @@
         <v>2013</v>
       </c>
       <c r="G18" s="69" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="H18" s="69"/>
       <c r="I18" s="69"/>
@@ -5077,7 +4969,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="19" spans="2:10">
+    <row r="19" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B19" s="65"/>
       <c r="C19" s="73" t="s">
         <v>97</v>
@@ -5090,7 +4982,7 @@
       <c r="I19" s="69"/>
       <c r="J19" s="73"/>
     </row>
-    <row r="20" spans="2:10">
+    <row r="20" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B20" s="65"/>
       <c r="C20" s="76" t="s">
         <v>104</v>
@@ -5103,7 +4995,7 @@
       <c r="I20" s="69"/>
       <c r="J20" s="73"/>
     </row>
-    <row r="21" spans="2:10">
+    <row r="21" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B21" s="65"/>
       <c r="C21" s="76" t="s">
         <v>105</v>
@@ -5116,7 +5008,7 @@
       <c r="I21" s="81"/>
       <c r="J21" s="73"/>
     </row>
-    <row r="22" spans="2:10">
+    <row r="22" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B22" s="65"/>
       <c r="C22" s="73"/>
       <c r="D22" s="68"/>
@@ -5127,7 +5019,7 @@
       <c r="I22" s="81"/>
       <c r="J22" s="73"/>
     </row>
-    <row r="23" spans="2:10">
+    <row r="23" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B23" s="65"/>
       <c r="C23" s="73"/>
       <c r="D23" s="60" t="s">
@@ -5146,7 +5038,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="24" spans="2:10">
+    <row r="24" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B24" s="65"/>
       <c r="C24" s="76" t="s">
         <v>90</v>
@@ -5161,7 +5053,7 @@
       <c r="I24" s="81"/>
       <c r="J24" s="73"/>
     </row>
-    <row r="25" spans="2:10">
+    <row r="25" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B25" s="65"/>
       <c r="C25" s="76"/>
       <c r="D25" s="68"/>
@@ -5172,7 +5064,7 @@
       <c r="I25" s="81"/>
       <c r="J25" s="73"/>
     </row>
-    <row r="26" spans="2:10">
+    <row r="26" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B26" s="65"/>
       <c r="C26" s="73"/>
       <c r="D26" s="68" t="s">
@@ -5191,7 +5083,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="27" spans="2:10">
+    <row r="27" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B27" s="65"/>
       <c r="C27" s="76" t="s">
         <v>90</v>
@@ -5215,11 +5107,6 @@
   <ignoredErrors>
     <ignoredError sqref="F7 F15:G15 G18 F11:G11" numberStoredAsText="1"/>
   </ignoredErrors>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
 </worksheet>
 </file>
 
@@ -5231,17 +5118,17 @@
       <selection activeCell="E31" sqref="E31"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="5" style="153" customWidth="1"/>
-    <col min="2" max="2" width="4.875" style="153" customWidth="1"/>
-    <col min="3" max="3" width="12.75" style="153" customWidth="1"/>
-    <col min="4" max="4" width="12.125" style="153" customWidth="1"/>
-    <col min="5" max="16384" width="10.625" style="153"/>
+    <col min="2" max="2" width="4.85546875" style="153" customWidth="1"/>
+    <col min="3" max="3" width="12.7109375" style="153" customWidth="1"/>
+    <col min="4" max="4" width="12.140625" style="153" customWidth="1"/>
+    <col min="5" max="16384" width="10.7109375" style="153"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:15" ht="16" thickBot="1"/>
-    <row r="2" spans="2:15">
+    <row r="1" spans="2:15" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="2" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B2" s="154"/>
       <c r="C2" s="155"/>
       <c r="D2" s="155"/>
@@ -5257,14 +5144,14 @@
       <c r="N2" s="155"/>
       <c r="O2" s="155"/>
     </row>
-    <row r="3" spans="2:15" s="38" customFormat="1">
+    <row r="3" spans="2:15" s="38" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B3" s="141"/>
       <c r="C3" s="24" t="s">
         <v>116</v>
       </c>
       <c r="D3" s="24"/>
       <c r="E3" s="24" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="F3" s="24"/>
       <c r="G3" s="24"/>
@@ -5277,7 +5164,7 @@
       <c r="N3" s="24"/>
       <c r="O3" s="24"/>
     </row>
-    <row r="4" spans="2:15">
+    <row r="4" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B4" s="156"/>
       <c r="C4" s="157"/>
       <c r="D4" s="157"/>
@@ -5293,7 +5180,7 @@
       <c r="N4" s="157"/>
       <c r="O4" s="157"/>
     </row>
-    <row r="5" spans="2:15">
+    <row r="5" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B5" s="156"/>
       <c r="C5" s="157" t="s">
         <v>71</v>
@@ -5311,7 +5198,7 @@
       <c r="N5" s="157"/>
       <c r="O5" s="157"/>
     </row>
-    <row r="6" spans="2:15">
+    <row r="6" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B6" s="156"/>
       <c r="C6" s="157"/>
       <c r="D6" s="157"/>
@@ -5327,10 +5214,10 @@
       <c r="N6" s="157"/>
       <c r="O6" s="157"/>
     </row>
-    <row r="7" spans="2:15">
+    <row r="7" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B7" s="156"/>
       <c r="C7" s="157" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="D7" s="157"/>
       <c r="E7" s="157"/>
@@ -5345,7 +5232,7 @@
       <c r="N7" s="157"/>
       <c r="O7" s="157"/>
     </row>
-    <row r="8" spans="2:15">
+    <row r="8" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B8" s="156"/>
       <c r="C8" s="157"/>
       <c r="D8" s="157"/>
@@ -5361,7 +5248,7 @@
       <c r="N8" s="157"/>
       <c r="O8" s="157"/>
     </row>
-    <row r="9" spans="2:15">
+    <row r="9" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B9" s="156"/>
       <c r="C9" s="157"/>
       <c r="D9" s="157"/>
@@ -5377,7 +5264,7 @@
       <c r="N9" s="157"/>
       <c r="O9" s="157"/>
     </row>
-    <row r="10" spans="2:15">
+    <row r="10" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B10" s="156"/>
       <c r="C10" s="157"/>
       <c r="D10" s="157"/>
@@ -5393,7 +5280,7 @@
       <c r="N10" s="157"/>
       <c r="O10" s="157"/>
     </row>
-    <row r="11" spans="2:15">
+    <row r="11" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B11" s="156"/>
       <c r="C11" s="157"/>
       <c r="D11" s="157"/>
@@ -5409,7 +5296,7 @@
       <c r="N11" s="157"/>
       <c r="O11" s="157"/>
     </row>
-    <row r="12" spans="2:15">
+    <row r="12" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B12" s="156"/>
       <c r="C12" s="157"/>
       <c r="D12" s="157"/>
@@ -5425,7 +5312,7 @@
       <c r="N12" s="157"/>
       <c r="O12" s="157"/>
     </row>
-    <row r="13" spans="2:15">
+    <row r="13" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B13" s="156"/>
       <c r="C13" s="157"/>
       <c r="D13" s="157"/>
@@ -5441,7 +5328,7 @@
       <c r="N13" s="157"/>
       <c r="O13" s="157"/>
     </row>
-    <row r="14" spans="2:15">
+    <row r="14" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B14" s="156"/>
       <c r="C14" s="157"/>
       <c r="D14" s="157"/>
@@ -5457,7 +5344,7 @@
       <c r="N14" s="157"/>
       <c r="O14" s="157"/>
     </row>
-    <row r="15" spans="2:15">
+    <row r="15" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B15" s="156"/>
       <c r="C15" s="157"/>
       <c r="D15" s="157"/>
@@ -5473,7 +5360,7 @@
       <c r="N15" s="157"/>
       <c r="O15" s="157"/>
     </row>
-    <row r="16" spans="2:15">
+    <row r="16" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B16" s="156"/>
       <c r="C16" s="157"/>
       <c r="D16" s="157"/>
@@ -5489,7 +5376,7 @@
       <c r="N16" s="157"/>
       <c r="O16" s="157"/>
     </row>
-    <row r="17" spans="2:15">
+    <row r="17" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B17" s="156"/>
       <c r="C17" s="157"/>
       <c r="D17" s="157"/>
@@ -5505,7 +5392,7 @@
       <c r="N17" s="157"/>
       <c r="O17" s="157"/>
     </row>
-    <row r="18" spans="2:15">
+    <row r="18" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B18" s="156"/>
       <c r="C18" s="157"/>
       <c r="D18" s="157"/>
@@ -5521,7 +5408,7 @@
       <c r="N18" s="157"/>
       <c r="O18" s="157"/>
     </row>
-    <row r="19" spans="2:15">
+    <row r="19" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B19" s="156"/>
       <c r="C19" s="157"/>
       <c r="D19" s="157"/>
@@ -5537,7 +5424,7 @@
       <c r="N19" s="157"/>
       <c r="O19" s="157"/>
     </row>
-    <row r="20" spans="2:15">
+    <row r="20" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B20" s="156"/>
       <c r="C20" s="157"/>
       <c r="D20" s="157"/>
@@ -5553,7 +5440,7 @@
       <c r="N20" s="157"/>
       <c r="O20" s="157"/>
     </row>
-    <row r="21" spans="2:15">
+    <row r="21" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B21" s="156"/>
       <c r="C21" s="157"/>
       <c r="D21" s="157"/>
@@ -5569,14 +5456,14 @@
       <c r="N21" s="157"/>
       <c r="O21" s="157"/>
     </row>
-    <row r="22" spans="2:15">
+    <row r="22" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B22" s="156"/>
       <c r="C22" s="157"/>
       <c r="D22" s="157">
         <v>1400</v>
       </c>
       <c r="E22" s="157" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="F22" s="157"/>
       <c r="G22" s="157"/>
@@ -5589,7 +5476,7 @@
       <c r="N22" s="157"/>
       <c r="O22" s="157"/>
     </row>
-    <row r="23" spans="2:15">
+    <row r="23" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B23" s="156"/>
       <c r="C23" s="157"/>
       <c r="D23" s="157"/>
@@ -5605,7 +5492,7 @@
       <c r="N23" s="157"/>
       <c r="O23" s="157"/>
     </row>
-    <row r="24" spans="2:15">
+    <row r="24" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B24" s="156"/>
       <c r="C24" s="157"/>
       <c r="D24" s="157"/>
@@ -5621,7 +5508,7 @@
       <c r="N24" s="157"/>
       <c r="O24" s="157"/>
     </row>
-    <row r="25" spans="2:15">
+    <row r="25" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B25" s="156"/>
       <c r="C25" s="157"/>
       <c r="D25" s="157"/>
@@ -5637,7 +5524,7 @@
       <c r="N25" s="157"/>
       <c r="O25" s="157"/>
     </row>
-    <row r="26" spans="2:15">
+    <row r="26" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B26" s="156"/>
       <c r="C26" s="157"/>
       <c r="D26" s="157"/>
@@ -5653,10 +5540,10 @@
       <c r="N26" s="157"/>
       <c r="O26" s="157"/>
     </row>
-    <row r="27" spans="2:15">
+    <row r="27" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B27" s="156"/>
       <c r="C27" s="157" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="D27" s="157"/>
       <c r="E27" s="157"/>
@@ -5671,7 +5558,7 @@
       <c r="N27" s="157"/>
       <c r="O27" s="157"/>
     </row>
-    <row r="28" spans="2:15">
+    <row r="28" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B28" s="156"/>
       <c r="C28" s="157"/>
       <c r="D28" s="157"/>
@@ -5687,10 +5574,10 @@
       <c r="N28" s="157"/>
       <c r="O28" s="157"/>
     </row>
-    <row r="29" spans="2:15">
+    <row r="29" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B29" s="156"/>
       <c r="C29" s="157" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="D29" s="157"/>
       <c r="E29" s="157"/>
@@ -5705,7 +5592,7 @@
       <c r="N29" s="157"/>
       <c r="O29" s="157"/>
     </row>
-    <row r="30" spans="2:15">
+    <row r="30" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B30" s="156"/>
       <c r="C30" s="157"/>
       <c r="D30" s="157"/>
@@ -5721,7 +5608,7 @@
       <c r="N30" s="157"/>
       <c r="O30" s="157"/>
     </row>
-    <row r="31" spans="2:15">
+    <row r="31" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B31" s="156"/>
       <c r="C31" s="157"/>
       <c r="D31" s="157"/>
@@ -5737,7 +5624,7 @@
       <c r="N31" s="157"/>
       <c r="O31" s="157"/>
     </row>
-    <row r="32" spans="2:15">
+    <row r="32" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B32" s="156"/>
       <c r="C32" s="157"/>
       <c r="D32" s="157"/>
@@ -5753,7 +5640,7 @@
       <c r="N32" s="157"/>
       <c r="O32" s="157"/>
     </row>
-    <row r="33" spans="2:15">
+    <row r="33" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B33" s="156"/>
       <c r="C33" s="157"/>
       <c r="D33" s="157"/>
@@ -5769,7 +5656,7 @@
       <c r="N33" s="157"/>
       <c r="O33" s="157"/>
     </row>
-    <row r="34" spans="2:15">
+    <row r="34" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B34" s="156"/>
       <c r="C34" s="157" t="s">
         <v>1</v>
@@ -5778,7 +5665,7 @@
         <v>4</v>
       </c>
       <c r="E34" s="157" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="G34" s="157"/>
       <c r="H34" s="157"/>
@@ -5790,16 +5677,16 @@
       <c r="N34" s="157"/>
       <c r="O34" s="157"/>
     </row>
-    <row r="35" spans="2:15">
+    <row r="35" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B35" s="156"/>
       <c r="C35" s="157" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="D35" s="157">
         <v>40</v>
       </c>
       <c r="E35" s="157" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="G35" s="157"/>
       <c r="H35" s="157"/>
@@ -5811,7 +5698,7 @@
       <c r="N35" s="157"/>
       <c r="O35" s="157"/>
     </row>
-    <row r="36" spans="2:15">
+    <row r="36" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B36" s="156"/>
       <c r="C36" s="157"/>
       <c r="D36" s="157"/>
@@ -5827,7 +5714,7 @@
       <c r="N36" s="157"/>
       <c r="O36" s="157"/>
     </row>
-    <row r="37" spans="2:15">
+    <row r="37" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B37" s="156"/>
       <c r="C37" s="157"/>
       <c r="D37" s="157"/>
@@ -5843,7 +5730,7 @@
       <c r="N37" s="157"/>
       <c r="O37" s="157"/>
     </row>
-    <row r="38" spans="2:15">
+    <row r="38" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B38" s="156"/>
       <c r="C38" s="157"/>
       <c r="D38" s="157"/>
@@ -5859,7 +5746,7 @@
       <c r="N38" s="157"/>
       <c r="O38" s="157"/>
     </row>
-    <row r="39" spans="2:15">
+    <row r="39" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B39" s="156"/>
       <c r="C39" s="157"/>
       <c r="D39" s="157"/>
@@ -5875,7 +5762,7 @@
       <c r="N39" s="157"/>
       <c r="O39" s="157"/>
     </row>
-    <row r="40" spans="2:15">
+    <row r="40" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B40" s="156"/>
       <c r="C40" s="157"/>
       <c r="D40" s="157"/>
@@ -5891,7 +5778,7 @@
       <c r="N40" s="157"/>
       <c r="O40" s="157"/>
     </row>
-    <row r="41" spans="2:15">
+    <row r="41" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B41" s="156"/>
       <c r="C41" s="157"/>
       <c r="D41" s="157"/>
@@ -5907,7 +5794,7 @@
       <c r="N41" s="157"/>
       <c r="O41" s="157"/>
     </row>
-    <row r="42" spans="2:15">
+    <row r="42" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B42" s="156"/>
       <c r="C42" s="157"/>
       <c r="D42" s="157"/>
@@ -5923,7 +5810,7 @@
       <c r="N42" s="157"/>
       <c r="O42" s="157"/>
     </row>
-    <row r="43" spans="2:15">
+    <row r="43" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B43" s="156"/>
       <c r="C43" s="157"/>
       <c r="D43" s="157"/>
@@ -5939,7 +5826,7 @@
       <c r="N43" s="157"/>
       <c r="O43" s="157"/>
     </row>
-    <row r="44" spans="2:15">
+    <row r="44" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B44" s="156"/>
       <c r="C44" s="157"/>
       <c r="D44" s="157"/>
@@ -5955,7 +5842,7 @@
       <c r="N44" s="157"/>
       <c r="O44" s="157"/>
     </row>
-    <row r="45" spans="2:15">
+    <row r="45" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B45" s="156"/>
       <c r="C45" s="157"/>
       <c r="D45" s="157"/>
@@ -5971,7 +5858,7 @@
       <c r="N45" s="157"/>
       <c r="O45" s="157"/>
     </row>
-    <row r="46" spans="2:15">
+    <row r="46" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B46" s="156"/>
       <c r="C46" s="157"/>
       <c r="D46" s="157"/>
@@ -5987,7 +5874,7 @@
       <c r="N46" s="157"/>
       <c r="O46" s="157"/>
     </row>
-    <row r="47" spans="2:15">
+    <row r="47" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B47" s="156"/>
       <c r="C47" s="157" t="s">
         <v>26</v>
@@ -6005,10 +5892,10 @@
       <c r="N47" s="157"/>
       <c r="O47" s="157"/>
     </row>
-    <row r="48" spans="2:15">
+    <row r="48" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B48" s="156"/>
       <c r="C48" s="157" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="D48" s="157"/>
       <c r="E48" s="157"/>
@@ -6023,7 +5910,7 @@
       <c r="N48" s="157"/>
       <c r="O48" s="157"/>
     </row>
-    <row r="49" spans="2:15">
+    <row r="49" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B49" s="156"/>
       <c r="C49" s="157"/>
       <c r="D49" s="157"/>
@@ -6039,7 +5926,7 @@
       <c r="N49" s="157"/>
       <c r="O49" s="157"/>
     </row>
-    <row r="50" spans="2:15">
+    <row r="50" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B50" s="156"/>
       <c r="C50" s="157"/>
       <c r="D50" s="157"/>
@@ -6055,7 +5942,7 @@
       <c r="N50" s="157"/>
       <c r="O50" s="157"/>
     </row>
-    <row r="51" spans="2:15">
+    <row r="51" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B51" s="156"/>
       <c r="C51" s="157"/>
       <c r="D51" s="157"/>
@@ -6071,7 +5958,7 @@
       <c r="N51" s="157"/>
       <c r="O51" s="157"/>
     </row>
-    <row r="52" spans="2:15">
+    <row r="52" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B52" s="156"/>
       <c r="C52" s="157"/>
       <c r="D52" s="157"/>
@@ -6087,7 +5974,7 @@
       <c r="N52" s="157"/>
       <c r="O52" s="157"/>
     </row>
-    <row r="53" spans="2:15">
+    <row r="53" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B53" s="156"/>
       <c r="C53" s="157"/>
       <c r="D53" s="157"/>
@@ -6103,7 +5990,7 @@
       <c r="N53" s="157"/>
       <c r="O53" s="157"/>
     </row>
-    <row r="54" spans="2:15">
+    <row r="54" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B54" s="156"/>
       <c r="C54" s="157"/>
       <c r="D54" s="157"/>
@@ -6119,7 +6006,7 @@
       <c r="N54" s="157"/>
       <c r="O54" s="157"/>
     </row>
-    <row r="55" spans="2:15">
+    <row r="55" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B55" s="156"/>
       <c r="C55" s="157"/>
       <c r="D55" s="157"/>
@@ -6135,16 +6022,16 @@
       <c r="N55" s="157"/>
       <c r="O55" s="157"/>
     </row>
-    <row r="56" spans="2:15">
+    <row r="56" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B56" s="156"/>
       <c r="C56" s="157" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="D56" s="161">
         <v>40</v>
       </c>
       <c r="E56" s="161" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="F56" s="157"/>
       <c r="G56" s="157"/>
@@ -6157,7 +6044,7 @@
       <c r="N56" s="157"/>
       <c r="O56" s="157"/>
     </row>
-    <row r="57" spans="2:15">
+    <row r="57" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B57" s="156"/>
       <c r="C57" s="157"/>
       <c r="D57" s="157"/>
@@ -6173,7 +6060,7 @@
       <c r="N57" s="157"/>
       <c r="O57" s="157"/>
     </row>
-    <row r="58" spans="2:15">
+    <row r="58" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B58" s="156"/>
       <c r="C58" s="157"/>
       <c r="D58" s="157"/>
@@ -6189,7 +6076,7 @@
       <c r="N58" s="157"/>
       <c r="O58" s="157"/>
     </row>
-    <row r="59" spans="2:15">
+    <row r="59" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B59" s="156"/>
       <c r="C59" s="157"/>
       <c r="D59" s="157"/>
@@ -6205,7 +6092,7 @@
       <c r="N59" s="157"/>
       <c r="O59" s="157"/>
     </row>
-    <row r="60" spans="2:15">
+    <row r="60" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B60" s="156"/>
       <c r="C60" s="157"/>
       <c r="D60" s="157"/>
@@ -6221,10 +6108,10 @@
       <c r="N60" s="157"/>
       <c r="O60" s="157"/>
     </row>
-    <row r="61" spans="2:15">
+    <row r="61" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B61" s="156"/>
       <c r="C61" s="157" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="D61" s="157"/>
       <c r="E61" s="157"/>
@@ -6239,7 +6126,7 @@
       <c r="N61" s="157"/>
       <c r="O61" s="157"/>
     </row>
-    <row r="62" spans="2:15">
+    <row r="62" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B62" s="156"/>
       <c r="C62" s="157"/>
       <c r="D62" s="157"/>
@@ -6255,7 +6142,7 @@
       <c r="N62" s="157"/>
       <c r="O62" s="157"/>
     </row>
-    <row r="63" spans="2:15">
+    <row r="63" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B63" s="156"/>
       <c r="C63" s="157"/>
       <c r="D63" s="157"/>
@@ -6271,7 +6158,7 @@
       <c r="N63" s="157"/>
       <c r="O63" s="157"/>
     </row>
-    <row r="64" spans="2:15">
+    <row r="64" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B64" s="156"/>
       <c r="C64" s="157"/>
       <c r="D64" s="157"/>
@@ -6287,7 +6174,7 @@
       <c r="N64" s="157"/>
       <c r="O64" s="157"/>
     </row>
-    <row r="65" spans="2:15">
+    <row r="65" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B65" s="156"/>
       <c r="C65" s="157"/>
       <c r="D65" s="157"/>
@@ -6303,7 +6190,7 @@
       <c r="N65" s="157"/>
       <c r="O65" s="157"/>
     </row>
-    <row r="66" spans="2:15">
+    <row r="66" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B66" s="156"/>
       <c r="C66" s="157"/>
       <c r="D66" s="157"/>
@@ -6319,7 +6206,7 @@
       <c r="N66" s="157"/>
       <c r="O66" s="157"/>
     </row>
-    <row r="67" spans="2:15">
+    <row r="67" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B67" s="156"/>
       <c r="C67" s="157" t="s">
         <v>1</v>
@@ -6328,7 +6215,7 @@
         <v>4</v>
       </c>
       <c r="E67" s="157" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="G67" s="157"/>
       <c r="H67" s="157"/>
@@ -6340,7 +6227,7 @@
       <c r="N67" s="157"/>
       <c r="O67" s="157"/>
     </row>
-    <row r="68" spans="2:15">
+    <row r="68" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B68" s="156"/>
       <c r="C68" s="157"/>
       <c r="D68" s="157"/>
@@ -6356,7 +6243,7 @@
       <c r="N68" s="157"/>
       <c r="O68" s="157"/>
     </row>
-    <row r="69" spans="2:15">
+    <row r="69" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B69" s="156"/>
       <c r="C69" s="157"/>
       <c r="D69" s="157"/>
@@ -6372,7 +6259,7 @@
       <c r="N69" s="157"/>
       <c r="O69" s="157"/>
     </row>
-    <row r="70" spans="2:15">
+    <row r="70" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B70" s="156"/>
       <c r="C70" s="157"/>
       <c r="D70" s="157"/>
@@ -6388,7 +6275,7 @@
       <c r="N70" s="157"/>
       <c r="O70" s="157"/>
     </row>
-    <row r="71" spans="2:15">
+    <row r="71" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B71" s="156"/>
       <c r="C71" s="157"/>
       <c r="D71" s="157"/>
@@ -6404,7 +6291,7 @@
       <c r="N71" s="157"/>
       <c r="O71" s="157"/>
     </row>
-    <row r="72" spans="2:15">
+    <row r="72" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B72" s="156"/>
       <c r="C72" s="157"/>
       <c r="D72" s="157"/>
@@ -6420,7 +6307,7 @@
       <c r="N72" s="157"/>
       <c r="O72" s="157"/>
     </row>
-    <row r="73" spans="2:15" ht="16" thickBot="1">
+    <row r="73" spans="2:15" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B73" s="158"/>
       <c r="C73" s="159"/>
       <c r="D73" s="159"/>
@@ -6440,10 +6327,5 @@
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <drawing r:id="rId1"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
 </worksheet>
 </file>
--- a/nodes_source_analyses/energy/energy_chp_ultra_supercritical_coal.central_producer.xlsx
+++ b/nodes_source_analyses/energy/energy_chp_ultra_supercritical_coal.central_producer.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="27907"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10523"/>
   <workbookPr showInkAnnotation="0" codeName="ThisWorkbook" autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/dorinevandervlies/Projects/etdataset/nodes_source_analyses/energy/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/marliekeverweij/Projects/etdataset/nodes_source_analyses/energy/"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{93B1E2D2-DBF4-8745-AE93-4B14F3FAE80B}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1080" yWindow="460" windowWidth="25600" windowHeight="15900" tabRatio="762" activeTab="1"/>
+    <workbookView xWindow="1080" yWindow="460" windowWidth="25600" windowHeight="15900" tabRatio="762" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Cover sheet" sheetId="14" r:id="rId1"/>
@@ -36,7 +37,7 @@
     <definedName name="Wp_to_kWp">#REF!</definedName>
     <definedName name="WP_to_MWp">#REF!</definedName>
   </definedNames>
-  <calcPr calcId="150001" concurrentCalc="0"/>
+  <calcPr calcId="179017"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
       <x14:workbookPr defaultImageDpi="32767"/>
@@ -49,7 +50,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="264" uniqueCount="167">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="244" uniqueCount="157">
   <si>
     <t>Source</t>
   </si>
@@ -198,18 +199,6 @@
     <t>heat_output_capacity</t>
   </si>
   <si>
-    <t>simult_sd</t>
-  </si>
-  <si>
-    <t>simult_wd</t>
-  </si>
-  <si>
-    <t>simult_we</t>
-  </si>
-  <si>
-    <t>peak_load_units_present</t>
-  </si>
-  <si>
     <t>initial_investment</t>
   </si>
   <si>
@@ -246,9 +235,6 @@
     <t>hours_remov_nl</t>
   </si>
   <si>
-    <t>simult_se</t>
-  </si>
-  <si>
     <t>hours_maint_nl</t>
   </si>
   <si>
@@ -271,9 +257,6 @@
   </si>
   <si>
     <t>Heat output capacity</t>
-  </si>
-  <si>
-    <t>The number of units for the present year</t>
   </si>
   <si>
     <t>Investment cost with ccs</t>
@@ -371,18 +354,6 @@
   </si>
   <si>
     <t>https://github.com/quintel/etsource/issues/272#issuecomment-18286997</t>
-  </si>
-  <si>
-    <t>Probability that two peaks fall in the same time in the summer day</t>
-  </si>
-  <si>
-    <t>Probability that two peaks fal in the same time in the summer evining</t>
-  </si>
-  <si>
-    <t>Probability that two peaks fall in the same time in the winter day</t>
-  </si>
-  <si>
-    <t>Probability that two peaks fall in the same time in the winter evining</t>
   </si>
   <si>
     <t xml:space="preserve">  Fixed operational and maintenance costs</t>
@@ -864,13 +835,13 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="3">
     <numFmt numFmtId="164" formatCode="0.0"/>
     <numFmt numFmtId="165" formatCode="0.0000"/>
     <numFmt numFmtId="166" formatCode="0.000"/>
   </numFmts>
-  <fonts count="26" x14ac:knownFonts="1">
+  <fonts count="26">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -1596,7 +1567,7 @@
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="183">
+  <cellXfs count="181">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -1668,7 +1639,6 @@
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="177" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="7" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="2" fontId="10" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -1793,7 +1763,6 @@
     <xf numFmtId="2" fontId="6" fillId="2" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="16" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="16" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -2167,6 +2136,9 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
   </extLst>
 </styleSheet>
 </file>
@@ -2188,7 +2160,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="Picture 1"/>
+        <xdr:cNvPr id="2" name="Picture 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -2225,7 +2203,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="4" name="Picture 3"/>
+        <xdr:cNvPr id="4" name="Picture 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000004000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -2263,7 +2247,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="6" name="Picture 5"/>
+        <xdr:cNvPr id="6" name="Picture 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000006000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -2301,7 +2291,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="7" name="Picture 6"/>
+        <xdr:cNvPr id="7" name="Picture 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000007000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -2761,56 +2757,56 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr codeName="Sheet1" enableFormatConditionsCalculation="0"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:C23"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.6640625" defaultRowHeight="16"/>
   <cols>
-    <col min="1" max="1" width="4.85546875" style="43" customWidth="1"/>
-    <col min="2" max="2" width="9.28515625" style="30" customWidth="1"/>
-    <col min="3" max="3" width="38.42578125" style="30" customWidth="1"/>
-    <col min="4" max="16384" width="10.7109375" style="30"/>
+    <col min="1" max="1" width="4.83203125" style="43" customWidth="1"/>
+    <col min="2" max="2" width="9.33203125" style="30" customWidth="1"/>
+    <col min="3" max="3" width="38.5" style="30" customWidth="1"/>
+    <col min="4" max="16384" width="10.6640625" style="30"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" s="41" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:3" s="41" customFormat="1">
       <c r="A1" s="39"/>
       <c r="B1" s="40"/>
       <c r="C1" s="40"/>
     </row>
-    <row r="2" spans="1:3" ht="21" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" ht="21">
       <c r="A2" s="7"/>
       <c r="B2" s="42" t="s">
         <v>19</v>
       </c>
       <c r="C2" s="42"/>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:3">
       <c r="A3" s="7"/>
       <c r="B3" s="14"/>
       <c r="C3" s="14"/>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:3">
       <c r="A4" s="7"/>
       <c r="B4" s="8" t="s">
         <v>20</v>
       </c>
       <c r="C4" s="9" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
       <c r="A5" s="7"/>
       <c r="B5" s="10" t="s">
-        <v>121</v>
+        <v>111</v>
       </c>
       <c r="C5" s="11" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3">
       <c r="A6" s="7"/>
       <c r="B6" s="12" t="s">
         <v>22</v>
@@ -2819,118 +2815,118 @@
         <v>23</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:3">
       <c r="A7" s="7"/>
       <c r="B7" s="14"/>
       <c r="C7" s="14"/>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:3">
       <c r="A8" s="7"/>
       <c r="B8" s="14"/>
       <c r="C8" s="14"/>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:3">
       <c r="A9" s="7"/>
-      <c r="B9" s="113" t="s">
+      <c r="B9" s="111" t="s">
+        <v>96</v>
+      </c>
+      <c r="C9" s="112"/>
+    </row>
+    <row r="10" spans="1:3">
+      <c r="A10" s="7"/>
+      <c r="B10" s="113"/>
+      <c r="C10" s="114"/>
+    </row>
+    <row r="11" spans="1:3">
+      <c r="A11" s="7"/>
+      <c r="B11" s="113" t="s">
+        <v>97</v>
+      </c>
+      <c r="C11" s="115" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" ht="17" thickBot="1">
+      <c r="A12" s="7"/>
+      <c r="B12" s="113"/>
+      <c r="C12" s="23" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" ht="17" thickBot="1">
+      <c r="A13" s="7"/>
+      <c r="B13" s="113"/>
+      <c r="C13" s="116" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3">
+      <c r="A14" s="7"/>
+      <c r="B14" s="113"/>
+      <c r="C14" s="114" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3">
+      <c r="A15" s="7"/>
+      <c r="B15" s="113"/>
+      <c r="C15" s="114"/>
+    </row>
+    <row r="16" spans="1:3">
+      <c r="A16" s="7"/>
+      <c r="B16" s="113" t="s">
+        <v>102</v>
+      </c>
+      <c r="C16" s="117" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3">
+      <c r="A17" s="7"/>
+      <c r="B17" s="113"/>
+      <c r="C17" s="118" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3">
+      <c r="A18" s="7"/>
+      <c r="B18" s="113"/>
+      <c r="C18" s="119" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3">
+      <c r="A19" s="7"/>
+      <c r="B19" s="113"/>
+      <c r="C19" s="120" t="s">
         <v>106</v>
       </c>
-      <c r="C9" s="114"/>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A10" s="7"/>
-      <c r="B10" s="115"/>
-      <c r="C10" s="116"/>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A11" s="7"/>
-      <c r="B11" s="115" t="s">
+    </row>
+    <row r="20" spans="1:3">
+      <c r="A20" s="7"/>
+      <c r="B20" s="121"/>
+      <c r="C20" s="122" t="s">
         <v>107</v>
       </c>
-      <c r="C11" s="117" t="s">
+    </row>
+    <row r="21" spans="1:3">
+      <c r="A21" s="7"/>
+      <c r="B21" s="121"/>
+      <c r="C21" s="123" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="12" spans="1:3" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="7"/>
-      <c r="B12" s="115"/>
-      <c r="C12" s="23" t="s">
+    <row r="22" spans="1:3">
+      <c r="A22" s="7"/>
+      <c r="B22" s="121"/>
+      <c r="C22" s="124" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="13" spans="1:3" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="7"/>
-      <c r="B13" s="115"/>
-      <c r="C13" s="118" t="s">
+    <row r="23" spans="1:3">
+      <c r="B23" s="121"/>
+      <c r="C23" s="125" t="s">
         <v>110</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A14" s="7"/>
-      <c r="B14" s="115"/>
-      <c r="C14" s="116" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A15" s="7"/>
-      <c r="B15" s="115"/>
-      <c r="C15" s="116"/>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A16" s="7"/>
-      <c r="B16" s="115" t="s">
-        <v>112</v>
-      </c>
-      <c r="C16" s="119" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A17" s="7"/>
-      <c r="B17" s="115"/>
-      <c r="C17" s="120" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A18" s="7"/>
-      <c r="B18" s="115"/>
-      <c r="C18" s="121" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A19" s="7"/>
-      <c r="B19" s="115"/>
-      <c r="C19" s="122" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A20" s="7"/>
-      <c r="B20" s="123"/>
-      <c r="C20" s="124" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A21" s="7"/>
-      <c r="B21" s="123"/>
-      <c r="C21" s="125" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A22" s="7"/>
-      <c r="B22" s="123"/>
-      <c r="C22" s="126" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="B23" s="123"/>
-      <c r="C23" s="127" t="s">
-        <v>120</v>
       </c>
     </row>
   </sheetData>
@@ -2940,32 +2936,32 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr codeName="Sheet2" enableFormatConditionsCalculation="0">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <sheetPr codeName="Sheet2">
     <tabColor rgb="FFFFFF00"/>
   </sheetPr>
-  <dimension ref="B1:K72"/>
+  <dimension ref="B1:K67"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+      <selection activeCell="A20" sqref="A20:XFD24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.6640625" defaultRowHeight="16"/>
   <cols>
-    <col min="1" max="1" width="3.28515625" style="4" customWidth="1"/>
-    <col min="2" max="2" width="3.7109375" style="4" customWidth="1"/>
-    <col min="3" max="3" width="44.5703125" style="4" customWidth="1"/>
-    <col min="4" max="4" width="14.42578125" style="4" customWidth="1"/>
-    <col min="5" max="5" width="17.42578125" style="4" customWidth="1"/>
-    <col min="6" max="6" width="4.5703125" style="4" customWidth="1"/>
+    <col min="1" max="1" width="3.33203125" style="4" customWidth="1"/>
+    <col min="2" max="2" width="3.6640625" style="4" customWidth="1"/>
+    <col min="3" max="3" width="44.5" style="4" customWidth="1"/>
+    <col min="4" max="4" width="14.5" style="4" customWidth="1"/>
+    <col min="5" max="5" width="17.5" style="4" customWidth="1"/>
+    <col min="6" max="6" width="4.5" style="4" customWidth="1"/>
     <col min="7" max="7" width="45" style="4" customWidth="1"/>
-    <col min="8" max="8" width="5.140625" style="4" customWidth="1"/>
-    <col min="9" max="9" width="49.42578125" style="4" customWidth="1"/>
-    <col min="10" max="10" width="5.42578125" style="4" customWidth="1"/>
-    <col min="11" max="16384" width="10.7109375" style="4"/>
+    <col min="8" max="8" width="5.1640625" style="4" customWidth="1"/>
+    <col min="9" max="9" width="49.5" style="4" customWidth="1"/>
+    <col min="10" max="10" width="5.5" style="4" customWidth="1"/>
+    <col min="11" max="16384" width="10.6640625" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="1" spans="2:11">
       <c r="B1" s="15"/>
       <c r="C1" s="15"/>
       <c r="D1" s="16"/>
@@ -2975,49 +2971,49 @@
       <c r="H1" s="15"/>
       <c r="I1" s="15"/>
     </row>
-    <row r="2" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B2" s="174" t="s">
-        <v>166</v>
-      </c>
-      <c r="C2" s="175"/>
-      <c r="D2" s="175"/>
-      <c r="E2" s="176"/>
+    <row r="2" spans="2:11">
+      <c r="B2" s="172" t="s">
+        <v>156</v>
+      </c>
+      <c r="C2" s="173"/>
+      <c r="D2" s="173"/>
+      <c r="E2" s="174"/>
       <c r="F2" s="16"/>
       <c r="G2" s="16"/>
       <c r="H2" s="15"/>
       <c r="I2" s="15"/>
     </row>
-    <row r="3" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B3" s="177"/>
-      <c r="C3" s="178"/>
-      <c r="D3" s="178"/>
-      <c r="E3" s="179"/>
+    <row r="3" spans="2:11">
+      <c r="B3" s="175"/>
+      <c r="C3" s="176"/>
+      <c r="D3" s="176"/>
+      <c r="E3" s="177"/>
       <c r="F3" s="16"/>
       <c r="G3" s="16"/>
       <c r="H3" s="15"/>
       <c r="I3" s="15"/>
     </row>
-    <row r="4" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B4" s="177"/>
-      <c r="C4" s="178"/>
-      <c r="D4" s="178"/>
-      <c r="E4" s="179"/>
+    <row r="4" spans="2:11">
+      <c r="B4" s="175"/>
+      <c r="C4" s="176"/>
+      <c r="D4" s="176"/>
+      <c r="E4" s="177"/>
       <c r="F4" s="16"/>
       <c r="G4" s="16"/>
       <c r="H4" s="15"/>
       <c r="I4" s="15"/>
     </row>
-    <row r="5" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B5" s="180"/>
-      <c r="C5" s="181"/>
-      <c r="D5" s="181"/>
-      <c r="E5" s="182"/>
+    <row r="5" spans="2:11">
+      <c r="B5" s="178"/>
+      <c r="C5" s="179"/>
+      <c r="D5" s="179"/>
+      <c r="E5" s="180"/>
       <c r="F5" s="16"/>
       <c r="G5" s="16"/>
       <c r="H5" s="15"/>
       <c r="I5" s="15"/>
     </row>
-    <row r="6" spans="2:11" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:11" ht="17" thickBot="1">
       <c r="B6" s="15"/>
       <c r="C6" s="15"/>
       <c r="D6" s="16"/>
@@ -3027,7 +3023,7 @@
       <c r="H6" s="15"/>
       <c r="I6" s="15"/>
     </row>
-    <row r="7" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="7" spans="2:11">
       <c r="B7" s="27"/>
       <c r="C7" s="26"/>
       <c r="D7" s="26"/>
@@ -3038,12 +3034,12 @@
       <c r="I7" s="26"/>
       <c r="J7" s="25"/>
     </row>
-    <row r="8" spans="2:11" s="5" customFormat="1" ht="18" x14ac:dyDescent="0.2">
-      <c r="B8" s="141"/>
+    <row r="8" spans="2:11" s="5" customFormat="1" ht="18">
+      <c r="B8" s="139"/>
       <c r="C8" s="24" t="s">
         <v>36</v>
       </c>
-      <c r="D8" s="142" t="s">
+      <c r="D8" s="140" t="s">
         <v>16</v>
       </c>
       <c r="E8" s="24" t="s">
@@ -3057,9 +3053,9 @@
       <c r="I8" s="24" t="s">
         <v>0</v>
       </c>
-      <c r="J8" s="143"/>
-    </row>
-    <row r="9" spans="2:11" s="5" customFormat="1" ht="18" x14ac:dyDescent="0.2">
+      <c r="J8" s="141"/>
+    </row>
+    <row r="9" spans="2:11" s="5" customFormat="1" ht="18">
       <c r="B9" s="37"/>
       <c r="C9" s="23"/>
       <c r="D9" s="45"/>
@@ -3070,10 +3066,10 @@
       <c r="I9" s="23"/>
       <c r="J9" s="22"/>
     </row>
-    <row r="10" spans="2:11" s="5" customFormat="1" ht="19" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:11" s="5" customFormat="1" ht="19" thickBot="1">
       <c r="B10" s="37"/>
       <c r="C10" s="23" t="s">
-        <v>123</v>
+        <v>113</v>
       </c>
       <c r="D10" s="45"/>
       <c r="E10" s="23"/>
@@ -3083,7 +3079,7 @@
       <c r="I10" s="23"/>
       <c r="J10" s="22"/>
     </row>
-    <row r="11" spans="2:11" s="5" customFormat="1" ht="19" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:11" s="5" customFormat="1" ht="19" thickBot="1">
       <c r="B11" s="37"/>
       <c r="C11" s="48" t="s">
         <v>37</v>
@@ -3098,11 +3094,11 @@
       <c r="G11" s="28"/>
       <c r="H11" s="44"/>
       <c r="I11" s="31" t="s">
-        <v>72</v>
+        <v>67</v>
       </c>
       <c r="J11" s="22"/>
     </row>
-    <row r="12" spans="2:11" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:11" ht="17" thickBot="1">
       <c r="B12" s="32"/>
       <c r="C12" s="48" t="s">
         <v>39</v>
@@ -3110,19 +3106,19 @@
       <c r="D12" s="33" t="s">
         <v>5</v>
       </c>
-      <c r="E12" s="54">
+      <c r="E12" s="53">
         <v>0.9</v>
       </c>
       <c r="F12" s="28"/>
       <c r="G12" s="28"/>
       <c r="H12" s="28"/>
       <c r="I12" s="31" t="s">
-        <v>72</v>
-      </c>
-      <c r="J12" s="147"/>
+        <v>67</v>
+      </c>
+      <c r="J12" s="145"/>
       <c r="K12" s="3"/>
     </row>
-    <row r="13" spans="2:11" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:11" ht="17" thickBot="1">
       <c r="B13" s="32"/>
       <c r="C13" s="48" t="s">
         <v>40</v>
@@ -3137,12 +3133,12 @@
       <c r="G13" s="28"/>
       <c r="H13" s="28"/>
       <c r="I13" s="31" t="s">
-        <v>72</v>
-      </c>
-      <c r="J13" s="147"/>
+        <v>67</v>
+      </c>
+      <c r="J13" s="145"/>
       <c r="K13" s="3"/>
     </row>
-    <row r="14" spans="2:11" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:11" ht="17" thickBot="1">
       <c r="B14" s="32"/>
       <c r="C14" s="48" t="s">
         <v>42</v>
@@ -3157,12 +3153,12 @@
       <c r="G14" s="28"/>
       <c r="H14" s="28"/>
       <c r="I14" s="31" t="s">
-        <v>72</v>
-      </c>
-      <c r="J14" s="147"/>
+        <v>67</v>
+      </c>
+      <c r="J14" s="145"/>
       <c r="K14" s="3"/>
     </row>
-    <row r="15" spans="2:11" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:11" ht="17" thickBot="1">
       <c r="B15" s="32"/>
       <c r="C15" s="48" t="s">
         <v>11</v>
@@ -3177,12 +3173,12 @@
       <c r="G15" s="28"/>
       <c r="H15" s="28"/>
       <c r="I15" s="31" t="s">
-        <v>72</v>
-      </c>
-      <c r="J15" s="147"/>
+        <v>67</v>
+      </c>
+      <c r="J15" s="145"/>
       <c r="K15" s="3"/>
     </row>
-    <row r="16" spans="2:11" s="2" customFormat="1" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:11" s="2" customFormat="1" ht="17" thickBot="1">
       <c r="B16" s="32"/>
       <c r="C16" s="47" t="s">
         <v>45</v>
@@ -3197,12 +3193,12 @@
       <c r="G16" s="28"/>
       <c r="H16" s="28"/>
       <c r="I16" s="31" t="s">
-        <v>72</v>
-      </c>
-      <c r="J16" s="148"/>
+        <v>67</v>
+      </c>
+      <c r="J16" s="146"/>
       <c r="K16" s="1"/>
     </row>
-    <row r="17" spans="2:11" s="2" customFormat="1" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:11" s="2" customFormat="1" ht="17" thickBot="1">
       <c r="B17" s="32"/>
       <c r="C17" s="48" t="s">
         <v>46</v>
@@ -3217,20 +3213,20 @@
       <c r="G17" s="28"/>
       <c r="H17" s="28"/>
       <c r="I17" s="31" t="s">
-        <v>72</v>
-      </c>
-      <c r="J17" s="148"/>
+        <v>67</v>
+      </c>
+      <c r="J17" s="146"/>
       <c r="K17" s="1"/>
     </row>
-    <row r="18" spans="2:11" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:11" ht="17" thickBot="1">
       <c r="B18" s="32"/>
       <c r="C18" s="48" t="s">
         <v>47</v>
       </c>
       <c r="D18" s="33" t="s">
-        <v>131</v>
-      </c>
-      <c r="E18" s="54">
+        <v>121</v>
+      </c>
+      <c r="E18" s="53">
         <f>'Research data'!H6</f>
         <v>695.65</v>
       </c>
@@ -3240,460 +3236,450 @@
       </c>
       <c r="H18" s="28"/>
       <c r="I18" s="31" t="s">
-        <v>72</v>
-      </c>
-      <c r="J18" s="147"/>
-    </row>
-    <row r="19" spans="2:11" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+        <v>67</v>
+      </c>
+      <c r="J18" s="145"/>
+    </row>
+    <row r="19" spans="2:11" ht="17" thickBot="1">
       <c r="B19" s="32"/>
       <c r="C19" s="48" t="s">
         <v>48</v>
       </c>
       <c r="D19" s="33" t="s">
-        <v>131</v>
-      </c>
-      <c r="E19" s="54">
+        <v>121</v>
+      </c>
+      <c r="E19" s="53">
         <v>260.86956521739103</v>
       </c>
       <c r="F19" s="28"/>
       <c r="G19" s="51" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
       <c r="H19" s="28"/>
       <c r="I19" s="31" t="s">
-        <v>72</v>
-      </c>
-      <c r="J19" s="147"/>
-    </row>
-    <row r="20" spans="2:11" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+        <v>67</v>
+      </c>
+      <c r="J19" s="145"/>
+    </row>
+    <row r="20" spans="2:11">
       <c r="B20" s="32"/>
-      <c r="C20" s="48" t="s">
-        <v>49</v>
-      </c>
-      <c r="D20" s="33" t="s">
-        <v>5</v>
-      </c>
-      <c r="E20" s="49">
-        <v>1</v>
-      </c>
-      <c r="F20" s="28"/>
-      <c r="G20" s="112" t="s">
-        <v>100</v>
-      </c>
-      <c r="H20" s="28"/>
-      <c r="I20" s="31" t="s">
-        <v>72</v>
-      </c>
-      <c r="J20" s="147"/>
-    </row>
-    <row r="21" spans="2:11" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="C20" s="142"/>
+      <c r="D20" s="143"/>
+      <c r="E20" s="136"/>
+      <c r="F20" s="30"/>
+      <c r="G20" s="144"/>
+      <c r="H20" s="30"/>
+      <c r="I20" s="30"/>
+      <c r="J20" s="145"/>
+    </row>
+    <row r="21" spans="2:11" ht="17" thickBot="1">
       <c r="B21" s="32"/>
-      <c r="C21" s="48" t="s">
-        <v>65</v>
-      </c>
-      <c r="D21" s="33" t="s">
-        <v>5</v>
-      </c>
-      <c r="E21" s="49">
-        <v>1</v>
-      </c>
-      <c r="F21" s="28"/>
-      <c r="G21" s="112" t="s">
-        <v>101</v>
-      </c>
-      <c r="H21" s="28"/>
-      <c r="I21" s="31" t="s">
-        <v>72</v>
-      </c>
-      <c r="J21" s="147"/>
-    </row>
-    <row r="22" spans="2:11" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="C21" s="23" t="s">
+        <v>129</v>
+      </c>
+      <c r="D21" s="143"/>
+      <c r="E21" s="136"/>
+      <c r="F21" s="30"/>
+      <c r="G21" s="144"/>
+      <c r="H21" s="30"/>
+      <c r="I21" s="30"/>
+      <c r="J21" s="145"/>
+    </row>
+    <row r="22" spans="2:11" ht="17" thickBot="1">
       <c r="B22" s="32"/>
       <c r="C22" s="48" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D22" s="33" t="s">
-        <v>5</v>
+        <v>38</v>
       </c>
       <c r="E22" s="49">
-        <v>1</v>
+        <f>'Research data'!H14</f>
+        <v>1182605000</v>
       </c>
       <c r="F22" s="28"/>
-      <c r="G22" s="112" t="s">
-        <v>102</v>
+      <c r="G22" s="51" t="s">
+        <v>9</v>
       </c>
       <c r="H22" s="28"/>
-      <c r="I22" s="31" t="s">
-        <v>72</v>
+      <c r="I22" s="52" t="s">
+        <v>93</v>
       </c>
       <c r="J22" s="147"/>
     </row>
-    <row r="23" spans="2:11" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:11" ht="17" thickBot="1">
       <c r="B23" s="32"/>
       <c r="C23" s="48" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D23" s="33" t="s">
-        <v>5</v>
+        <v>38</v>
       </c>
       <c r="E23" s="49">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F23" s="28"/>
-      <c r="G23" s="112" t="s">
-        <v>103</v>
+      <c r="G23" s="51" t="s">
+        <v>69</v>
       </c>
       <c r="H23" s="28"/>
       <c r="I23" s="31" t="s">
-        <v>72</v>
+        <v>67</v>
       </c>
       <c r="J23" s="147"/>
     </row>
-    <row r="24" spans="2:11" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:11" ht="17" thickBot="1">
       <c r="B24" s="32"/>
       <c r="C24" s="48" t="s">
-        <v>52</v>
+        <v>13</v>
       </c>
       <c r="D24" s="33" t="s">
-        <v>5</v>
+        <v>38</v>
       </c>
       <c r="E24" s="49">
         <v>0</v>
       </c>
       <c r="F24" s="28"/>
-      <c r="G24" s="53" t="s">
-        <v>74</v>
+      <c r="G24" s="51" t="s">
+        <v>28</v>
       </c>
       <c r="H24" s="28"/>
       <c r="I24" s="31" t="s">
-        <v>72</v>
-      </c>
-      <c r="J24" s="147"/>
-    </row>
-    <row r="25" spans="2:11" x14ac:dyDescent="0.2">
+        <v>67</v>
+      </c>
+      <c r="J24" s="145"/>
+    </row>
+    <row r="25" spans="2:11" ht="17" thickBot="1">
       <c r="B25" s="32"/>
-      <c r="C25" s="144"/>
-      <c r="D25" s="145"/>
-      <c r="E25" s="138"/>
-      <c r="F25" s="30"/>
-      <c r="G25" s="146"/>
-      <c r="H25" s="30"/>
-      <c r="I25" s="30"/>
-      <c r="J25" s="147"/>
-    </row>
-    <row r="26" spans="2:11" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="C25" s="48" t="s">
+        <v>51</v>
+      </c>
+      <c r="D25" s="33" t="s">
+        <v>38</v>
+      </c>
+      <c r="E25" s="49">
+        <v>0</v>
+      </c>
+      <c r="F25" s="28"/>
+      <c r="G25" s="51" t="s">
+        <v>31</v>
+      </c>
+      <c r="H25" s="28"/>
+      <c r="I25" s="31" t="s">
+        <v>67</v>
+      </c>
+      <c r="J25" s="145"/>
+    </row>
+    <row r="26" spans="2:11" ht="17" thickBot="1">
       <c r="B26" s="32"/>
-      <c r="C26" s="23" t="s">
-        <v>139</v>
-      </c>
-      <c r="D26" s="145"/>
-      <c r="E26" s="138"/>
-      <c r="F26" s="30"/>
-      <c r="G26" s="146"/>
-      <c r="H26" s="30"/>
-      <c r="I26" s="30"/>
-      <c r="J26" s="147"/>
-    </row>
-    <row r="27" spans="2:11" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="C26" s="48" t="s">
+        <v>52</v>
+      </c>
+      <c r="D26" s="33" t="s">
+        <v>65</v>
+      </c>
+      <c r="E26" s="135">
+        <f>'Research data'!H16</f>
+        <v>32278160</v>
+      </c>
+      <c r="F26" s="28"/>
+      <c r="G26" s="51" t="s">
+        <v>70</v>
+      </c>
+      <c r="H26" s="28"/>
+      <c r="I26" s="31" t="s">
+        <v>93</v>
+      </c>
+      <c r="J26" s="145"/>
+    </row>
+    <row r="27" spans="2:11" ht="17" thickBot="1">
       <c r="B27" s="32"/>
       <c r="C27" s="48" t="s">
         <v>53</v>
       </c>
       <c r="D27" s="33" t="s">
-        <v>38</v>
+        <v>64</v>
       </c>
       <c r="E27" s="49">
-        <f>'Research data'!H14</f>
-        <v>1182605000</v>
+        <f>'Research data'!H18</f>
+        <v>1530.43</v>
       </c>
       <c r="F27" s="28"/>
       <c r="G27" s="51" t="s">
-        <v>9</v>
+        <v>71</v>
       </c>
       <c r="H27" s="28"/>
-      <c r="I27" s="52" t="s">
-        <v>99</v>
-      </c>
-      <c r="J27" s="149"/>
-    </row>
-    <row r="28" spans="2:11" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="I27" s="31" t="s">
+        <v>93</v>
+      </c>
+      <c r="J27" s="145"/>
+    </row>
+    <row r="28" spans="2:11" ht="17" thickBot="1">
       <c r="B28" s="32"/>
       <c r="C28" s="48" t="s">
         <v>54</v>
       </c>
       <c r="D28" s="33" t="s">
-        <v>38</v>
+        <v>64</v>
       </c>
       <c r="E28" s="49">
         <v>0</v>
       </c>
       <c r="F28" s="28"/>
       <c r="G28" s="51" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="H28" s="28"/>
       <c r="I28" s="31" t="s">
-        <v>72</v>
-      </c>
-      <c r="J28" s="149"/>
-    </row>
-    <row r="29" spans="2:11" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+        <v>67</v>
+      </c>
+      <c r="J28" s="145"/>
+    </row>
+    <row r="29" spans="2:11" ht="17" thickBot="1">
       <c r="B29" s="32"/>
       <c r="C29" s="48" t="s">
-        <v>13</v>
+        <v>57</v>
       </c>
       <c r="D29" s="33" t="s">
-        <v>38</v>
+        <v>3</v>
       </c>
       <c r="E29" s="49">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="F29" s="28"/>
       <c r="G29" s="51" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="H29" s="28"/>
       <c r="I29" s="31" t="s">
-        <v>72</v>
-      </c>
-      <c r="J29" s="147"/>
-    </row>
-    <row r="30" spans="2:11" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+        <v>67</v>
+      </c>
+      <c r="J29" s="145"/>
+    </row>
+    <row r="30" spans="2:11" ht="17" thickBot="1">
       <c r="B30" s="32"/>
       <c r="C30" s="48" t="s">
-        <v>55</v>
+        <v>44</v>
       </c>
       <c r="D30" s="33" t="s">
-        <v>38</v>
+        <v>12</v>
       </c>
       <c r="E30" s="49">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F30" s="28"/>
-      <c r="G30" s="51" t="s">
-        <v>31</v>
-      </c>
+      <c r="G30" s="28"/>
       <c r="H30" s="28"/>
       <c r="I30" s="31" t="s">
-        <v>72</v>
-      </c>
-      <c r="J30" s="147"/>
-    </row>
-    <row r="31" spans="2:11" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+        <v>67</v>
+      </c>
+      <c r="J30" s="145"/>
+    </row>
+    <row r="31" spans="2:11">
       <c r="B31" s="32"/>
-      <c r="C31" s="48" t="s">
-        <v>56</v>
-      </c>
-      <c r="D31" s="33" t="s">
-        <v>70</v>
-      </c>
-      <c r="E31" s="137">
-        <f>'Research data'!H16</f>
-        <v>32278160</v>
-      </c>
-      <c r="F31" s="28"/>
-      <c r="G31" s="51" t="s">
-        <v>76</v>
-      </c>
-      <c r="H31" s="28"/>
-      <c r="I31" s="31" t="s">
-        <v>99</v>
-      </c>
-      <c r="J31" s="147"/>
-    </row>
-    <row r="32" spans="2:11" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="C31" s="142"/>
+      <c r="D31" s="143"/>
+      <c r="E31" s="136"/>
+      <c r="F31" s="30"/>
+      <c r="G31" s="30"/>
+      <c r="H31" s="30"/>
+      <c r="I31" s="30"/>
+      <c r="J31" s="145"/>
+    </row>
+    <row r="32" spans="2:11" ht="17" thickBot="1">
       <c r="B32" s="32"/>
-      <c r="C32" s="48" t="s">
-        <v>57</v>
-      </c>
-      <c r="D32" s="33" t="s">
-        <v>69</v>
-      </c>
-      <c r="E32" s="49">
-        <f>'Research data'!H18</f>
-        <v>1530.43</v>
-      </c>
-      <c r="F32" s="28"/>
-      <c r="G32" s="51" t="s">
-        <v>77</v>
-      </c>
-      <c r="H32" s="28"/>
-      <c r="I32" s="31" t="s">
-        <v>99</v>
-      </c>
-      <c r="J32" s="147"/>
-    </row>
-    <row r="33" spans="2:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="C32" s="23" t="s">
+        <v>8</v>
+      </c>
+      <c r="D32" s="143"/>
+      <c r="E32" s="136"/>
+      <c r="F32" s="30"/>
+      <c r="G32" s="144"/>
+      <c r="H32" s="30"/>
+      <c r="I32" s="30"/>
+      <c r="J32" s="145"/>
+    </row>
+    <row r="33" spans="2:10" ht="17" thickBot="1">
       <c r="B33" s="32"/>
       <c r="C33" s="48" t="s">
-        <v>58</v>
+        <v>43</v>
       </c>
       <c r="D33" s="33" t="s">
-        <v>69</v>
+        <v>4</v>
       </c>
       <c r="E33" s="49">
-        <v>0</v>
+        <f>'Research data'!H9</f>
+        <v>0.3</v>
       </c>
       <c r="F33" s="28"/>
-      <c r="G33" s="51" t="s">
-        <v>78</v>
+      <c r="G33" s="28" t="s">
+        <v>17</v>
       </c>
       <c r="H33" s="28"/>
-      <c r="I33" s="31" t="s">
-        <v>72</v>
-      </c>
-      <c r="J33" s="147"/>
-    </row>
-    <row r="34" spans="2:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="I33" s="52" t="s">
+        <v>77</v>
+      </c>
+      <c r="J33" s="145"/>
+    </row>
+    <row r="34" spans="2:10" ht="17" thickBot="1">
       <c r="B34" s="32"/>
       <c r="C34" s="48" t="s">
-        <v>61</v>
+        <v>55</v>
       </c>
       <c r="D34" s="33" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E34" s="49">
-        <v>0.1</v>
+        <f>'Research data'!H10</f>
+        <v>4</v>
       </c>
       <c r="F34" s="28"/>
       <c r="G34" s="51" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="H34" s="28"/>
-      <c r="I34" s="31" t="s">
-        <v>72</v>
-      </c>
-      <c r="J34" s="147"/>
-    </row>
-    <row r="35" spans="2:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="I34" s="158" t="s">
+        <v>146</v>
+      </c>
+      <c r="J34" s="145"/>
+    </row>
+    <row r="35" spans="2:10" ht="17" thickBot="1">
       <c r="B35" s="32"/>
       <c r="C35" s="48" t="s">
-        <v>44</v>
+        <v>56</v>
       </c>
       <c r="D35" s="33" t="s">
-        <v>12</v>
+        <v>2</v>
       </c>
       <c r="E35" s="49">
-        <v>1</v>
+        <f>'Research data'!H11</f>
+        <v>40</v>
       </c>
       <c r="F35" s="28"/>
-      <c r="G35" s="28"/>
+      <c r="G35" s="51" t="s">
+        <v>29</v>
+      </c>
       <c r="H35" s="28"/>
-      <c r="I35" s="31" t="s">
-        <v>72</v>
-      </c>
-      <c r="J35" s="147"/>
-    </row>
-    <row r="36" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="I35" s="158" t="s">
+        <v>146</v>
+      </c>
+      <c r="J35" s="145"/>
+    </row>
+    <row r="36" spans="2:10" ht="17" thickBot="1">
       <c r="B36" s="32"/>
-      <c r="C36" s="144"/>
-      <c r="D36" s="145"/>
-      <c r="E36" s="138"/>
-      <c r="F36" s="30"/>
-      <c r="G36" s="30"/>
-      <c r="H36" s="30"/>
-      <c r="I36" s="30"/>
-      <c r="J36" s="147"/>
-    </row>
-    <row r="37" spans="2:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="C36" s="48" t="s">
+        <v>41</v>
+      </c>
+      <c r="D36" s="33" t="s">
+        <v>5</v>
+      </c>
+      <c r="E36" s="49">
+        <v>0</v>
+      </c>
+      <c r="F36" s="28"/>
+      <c r="G36" s="28"/>
+      <c r="H36" s="28"/>
+      <c r="I36" s="31" t="s">
+        <v>67</v>
+      </c>
+      <c r="J36" s="145"/>
+    </row>
+    <row r="37" spans="2:10" ht="17" thickBot="1">
       <c r="B37" s="32"/>
-      <c r="C37" s="23" t="s">
-        <v>8</v>
-      </c>
-      <c r="D37" s="145"/>
-      <c r="E37" s="138"/>
-      <c r="F37" s="30"/>
-      <c r="G37" s="146"/>
-      <c r="H37" s="30"/>
-      <c r="I37" s="30"/>
-      <c r="J37" s="147"/>
-    </row>
-    <row r="38" spans="2:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="C37" s="48" t="s">
+        <v>58</v>
+      </c>
+      <c r="D37" s="33" t="s">
+        <v>5</v>
+      </c>
+      <c r="E37" s="49">
+        <v>590580</v>
+      </c>
+      <c r="F37" s="28"/>
+      <c r="G37" s="28"/>
+      <c r="H37" s="28"/>
+      <c r="I37" s="31" t="s">
+        <v>67</v>
+      </c>
+      <c r="J37" s="145"/>
+    </row>
+    <row r="38" spans="2:10" ht="17" thickBot="1">
       <c r="B38" s="32"/>
       <c r="C38" s="48" t="s">
-        <v>43</v>
+        <v>14</v>
       </c>
       <c r="D38" s="33" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E38" s="49">
-        <f>'Research data'!H9</f>
-        <v>0.3</v>
+        <v>0</v>
       </c>
       <c r="F38" s="28"/>
-      <c r="G38" s="28" t="s">
-        <v>17</v>
-      </c>
+      <c r="G38" s="28"/>
       <c r="H38" s="28"/>
-      <c r="I38" s="52" t="s">
-        <v>83</v>
-      </c>
-      <c r="J38" s="147"/>
-    </row>
-    <row r="39" spans="2:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="I38" s="31" t="s">
+        <v>67</v>
+      </c>
+      <c r="J38" s="145"/>
+    </row>
+    <row r="39" spans="2:10" ht="17" thickBot="1">
       <c r="B39" s="32"/>
       <c r="C39" s="48" t="s">
         <v>59</v>
       </c>
       <c r="D39" s="33" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E39" s="49">
-        <f>'Research data'!H10</f>
-        <v>4</v>
+        <v>7087680</v>
       </c>
       <c r="F39" s="28"/>
-      <c r="G39" s="51" t="s">
-        <v>30</v>
-      </c>
+      <c r="G39" s="28"/>
       <c r="H39" s="28"/>
-      <c r="I39" s="160" t="s">
-        <v>156</v>
-      </c>
-      <c r="J39" s="147"/>
-    </row>
-    <row r="40" spans="2:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="I39" s="31" t="s">
+        <v>67</v>
+      </c>
+      <c r="J39" s="145"/>
+    </row>
+    <row r="40" spans="2:10" ht="17" thickBot="1">
       <c r="B40" s="32"/>
       <c r="C40" s="48" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="D40" s="33" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E40" s="49">
-        <f>'Research data'!H11</f>
-        <v>40</v>
+        <v>1170000</v>
       </c>
       <c r="F40" s="28"/>
-      <c r="G40" s="51" t="s">
-        <v>29</v>
-      </c>
+      <c r="G40" s="28"/>
       <c r="H40" s="28"/>
-      <c r="I40" s="160" t="s">
-        <v>156</v>
-      </c>
-      <c r="J40" s="147"/>
-    </row>
-    <row r="41" spans="2:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="I40" s="31" t="s">
+        <v>67</v>
+      </c>
+      <c r="J40" s="145"/>
+    </row>
+    <row r="41" spans="2:10" ht="17" thickBot="1">
       <c r="B41" s="32"/>
       <c r="C41" s="48" t="s">
-        <v>41</v>
+        <v>60</v>
       </c>
       <c r="D41" s="33" t="s">
         <v>5</v>
       </c>
       <c r="E41" s="49">
-        <v>0</v>
+        <v>472500</v>
       </c>
       <c r="F41" s="28"/>
       <c r="G41" s="28"/>
       <c r="H41" s="28"/>
       <c r="I41" s="31" t="s">
-        <v>72</v>
-      </c>
-      <c r="J41" s="147"/>
-    </row>
-    <row r="42" spans="2:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+        <v>67</v>
+      </c>
+      <c r="J41" s="145"/>
+    </row>
+    <row r="42" spans="2:10" ht="17" thickBot="1">
       <c r="B42" s="32"/>
       <c r="C42" s="48" t="s">
         <v>62</v>
@@ -3702,20 +3688,20 @@
         <v>5</v>
       </c>
       <c r="E42" s="49">
-        <v>590580</v>
+        <v>1</v>
       </c>
       <c r="F42" s="28"/>
       <c r="G42" s="28"/>
       <c r="H42" s="28"/>
       <c r="I42" s="31" t="s">
-        <v>72</v>
-      </c>
-      <c r="J42" s="147"/>
-    </row>
-    <row r="43" spans="2:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+        <v>67</v>
+      </c>
+      <c r="J42" s="145"/>
+    </row>
+    <row r="43" spans="2:10" ht="17" thickBot="1">
       <c r="B43" s="32"/>
       <c r="C43" s="48" t="s">
-        <v>14</v>
+        <v>63</v>
       </c>
       <c r="D43" s="33" t="s">
         <v>5</v>
@@ -3727,190 +3713,145 @@
       <c r="G43" s="28"/>
       <c r="H43" s="28"/>
       <c r="I43" s="31" t="s">
-        <v>72</v>
-      </c>
-      <c r="J43" s="147"/>
-    </row>
-    <row r="44" spans="2:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+        <v>67</v>
+      </c>
+      <c r="J43" s="145"/>
+    </row>
+    <row r="44" spans="2:10">
       <c r="B44" s="32"/>
-      <c r="C44" s="48" t="s">
-        <v>63</v>
-      </c>
-      <c r="D44" s="33" t="s">
-        <v>5</v>
-      </c>
-      <c r="E44" s="49">
-        <v>7087680</v>
-      </c>
+      <c r="C44" s="48"/>
+      <c r="D44" s="33"/>
+      <c r="E44" s="136"/>
       <c r="F44" s="28"/>
       <c r="G44" s="28"/>
       <c r="H44" s="28"/>
-      <c r="I44" s="31" t="s">
-        <v>72</v>
-      </c>
-      <c r="J44" s="147"/>
-    </row>
-    <row r="45" spans="2:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B45" s="32"/>
-      <c r="C45" s="48" t="s">
-        <v>66</v>
-      </c>
-      <c r="D45" s="33" t="s">
-        <v>5</v>
-      </c>
-      <c r="E45" s="49">
-        <v>1170000</v>
-      </c>
-      <c r="F45" s="28"/>
-      <c r="G45" s="28"/>
-      <c r="H45" s="28"/>
-      <c r="I45" s="31" t="s">
-        <v>72</v>
-      </c>
-      <c r="J45" s="147"/>
-    </row>
-    <row r="46" spans="2:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B46" s="32"/>
-      <c r="C46" s="48" t="s">
-        <v>64</v>
-      </c>
-      <c r="D46" s="33" t="s">
-        <v>5</v>
-      </c>
-      <c r="E46" s="49">
-        <v>472500</v>
-      </c>
-      <c r="F46" s="28"/>
-      <c r="G46" s="28"/>
-      <c r="H46" s="28"/>
-      <c r="I46" s="31" t="s">
-        <v>72</v>
-      </c>
-      <c r="J46" s="147"/>
-    </row>
-    <row r="47" spans="2:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B47" s="32"/>
-      <c r="C47" s="48" t="s">
-        <v>67</v>
-      </c>
-      <c r="D47" s="33" t="s">
-        <v>5</v>
-      </c>
-      <c r="E47" s="49">
-        <v>1</v>
-      </c>
-      <c r="F47" s="28"/>
-      <c r="G47" s="28"/>
-      <c r="H47" s="28"/>
-      <c r="I47" s="31" t="s">
-        <v>72</v>
-      </c>
-      <c r="J47" s="147"/>
-    </row>
-    <row r="48" spans="2:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B48" s="32"/>
-      <c r="C48" s="48" t="s">
-        <v>68</v>
-      </c>
-      <c r="D48" s="33" t="s">
-        <v>5</v>
-      </c>
-      <c r="E48" s="49">
-        <v>0</v>
-      </c>
-      <c r="F48" s="28"/>
-      <c r="G48" s="28"/>
-      <c r="H48" s="28"/>
-      <c r="I48" s="31" t="s">
-        <v>72</v>
-      </c>
-      <c r="J48" s="147"/>
-    </row>
-    <row r="49" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B49" s="32"/>
-      <c r="C49" s="48"/>
-      <c r="D49" s="33"/>
-      <c r="E49" s="138"/>
-      <c r="F49" s="28"/>
-      <c r="G49" s="28"/>
-      <c r="H49" s="28"/>
-      <c r="I49" s="30"/>
-      <c r="J49" s="147"/>
-    </row>
-    <row r="50" spans="2:10" ht="20" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B50" s="34"/>
-      <c r="C50" s="35"/>
-      <c r="D50" s="35"/>
-      <c r="E50" s="35"/>
-      <c r="F50" s="35"/>
-      <c r="G50" s="35"/>
-      <c r="H50" s="35"/>
-      <c r="I50" s="35"/>
-      <c r="J50" s="6"/>
-    </row>
-    <row r="51" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B51" s="36"/>
-      <c r="C51" s="36"/>
-      <c r="D51" s="36"/>
-      <c r="E51" s="36"/>
-      <c r="F51" s="36"/>
-      <c r="G51" s="36"/>
-      <c r="H51" s="36"/>
-      <c r="I51" s="36"/>
-    </row>
-    <row r="52" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="I44" s="30"/>
+      <c r="J44" s="145"/>
+    </row>
+    <row r="45" spans="2:10" ht="20" customHeight="1" thickBot="1">
+      <c r="B45" s="34"/>
+      <c r="C45" s="35"/>
+      <c r="D45" s="35"/>
+      <c r="E45" s="35"/>
+      <c r="F45" s="35"/>
+      <c r="G45" s="35"/>
+      <c r="H45" s="35"/>
+      <c r="I45" s="35"/>
+      <c r="J45" s="6"/>
+    </row>
+    <row r="46" spans="2:10">
+      <c r="B46" s="36"/>
+      <c r="C46" s="36"/>
+      <c r="D46" s="36"/>
+      <c r="E46" s="36"/>
+      <c r="F46" s="36"/>
+      <c r="G46" s="36"/>
+      <c r="H46" s="36"/>
+      <c r="I46" s="36"/>
+    </row>
+    <row r="47" spans="2:10">
+      <c r="B47" s="15"/>
+      <c r="C47" s="15"/>
+      <c r="D47" s="15"/>
+      <c r="E47" s="15"/>
+      <c r="F47" s="15"/>
+      <c r="G47" s="15"/>
+      <c r="H47" s="15"/>
+      <c r="I47" s="15"/>
+    </row>
+    <row r="48" spans="2:10">
+      <c r="B48" s="15"/>
+      <c r="F48" s="15"/>
+      <c r="G48" s="15"/>
+      <c r="H48" s="15"/>
+      <c r="I48" s="15"/>
+    </row>
+    <row r="49" spans="2:9">
+      <c r="B49" s="15"/>
+      <c r="F49" s="15"/>
+      <c r="G49" s="15"/>
+      <c r="H49" s="15"/>
+      <c r="I49" s="15"/>
+    </row>
+    <row r="50" spans="2:9">
+      <c r="B50" s="15"/>
+      <c r="F50" s="15"/>
+      <c r="G50" s="15"/>
+      <c r="H50" s="15"/>
+      <c r="I50" s="15"/>
+    </row>
+    <row r="51" spans="2:9">
+      <c r="B51" s="15"/>
+      <c r="F51" s="15"/>
+      <c r="G51" s="15"/>
+      <c r="H51" s="15"/>
+      <c r="I51" s="15"/>
+    </row>
+    <row r="52" spans="2:9">
       <c r="B52" s="15"/>
-      <c r="C52" s="15"/>
-      <c r="D52" s="15"/>
-      <c r="E52" s="15"/>
       <c r="F52" s="15"/>
       <c r="G52" s="15"/>
       <c r="H52" s="15"/>
       <c r="I52" s="15"/>
     </row>
-    <row r="53" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="53" spans="2:9">
       <c r="B53" s="15"/>
       <c r="F53" s="15"/>
       <c r="G53" s="15"/>
       <c r="H53" s="15"/>
       <c r="I53" s="15"/>
     </row>
-    <row r="54" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="54" spans="2:9">
       <c r="B54" s="15"/>
+      <c r="C54" s="15"/>
+      <c r="D54" s="15"/>
+      <c r="E54" s="15"/>
       <c r="F54" s="15"/>
       <c r="G54" s="15"/>
       <c r="H54" s="15"/>
       <c r="I54" s="15"/>
     </row>
-    <row r="55" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="55" spans="2:9">
       <c r="B55" s="15"/>
+      <c r="C55" s="15"/>
+      <c r="D55" s="15"/>
+      <c r="E55" s="15"/>
       <c r="F55" s="15"/>
       <c r="G55" s="15"/>
       <c r="H55" s="15"/>
       <c r="I55" s="15"/>
     </row>
-    <row r="56" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="56" spans="2:9">
       <c r="B56" s="15"/>
+      <c r="C56" s="15"/>
+      <c r="D56" s="15"/>
+      <c r="E56" s="15"/>
       <c r="F56" s="15"/>
       <c r="G56" s="15"/>
       <c r="H56" s="15"/>
       <c r="I56" s="15"/>
     </row>
-    <row r="57" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="57" spans="2:9">
       <c r="B57" s="15"/>
+      <c r="C57" s="15"/>
+      <c r="D57" s="15"/>
+      <c r="E57" s="15"/>
       <c r="F57" s="15"/>
       <c r="G57" s="15"/>
       <c r="H57" s="15"/>
       <c r="I57" s="15"/>
     </row>
-    <row r="58" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="58" spans="2:9">
       <c r="B58" s="15"/>
+      <c r="C58" s="15"/>
+      <c r="D58" s="15"/>
+      <c r="E58" s="15"/>
       <c r="F58" s="15"/>
       <c r="G58" s="15"/>
       <c r="H58" s="15"/>
       <c r="I58" s="15"/>
     </row>
-    <row r="59" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="59" spans="2:9">
       <c r="B59" s="15"/>
       <c r="C59" s="15"/>
       <c r="D59" s="15"/>
@@ -3920,7 +3861,7 @@
       <c r="H59" s="15"/>
       <c r="I59" s="15"/>
     </row>
-    <row r="60" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="60" spans="2:9">
       <c r="B60" s="15"/>
       <c r="C60" s="15"/>
       <c r="D60" s="15"/>
@@ -3930,7 +3871,7 @@
       <c r="H60" s="15"/>
       <c r="I60" s="15"/>
     </row>
-    <row r="61" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="61" spans="2:9">
       <c r="B61" s="15"/>
       <c r="C61" s="15"/>
       <c r="D61" s="15"/>
@@ -3940,7 +3881,7 @@
       <c r="H61" s="15"/>
       <c r="I61" s="15"/>
     </row>
-    <row r="62" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="62" spans="2:9">
       <c r="B62" s="15"/>
       <c r="C62" s="15"/>
       <c r="D62" s="15"/>
@@ -3950,7 +3891,7 @@
       <c r="H62" s="15"/>
       <c r="I62" s="15"/>
     </row>
-    <row r="63" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="63" spans="2:9">
       <c r="B63" s="15"/>
       <c r="C63" s="15"/>
       <c r="D63" s="15"/>
@@ -3960,7 +3901,7 @@
       <c r="H63" s="15"/>
       <c r="I63" s="15"/>
     </row>
-    <row r="64" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="64" spans="2:9">
       <c r="B64" s="15"/>
       <c r="C64" s="15"/>
       <c r="D64" s="15"/>
@@ -3970,7 +3911,7 @@
       <c r="H64" s="15"/>
       <c r="I64" s="15"/>
     </row>
-    <row r="65" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="65" spans="2:9">
       <c r="B65" s="15"/>
       <c r="C65" s="15"/>
       <c r="D65" s="15"/>
@@ -3980,7 +3921,7 @@
       <c r="H65" s="15"/>
       <c r="I65" s="15"/>
     </row>
-    <row r="66" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="66" spans="2:9">
       <c r="B66" s="15"/>
       <c r="C66" s="15"/>
       <c r="D66" s="15"/>
@@ -3990,7 +3931,7 @@
       <c r="H66" s="15"/>
       <c r="I66" s="15"/>
     </row>
-    <row r="67" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:9">
       <c r="B67" s="15"/>
       <c r="C67" s="15"/>
       <c r="D67" s="15"/>
@@ -3999,56 +3940,6 @@
       <c r="G67" s="15"/>
       <c r="H67" s="15"/>
       <c r="I67" s="15"/>
-    </row>
-    <row r="68" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B68" s="15"/>
-      <c r="C68" s="15"/>
-      <c r="D68" s="15"/>
-      <c r="E68" s="15"/>
-      <c r="F68" s="15"/>
-      <c r="G68" s="15"/>
-      <c r="H68" s="15"/>
-      <c r="I68" s="15"/>
-    </row>
-    <row r="69" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B69" s="15"/>
-      <c r="C69" s="15"/>
-      <c r="D69" s="15"/>
-      <c r="E69" s="15"/>
-      <c r="F69" s="15"/>
-      <c r="G69" s="15"/>
-      <c r="H69" s="15"/>
-      <c r="I69" s="15"/>
-    </row>
-    <row r="70" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B70" s="15"/>
-      <c r="C70" s="15"/>
-      <c r="D70" s="15"/>
-      <c r="E70" s="15"/>
-      <c r="F70" s="15"/>
-      <c r="G70" s="15"/>
-      <c r="H70" s="15"/>
-      <c r="I70" s="15"/>
-    </row>
-    <row r="71" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B71" s="15"/>
-      <c r="C71" s="15"/>
-      <c r="D71" s="15"/>
-      <c r="E71" s="15"/>
-      <c r="F71" s="15"/>
-      <c r="G71" s="15"/>
-      <c r="H71" s="15"/>
-      <c r="I71" s="15"/>
-    </row>
-    <row r="72" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B72" s="15"/>
-      <c r="C72" s="15"/>
-      <c r="D72" s="15"/>
-      <c r="E72" s="15"/>
-      <c r="F72" s="15"/>
-      <c r="G72" s="15"/>
-      <c r="H72" s="15"/>
-      <c r="I72" s="15"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -4060,8 +3951,8 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr codeName="Sheet3" enableFormatConditionsCalculation="0">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+  <sheetPr codeName="Sheet3">
     <tabColor theme="6" tint="0.39997558519241921"/>
   </sheetPr>
   <dimension ref="B1:T22"/>
@@ -4070,117 +3961,117 @@
       <selection activeCell="T21" sqref="T21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.6640625" defaultRowHeight="16"/>
   <cols>
-    <col min="1" max="1" width="3.42578125" style="55" customWidth="1"/>
-    <col min="2" max="2" width="4.28515625" style="55" customWidth="1"/>
-    <col min="3" max="3" width="35.85546875" style="55" customWidth="1"/>
-    <col min="4" max="4" width="16.5703125" style="55" hidden="1" customWidth="1"/>
-    <col min="5" max="5" width="13.85546875" style="55" hidden="1" customWidth="1"/>
-    <col min="6" max="6" width="11.140625" style="55" customWidth="1"/>
-    <col min="7" max="7" width="2.42578125" style="55" customWidth="1"/>
-    <col min="8" max="8" width="12.42578125" style="55" customWidth="1"/>
-    <col min="9" max="9" width="2.85546875" style="55" customWidth="1"/>
-    <col min="10" max="10" width="11.85546875" style="82" customWidth="1"/>
-    <col min="11" max="11" width="2.42578125" style="82" customWidth="1"/>
-    <col min="12" max="12" width="9.28515625" style="82" customWidth="1"/>
-    <col min="13" max="13" width="2.85546875" style="82" customWidth="1"/>
-    <col min="14" max="14" width="8.42578125" style="82" customWidth="1"/>
-    <col min="15" max="15" width="2.28515625" style="55" customWidth="1"/>
-    <col min="16" max="16" width="10" style="82" customWidth="1"/>
-    <col min="17" max="17" width="3.42578125" style="82" customWidth="1"/>
-    <col min="18" max="18" width="10" style="82" customWidth="1"/>
-    <col min="19" max="19" width="2.85546875" style="55" customWidth="1"/>
-    <col min="20" max="20" width="75.42578125" style="55" customWidth="1"/>
-    <col min="21" max="16384" width="10.7109375" style="55"/>
+    <col min="1" max="1" width="3.5" style="54" customWidth="1"/>
+    <col min="2" max="2" width="4.33203125" style="54" customWidth="1"/>
+    <col min="3" max="3" width="35.83203125" style="54" customWidth="1"/>
+    <col min="4" max="4" width="16.5" style="54" hidden="1" customWidth="1"/>
+    <col min="5" max="5" width="13.83203125" style="54" hidden="1" customWidth="1"/>
+    <col min="6" max="6" width="11.1640625" style="54" customWidth="1"/>
+    <col min="7" max="7" width="2.5" style="54" customWidth="1"/>
+    <col min="8" max="8" width="12.5" style="54" customWidth="1"/>
+    <col min="9" max="9" width="2.83203125" style="54" customWidth="1"/>
+    <col min="10" max="10" width="11.83203125" style="81" customWidth="1"/>
+    <col min="11" max="11" width="2.5" style="81" customWidth="1"/>
+    <col min="12" max="12" width="9.33203125" style="81" customWidth="1"/>
+    <col min="13" max="13" width="2.83203125" style="81" customWidth="1"/>
+    <col min="14" max="14" width="8.5" style="81" customWidth="1"/>
+    <col min="15" max="15" width="2.33203125" style="54" customWidth="1"/>
+    <col min="16" max="16" width="10" style="81" customWidth="1"/>
+    <col min="17" max="17" width="3.5" style="81" customWidth="1"/>
+    <col min="18" max="18" width="10" style="81" customWidth="1"/>
+    <col min="19" max="19" width="2.83203125" style="54" customWidth="1"/>
+    <col min="20" max="20" width="75.5" style="54" customWidth="1"/>
+    <col min="21" max="16384" width="10.6640625" style="54"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:20" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
-    <row r="2" spans="2:20" x14ac:dyDescent="0.2">
-      <c r="B2" s="56"/>
-      <c r="C2" s="57"/>
-      <c r="D2" s="57"/>
-      <c r="E2" s="57"/>
-      <c r="F2" s="57"/>
-      <c r="G2" s="57"/>
-      <c r="H2" s="57"/>
-      <c r="I2" s="57"/>
-      <c r="J2" s="83"/>
-      <c r="K2" s="83"/>
-      <c r="L2" s="83"/>
-      <c r="M2" s="83"/>
-      <c r="N2" s="83"/>
-      <c r="O2" s="57"/>
-      <c r="P2" s="83"/>
-      <c r="Q2" s="83"/>
-      <c r="R2" s="83"/>
-      <c r="S2" s="57"/>
-      <c r="T2" s="57"/>
-    </row>
-    <row r="3" spans="2:20" s="38" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="2:20" ht="17" thickBot="1"/>
+    <row r="2" spans="2:20">
+      <c r="B2" s="55"/>
+      <c r="C2" s="56"/>
+      <c r="D2" s="56"/>
+      <c r="E2" s="56"/>
+      <c r="F2" s="56"/>
+      <c r="G2" s="56"/>
+      <c r="H2" s="56"/>
+      <c r="I2" s="56"/>
+      <c r="J2" s="82"/>
+      <c r="K2" s="82"/>
+      <c r="L2" s="82"/>
+      <c r="M2" s="82"/>
+      <c r="N2" s="82"/>
+      <c r="O2" s="56"/>
+      <c r="P2" s="82"/>
+      <c r="Q2" s="82"/>
+      <c r="R2" s="82"/>
+      <c r="S2" s="56"/>
+      <c r="T2" s="56"/>
+    </row>
+    <row r="3" spans="2:20" s="38" customFormat="1">
       <c r="B3" s="37"/>
-      <c r="C3" s="132" t="s">
-        <v>129</v>
+      <c r="C3" s="130" t="s">
+        <v>119</v>
       </c>
       <c r="D3" s="17"/>
       <c r="E3" s="17"/>
-      <c r="F3" s="132" t="s">
+      <c r="F3" s="130" t="s">
         <v>16</v>
       </c>
-      <c r="G3" s="132"/>
-      <c r="H3" s="132" t="s">
-        <v>117</v>
-      </c>
-      <c r="I3" s="132"/>
-      <c r="J3" s="133" t="s">
-        <v>71</v>
-      </c>
-      <c r="K3" s="133"/>
-      <c r="L3" s="133" t="s">
+      <c r="G3" s="130"/>
+      <c r="H3" s="130" t="s">
+        <v>107</v>
+      </c>
+      <c r="I3" s="130"/>
+      <c r="J3" s="131" t="s">
+        <v>66</v>
+      </c>
+      <c r="K3" s="131"/>
+      <c r="L3" s="131" t="s">
         <v>26</v>
       </c>
-      <c r="M3" s="133"/>
-      <c r="N3" s="133" t="s">
-        <v>150</v>
-      </c>
-      <c r="O3" s="132"/>
-      <c r="P3" s="133" t="s">
-        <v>81</v>
-      </c>
-      <c r="Q3" s="133"/>
-      <c r="R3" s="133" t="s">
-        <v>95</v>
-      </c>
-      <c r="S3" s="132"/>
-      <c r="T3" s="132" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="4" spans="2:20" x14ac:dyDescent="0.2">
-      <c r="B4" s="58"/>
-      <c r="C4" s="84"/>
-      <c r="D4" s="84"/>
-      <c r="E4" s="84"/>
-      <c r="F4" s="84"/>
-      <c r="G4" s="84"/>
-      <c r="H4" s="85"/>
-      <c r="I4" s="85"/>
-      <c r="J4" s="134"/>
-      <c r="K4" s="134"/>
-      <c r="L4" s="134"/>
-      <c r="M4" s="134"/>
-      <c r="N4" s="134"/>
+      <c r="M3" s="131"/>
+      <c r="N3" s="131" t="s">
+        <v>140</v>
+      </c>
+      <c r="O3" s="130"/>
+      <c r="P3" s="131" t="s">
+        <v>75</v>
+      </c>
+      <c r="Q3" s="131"/>
+      <c r="R3" s="131" t="s">
+        <v>89</v>
+      </c>
+      <c r="S3" s="130"/>
+      <c r="T3" s="130" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="4" spans="2:20">
+      <c r="B4" s="57"/>
+      <c r="C4" s="83"/>
+      <c r="D4" s="83"/>
+      <c r="E4" s="83"/>
+      <c r="F4" s="83"/>
+      <c r="G4" s="83"/>
+      <c r="H4" s="84"/>
+      <c r="I4" s="84"/>
+      <c r="J4" s="132"/>
+      <c r="K4" s="132"/>
+      <c r="L4" s="132"/>
+      <c r="M4" s="132"/>
+      <c r="N4" s="132"/>
       <c r="O4" s="18"/>
-      <c r="P4" s="134"/>
-      <c r="Q4" s="134"/>
-      <c r="R4" s="134"/>
-      <c r="S4" s="134"/>
+      <c r="P4" s="132"/>
+      <c r="Q4" s="132"/>
+      <c r="R4" s="132"/>
+      <c r="S4" s="132"/>
       <c r="T4" s="17"/>
     </row>
-    <row r="5" spans="2:20" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B5" s="58"/>
+    <row r="5" spans="2:20" ht="17" thickBot="1">
+      <c r="B5" s="57"/>
       <c r="C5" s="46" t="s">
-        <v>123</v>
+        <v>113</v>
       </c>
       <c r="D5" s="46"/>
       <c r="E5" s="46"/>
@@ -4198,53 +4089,53 @@
       <c r="Q5" s="18"/>
       <c r="R5" s="18"/>
       <c r="S5" s="18"/>
-      <c r="T5" s="86"/>
-    </row>
-    <row r="6" spans="2:20" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B6" s="58"/>
-      <c r="C6" s="87" t="s">
+      <c r="T5" s="85"/>
+    </row>
+    <row r="6" spans="2:20" ht="17" thickBot="1">
+      <c r="B6" s="57"/>
+      <c r="C6" s="86" t="s">
         <v>33</v>
       </c>
-      <c r="D6" s="87"/>
-      <c r="E6" s="87"/>
-      <c r="F6" s="128" t="s">
-        <v>124</v>
-      </c>
-      <c r="G6" s="136"/>
-      <c r="H6" s="89">
+      <c r="D6" s="86"/>
+      <c r="E6" s="86"/>
+      <c r="F6" s="126" t="s">
+        <v>114</v>
+      </c>
+      <c r="G6" s="134"/>
+      <c r="H6" s="88">
         <f>ROUND(695.652173913043,2)</f>
         <v>695.65</v>
       </c>
-      <c r="I6" s="90"/>
-      <c r="J6" s="91">
+      <c r="I6" s="89"/>
+      <c r="J6" s="90">
         <v>600</v>
       </c>
-      <c r="K6" s="92"/>
-      <c r="L6" s="92"/>
-      <c r="M6" s="92"/>
-      <c r="N6" s="92"/>
-      <c r="O6" s="85"/>
-      <c r="T6" s="86"/>
-    </row>
-    <row r="7" spans="2:20" x14ac:dyDescent="0.2">
-      <c r="B7" s="58"/>
-      <c r="C7" s="97"/>
-      <c r="D7" s="97"/>
-      <c r="E7" s="97"/>
-      <c r="F7" s="59"/>
-      <c r="G7" s="59"/>
-      <c r="H7" s="95"/>
-      <c r="I7" s="95"/>
-      <c r="J7" s="95"/>
-      <c r="K7" s="95"/>
-      <c r="L7" s="95"/>
-      <c r="M7" s="95"/>
-      <c r="N7" s="95"/>
-      <c r="O7" s="95"/>
-      <c r="T7" s="135"/>
-    </row>
-    <row r="8" spans="2:20" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B8" s="58"/>
+      <c r="K6" s="91"/>
+      <c r="L6" s="91"/>
+      <c r="M6" s="91"/>
+      <c r="N6" s="91"/>
+      <c r="O6" s="84"/>
+      <c r="T6" s="85"/>
+    </row>
+    <row r="7" spans="2:20">
+      <c r="B7" s="57"/>
+      <c r="C7" s="96"/>
+      <c r="D7" s="96"/>
+      <c r="E7" s="96"/>
+      <c r="F7" s="58"/>
+      <c r="G7" s="58"/>
+      <c r="H7" s="94"/>
+      <c r="I7" s="94"/>
+      <c r="J7" s="94"/>
+      <c r="K7" s="94"/>
+      <c r="L7" s="94"/>
+      <c r="M7" s="94"/>
+      <c r="N7" s="94"/>
+      <c r="O7" s="94"/>
+      <c r="T7" s="133"/>
+    </row>
+    <row r="8" spans="2:20" ht="17" thickBot="1">
+      <c r="B8" s="57"/>
       <c r="C8" s="46" t="s">
         <v>8</v>
       </c>
@@ -4260,117 +4151,117 @@
       <c r="M8" s="20"/>
       <c r="N8" s="20"/>
       <c r="O8" s="19"/>
-      <c r="P8" s="98"/>
-      <c r="Q8" s="98"/>
-      <c r="R8" s="98"/>
-      <c r="T8" s="135"/>
-    </row>
-    <row r="9" spans="2:20" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B9" s="58"/>
-      <c r="C9" s="93" t="s">
+      <c r="P8" s="97"/>
+      <c r="Q8" s="97"/>
+      <c r="R8" s="97"/>
+      <c r="T8" s="133"/>
+    </row>
+    <row r="9" spans="2:20" ht="17" thickBot="1">
+      <c r="B9" s="57"/>
+      <c r="C9" s="92" t="s">
         <v>17</v>
       </c>
-      <c r="D9" s="93"/>
-      <c r="E9" s="93"/>
-      <c r="F9" s="88" t="s">
+      <c r="D9" s="92"/>
+      <c r="E9" s="92"/>
+      <c r="F9" s="87" t="s">
         <v>4</v>
       </c>
-      <c r="G9" s="90"/>
-      <c r="H9" s="100">
+      <c r="G9" s="89"/>
+      <c r="H9" s="99">
         <f>ROUND(0.3,1)</f>
         <v>0.3</v>
       </c>
-      <c r="I9" s="94"/>
-      <c r="J9" s="95"/>
-      <c r="K9" s="95"/>
-      <c r="L9" s="95"/>
-      <c r="M9" s="95"/>
-      <c r="N9" s="95"/>
-      <c r="O9" s="94"/>
-      <c r="P9" s="96">
+      <c r="I9" s="93"/>
+      <c r="J9" s="94"/>
+      <c r="K9" s="94"/>
+      <c r="L9" s="94"/>
+      <c r="M9" s="94"/>
+      <c r="N9" s="94"/>
+      <c r="O9" s="93"/>
+      <c r="P9" s="95">
         <f>568*594/1000000</f>
         <v>0.33739200000000003</v>
       </c>
-      <c r="R9" s="96">
+      <c r="R9" s="95">
         <f>579*489/1000000</f>
         <v>0.28313100000000002</v>
       </c>
-      <c r="T9" s="140" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="10" spans="2:20" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B10" s="58"/>
-      <c r="C10" s="99" t="s">
+      <c r="T9" s="138" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="10" spans="2:20" ht="17" thickBot="1">
+      <c r="B10" s="57"/>
+      <c r="C10" s="98" t="s">
         <v>1</v>
       </c>
-      <c r="D10" s="99"/>
-      <c r="E10" s="99"/>
-      <c r="F10" s="88" t="s">
+      <c r="D10" s="98"/>
+      <c r="E10" s="98"/>
+      <c r="F10" s="87" t="s">
         <v>2</v>
       </c>
-      <c r="G10" s="90"/>
-      <c r="H10" s="100">
+      <c r="G10" s="89"/>
+      <c r="H10" s="99">
         <f>ROUND(4,0)</f>
         <v>4</v>
       </c>
-      <c r="I10" s="95"/>
-      <c r="J10" s="95"/>
-      <c r="K10" s="95"/>
-      <c r="L10" s="91">
+      <c r="I10" s="94"/>
+      <c r="J10" s="94"/>
+      <c r="K10" s="94"/>
+      <c r="L10" s="90">
         <f>Notes!D67</f>
         <v>4</v>
       </c>
-      <c r="M10" s="95"/>
-      <c r="N10" s="91">
+      <c r="M10" s="94"/>
+      <c r="N10" s="90">
         <f>Notes!D34</f>
         <v>4</v>
       </c>
-      <c r="O10" s="95"/>
-      <c r="P10" s="85"/>
-      <c r="Q10" s="85"/>
-      <c r="R10" s="85"/>
+      <c r="O10" s="94"/>
+      <c r="P10" s="84"/>
+      <c r="Q10" s="84"/>
+      <c r="R10" s="84"/>
       <c r="T10" s="50" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="11" spans="2:20" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B11" s="58"/>
-      <c r="C11" s="101" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="11" spans="2:20" ht="17" thickBot="1">
+      <c r="B11" s="57"/>
+      <c r="C11" s="100" t="s">
         <v>6</v>
       </c>
-      <c r="D11" s="101"/>
-      <c r="E11" s="101"/>
-      <c r="F11" s="88" t="s">
+      <c r="D11" s="100"/>
+      <c r="E11" s="100"/>
+      <c r="F11" s="87" t="s">
         <v>2</v>
       </c>
-      <c r="G11" s="90"/>
-      <c r="H11" s="102">
+      <c r="G11" s="89"/>
+      <c r="H11" s="101">
         <f>ROUND(40,0)</f>
         <v>40</v>
       </c>
-      <c r="I11" s="95"/>
-      <c r="J11" s="95"/>
-      <c r="K11" s="95"/>
-      <c r="L11" s="91">
+      <c r="I11" s="94"/>
+      <c r="J11" s="94"/>
+      <c r="K11" s="94"/>
+      <c r="L11" s="90">
         <f>Notes!D56</f>
         <v>40</v>
       </c>
-      <c r="M11" s="95"/>
-      <c r="N11" s="91">
+      <c r="M11" s="94"/>
+      <c r="N11" s="90">
         <f>Notes!D35</f>
         <v>40</v>
       </c>
-      <c r="O11" s="95"/>
-      <c r="P11" s="85"/>
-      <c r="Q11" s="85"/>
-      <c r="R11" s="85"/>
+      <c r="O11" s="94"/>
+      <c r="P11" s="84"/>
+      <c r="Q11" s="84"/>
+      <c r="R11" s="84"/>
       <c r="T11" s="50" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="12" spans="2:20" x14ac:dyDescent="0.2">
-      <c r="B12" s="58"/>
+        <v>76</v>
+      </c>
+    </row>
+    <row r="12" spans="2:20">
+      <c r="B12" s="57"/>
       <c r="C12" s="46"/>
       <c r="D12" s="46"/>
       <c r="E12" s="46"/>
@@ -4384,15 +4275,15 @@
       <c r="M12" s="20"/>
       <c r="N12" s="20"/>
       <c r="O12" s="19"/>
-      <c r="P12" s="98"/>
-      <c r="Q12" s="98"/>
-      <c r="R12" s="98"/>
-      <c r="T12" s="86"/>
-    </row>
-    <row r="13" spans="2:20" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B13" s="58"/>
+      <c r="P12" s="97"/>
+      <c r="Q12" s="97"/>
+      <c r="R12" s="97"/>
+      <c r="T12" s="85"/>
+    </row>
+    <row r="13" spans="2:20" ht="17" thickBot="1">
+      <c r="B13" s="57"/>
       <c r="C13" s="21" t="s">
-        <v>130</v>
+        <v>120</v>
       </c>
       <c r="D13" s="21"/>
       <c r="E13" s="21"/>
@@ -4406,264 +4297,264 @@
       <c r="M13" s="20"/>
       <c r="N13" s="20"/>
       <c r="O13" s="19"/>
-      <c r="P13" s="98"/>
-      <c r="Q13" s="98"/>
-      <c r="R13" s="98"/>
-      <c r="T13" s="86"/>
-    </row>
-    <row r="14" spans="2:20" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B14" s="58"/>
-      <c r="C14" s="139" t="s">
-        <v>132</v>
+      <c r="P13" s="97"/>
+      <c r="Q13" s="97"/>
+      <c r="R13" s="97"/>
+      <c r="T13" s="85"/>
+    </row>
+    <row r="14" spans="2:20" ht="17" thickBot="1">
+      <c r="B14" s="57"/>
+      <c r="C14" s="137" t="s">
+        <v>122</v>
       </c>
       <c r="D14" s="21"/>
       <c r="E14" s="21"/>
-      <c r="F14" s="129" t="s">
+      <c r="F14" s="127" t="s">
         <v>38</v>
       </c>
-      <c r="G14" s="130"/>
-      <c r="H14" s="103">
+      <c r="G14" s="128"/>
+      <c r="H14" s="102">
         <f>ROUND(H15*H6*1000,2)</f>
         <v>1182605000</v>
       </c>
       <c r="I14" s="20"/>
-      <c r="J14" s="111"/>
-      <c r="K14" s="95"/>
-      <c r="L14" s="95"/>
-      <c r="M14" s="95"/>
-      <c r="N14" s="95"/>
+      <c r="J14" s="110"/>
+      <c r="K14" s="94"/>
+      <c r="L14" s="94"/>
+      <c r="M14" s="94"/>
+      <c r="N14" s="94"/>
       <c r="O14" s="19"/>
-      <c r="P14" s="98"/>
-      <c r="Q14" s="98"/>
-      <c r="R14" s="98"/>
-      <c r="T14" s="151" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="15" spans="2:20" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B15" s="58"/>
-      <c r="C15" s="139" t="s">
-        <v>133</v>
-      </c>
-      <c r="D15" s="104"/>
-      <c r="E15" s="104"/>
-      <c r="F15" s="128" t="s">
-        <v>125</v>
-      </c>
-      <c r="G15" s="136"/>
-      <c r="H15" s="103">
+      <c r="P14" s="97"/>
+      <c r="Q14" s="97"/>
+      <c r="R14" s="97"/>
+      <c r="T14" s="149" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="15" spans="2:20" ht="17" thickBot="1">
+      <c r="B15" s="57"/>
+      <c r="C15" s="137" t="s">
+        <v>123</v>
+      </c>
+      <c r="D15" s="103"/>
+      <c r="E15" s="103"/>
+      <c r="F15" s="126" t="s">
+        <v>115</v>
+      </c>
+      <c r="G15" s="134"/>
+      <c r="H15" s="102">
         <v>1700</v>
       </c>
-      <c r="I15" s="95"/>
-      <c r="J15" s="110">
+      <c r="I15" s="94"/>
+      <c r="J15" s="109">
         <f>Notes!D22</f>
         <v>1400</v>
       </c>
-      <c r="K15" s="95"/>
-      <c r="L15" s="95"/>
-      <c r="M15" s="95"/>
-      <c r="N15" s="95"/>
-      <c r="O15" s="95"/>
-      <c r="P15" s="98"/>
-      <c r="Q15" s="98"/>
-      <c r="R15" s="98"/>
-      <c r="T15" s="172" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="16" spans="2:20" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B16" s="58"/>
-      <c r="C16" s="139" t="s">
-        <v>134</v>
+      <c r="K15" s="94"/>
+      <c r="L15" s="94"/>
+      <c r="M15" s="94"/>
+      <c r="N15" s="94"/>
+      <c r="O15" s="94"/>
+      <c r="P15" s="97"/>
+      <c r="Q15" s="97"/>
+      <c r="R15" s="97"/>
+      <c r="T15" s="170" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="16" spans="2:20" ht="17" thickBot="1">
+      <c r="B16" s="57"/>
+      <c r="C16" s="137" t="s">
+        <v>124</v>
       </c>
       <c r="D16" s="46"/>
       <c r="E16" s="46"/>
-      <c r="F16" s="130" t="s">
-        <v>70</v>
-      </c>
-      <c r="G16" s="130"/>
-      <c r="H16" s="106">
+      <c r="F16" s="128" t="s">
+        <v>65</v>
+      </c>
+      <c r="G16" s="128"/>
+      <c r="H16" s="105">
         <f>ROUND(H17*1000*H6,2)</f>
         <v>32278160</v>
       </c>
       <c r="I16" s="20"/>
-      <c r="J16" s="95"/>
-      <c r="K16" s="95"/>
-      <c r="L16" s="95"/>
-      <c r="M16" s="95"/>
-      <c r="N16" s="95"/>
-      <c r="O16" s="105"/>
-      <c r="P16" s="95"/>
-      <c r="Q16" s="95"/>
-      <c r="R16" s="95"/>
-      <c r="T16" s="151" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="17" spans="2:20" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B17" s="58"/>
-      <c r="C17" s="139" t="s">
-        <v>135</v>
+      <c r="J16" s="94"/>
+      <c r="K16" s="94"/>
+      <c r="L16" s="94"/>
+      <c r="M16" s="94"/>
+      <c r="N16" s="94"/>
+      <c r="O16" s="104"/>
+      <c r="P16" s="94"/>
+      <c r="Q16" s="94"/>
+      <c r="R16" s="94"/>
+      <c r="T16" s="149" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="17" spans="2:20" ht="17" thickBot="1">
+      <c r="B17" s="57"/>
+      <c r="C17" s="137" t="s">
+        <v>125</v>
       </c>
       <c r="D17" s="46"/>
       <c r="E17" s="46"/>
-      <c r="F17" s="130" t="s">
+      <c r="F17" s="128" t="s">
+        <v>116</v>
+      </c>
+      <c r="G17" s="128"/>
+      <c r="H17" s="105">
+        <v>46.4</v>
+      </c>
+      <c r="I17" s="20"/>
+      <c r="J17" s="94"/>
+      <c r="K17" s="94"/>
+      <c r="L17" s="94"/>
+      <c r="M17" s="94"/>
+      <c r="N17" s="94"/>
+      <c r="O17" s="104"/>
+      <c r="P17" s="94"/>
+      <c r="Q17" s="94"/>
+      <c r="R17" s="94"/>
+      <c r="T17" s="50" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="18" spans="2:20" ht="17" thickBot="1">
+      <c r="B18" s="57"/>
+      <c r="C18" s="137" t="s">
         <v>126</v>
       </c>
-      <c r="G17" s="130"/>
-      <c r="H17" s="106">
-        <v>46.4</v>
-      </c>
-      <c r="I17" s="20"/>
-      <c r="J17" s="95"/>
-      <c r="K17" s="95"/>
-      <c r="L17" s="95"/>
-      <c r="M17" s="95"/>
-      <c r="N17" s="95"/>
-      <c r="O17" s="105"/>
-      <c r="P17" s="95"/>
-      <c r="Q17" s="95"/>
-      <c r="R17" s="95"/>
-      <c r="T17" s="50" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="18" spans="2:20" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B18" s="58"/>
-      <c r="C18" s="139" t="s">
-        <v>136</v>
-      </c>
-      <c r="D18" s="108"/>
-      <c r="E18" s="108"/>
-      <c r="F18" s="88" t="s">
-        <v>69</v>
-      </c>
-      <c r="G18" s="90"/>
-      <c r="H18" s="103">
+      <c r="D18" s="107"/>
+      <c r="E18" s="107"/>
+      <c r="F18" s="87" t="s">
+        <v>64</v>
+      </c>
+      <c r="G18" s="89"/>
+      <c r="H18" s="102">
         <f>ROUND(H20*H22/H21,2)</f>
         <v>1530.43</v>
       </c>
-      <c r="I18" s="95"/>
-      <c r="J18" s="95"/>
-      <c r="K18" s="95"/>
-      <c r="L18" s="95"/>
-      <c r="M18" s="95"/>
-      <c r="N18" s="95"/>
-      <c r="O18" s="95"/>
-      <c r="P18" s="95"/>
-      <c r="Q18" s="95"/>
-      <c r="R18" s="95"/>
-      <c r="T18" s="131" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="19" spans="2:20" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B19" s="58"/>
-      <c r="C19" s="139" t="s">
-        <v>77</v>
-      </c>
-      <c r="D19" s="107"/>
-      <c r="E19" s="107"/>
-      <c r="F19" s="88" t="s">
-        <v>70</v>
-      </c>
-      <c r="G19" s="90"/>
-      <c r="H19" s="103">
+      <c r="I18" s="94"/>
+      <c r="J18" s="94"/>
+      <c r="K18" s="94"/>
+      <c r="L18" s="94"/>
+      <c r="M18" s="94"/>
+      <c r="N18" s="94"/>
+      <c r="O18" s="94"/>
+      <c r="P18" s="94"/>
+      <c r="Q18" s="94"/>
+      <c r="R18" s="94"/>
+      <c r="T18" s="129" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="19" spans="2:20" ht="17" thickBot="1">
+      <c r="B19" s="57"/>
+      <c r="C19" s="137" t="s">
+        <v>71</v>
+      </c>
+      <c r="D19" s="106"/>
+      <c r="E19" s="106"/>
+      <c r="F19" s="87" t="s">
+        <v>65</v>
+      </c>
+      <c r="G19" s="89"/>
+      <c r="H19" s="102">
         <f>H18*H21</f>
         <v>6886935</v>
       </c>
-      <c r="I19" s="95"/>
-      <c r="J19" s="95"/>
-      <c r="K19" s="95"/>
-      <c r="L19" s="95"/>
-      <c r="M19" s="95"/>
-      <c r="N19" s="95"/>
-      <c r="O19" s="95"/>
-      <c r="P19" s="95"/>
-      <c r="Q19" s="95"/>
-      <c r="R19" s="95"/>
+      <c r="I19" s="94"/>
+      <c r="J19" s="94"/>
+      <c r="K19" s="94"/>
+      <c r="L19" s="94"/>
+      <c r="M19" s="94"/>
+      <c r="N19" s="94"/>
+      <c r="O19" s="94"/>
+      <c r="P19" s="94"/>
+      <c r="Q19" s="94"/>
+      <c r="R19" s="94"/>
       <c r="T19" s="50" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="20" spans="2:20" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B20" s="58"/>
-      <c r="C20" s="139" t="s">
-        <v>77</v>
-      </c>
-      <c r="D20" s="107"/>
-      <c r="E20" s="107"/>
-      <c r="F20" s="128" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="20" spans="2:20" ht="17" thickBot="1">
+      <c r="B20" s="57"/>
+      <c r="C20" s="137" t="s">
+        <v>71</v>
+      </c>
+      <c r="D20" s="106"/>
+      <c r="E20" s="106"/>
+      <c r="F20" s="126" t="s">
+        <v>117</v>
+      </c>
+      <c r="G20" s="134"/>
+      <c r="H20" s="102">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="I20" s="94"/>
+      <c r="J20" s="94"/>
+      <c r="K20" s="94"/>
+      <c r="L20" s="94"/>
+      <c r="M20" s="94"/>
+      <c r="N20" s="94"/>
+      <c r="O20" s="94"/>
+      <c r="P20" s="94"/>
+      <c r="Q20" s="94"/>
+      <c r="R20" s="94"/>
+      <c r="T20" s="50"/>
+    </row>
+    <row r="21" spans="2:20" ht="17" thickBot="1">
+      <c r="B21" s="57"/>
+      <c r="C21" s="137" t="s">
         <v>127</v>
       </c>
-      <c r="G20" s="136"/>
-      <c r="H20" s="103">
-        <v>2.2000000000000002</v>
-      </c>
-      <c r="I20" s="95"/>
-      <c r="J20" s="95"/>
-      <c r="K20" s="95"/>
-      <c r="L20" s="95"/>
-      <c r="M20" s="95"/>
-      <c r="N20" s="95"/>
-      <c r="O20" s="95"/>
-      <c r="P20" s="95"/>
-      <c r="Q20" s="95"/>
-      <c r="R20" s="95"/>
-      <c r="T20" s="50"/>
-    </row>
-    <row r="21" spans="2:20" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B21" s="58"/>
-      <c r="C21" s="139" t="s">
-        <v>137</v>
-      </c>
-      <c r="D21" s="86"/>
-      <c r="E21" s="86"/>
-      <c r="F21" s="86" t="s">
-        <v>79</v>
-      </c>
-      <c r="G21" s="59"/>
-      <c r="H21" s="109">
+      <c r="D21" s="85"/>
+      <c r="E21" s="85"/>
+      <c r="F21" s="85" t="s">
+        <v>73</v>
+      </c>
+      <c r="G21" s="58"/>
+      <c r="H21" s="108">
         <v>4500</v>
       </c>
-      <c r="I21" s="59"/>
-      <c r="J21" s="85"/>
-      <c r="K21" s="98"/>
-      <c r="L21" s="98"/>
-      <c r="M21" s="98"/>
-      <c r="N21" s="98"/>
-      <c r="O21" s="98"/>
-      <c r="P21" s="98"/>
-      <c r="Q21" s="98"/>
-      <c r="R21" s="98"/>
-      <c r="T21" s="86"/>
-    </row>
-    <row r="22" spans="2:20" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B22" s="58"/>
-      <c r="C22" s="150" t="s">
-        <v>140</v>
-      </c>
-      <c r="D22" s="86"/>
-      <c r="E22" s="86"/>
-      <c r="F22" s="131" t="s">
-        <v>128</v>
-      </c>
-      <c r="G22" s="116"/>
-      <c r="H22" s="109">
+      <c r="I21" s="58"/>
+      <c r="J21" s="84"/>
+      <c r="K21" s="97"/>
+      <c r="L21" s="97"/>
+      <c r="M21" s="97"/>
+      <c r="N21" s="97"/>
+      <c r="O21" s="97"/>
+      <c r="P21" s="97"/>
+      <c r="Q21" s="97"/>
+      <c r="R21" s="97"/>
+      <c r="T21" s="85"/>
+    </row>
+    <row r="22" spans="2:20" ht="17" thickBot="1">
+      <c r="B22" s="57"/>
+      <c r="C22" s="148" t="s">
+        <v>130</v>
+      </c>
+      <c r="D22" s="85"/>
+      <c r="E22" s="85"/>
+      <c r="F22" s="129" t="s">
+        <v>118</v>
+      </c>
+      <c r="G22" s="114"/>
+      <c r="H22" s="108">
         <f>H21*H6</f>
         <v>3130425</v>
       </c>
-      <c r="I22" s="59"/>
-      <c r="J22" s="85"/>
-      <c r="K22" s="98"/>
-      <c r="L22" s="98"/>
-      <c r="M22" s="98"/>
-      <c r="N22" s="98"/>
-      <c r="O22" s="98"/>
-      <c r="P22" s="98"/>
-      <c r="Q22" s="98"/>
-      <c r="R22" s="98"/>
-      <c r="T22" s="86"/>
+      <c r="I22" s="58"/>
+      <c r="J22" s="84"/>
+      <c r="K22" s="97"/>
+      <c r="L22" s="97"/>
+      <c r="M22" s="97"/>
+      <c r="N22" s="97"/>
+      <c r="O22" s="97"/>
+      <c r="P22" s="97"/>
+      <c r="Q22" s="97"/>
+      <c r="R22" s="97"/>
+      <c r="T22" s="85"/>
     </row>
   </sheetData>
   <conditionalFormatting sqref="T19:T20">
@@ -4677,10 +4568,10 @@
     </cfRule>
   </conditionalFormatting>
   <hyperlinks>
-    <hyperlink ref="T11" r:id="rId1"/>
-    <hyperlink ref="T10" r:id="rId2"/>
-    <hyperlink ref="T19" r:id="rId3" location="issuecomment-18286997"/>
-    <hyperlink ref="T17" r:id="rId4" location="issuecomment-18286997"/>
+    <hyperlink ref="T11" r:id="rId1" xr:uid="{00000000-0004-0000-0200-000000000000}"/>
+    <hyperlink ref="T10" r:id="rId2" xr:uid="{00000000-0004-0000-0200-000001000000}"/>
+    <hyperlink ref="T19" r:id="rId3" location="issuecomment-18286997" xr:uid="{00000000-0004-0000-0200-000002000000}"/>
+    <hyperlink ref="T17" r:id="rId4" location="issuecomment-18286997" xr:uid="{00000000-0004-0000-0200-000003000000}"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
@@ -4688,8 +4579,8 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr codeName="Sheet4" enableFormatConditionsCalculation="0">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+  <sheetPr codeName="Sheet4">
     <tabColor theme="6" tint="0.79998168889431442"/>
   </sheetPr>
   <dimension ref="B1:J27"/>
@@ -4698,409 +4589,409 @@
       <selection activeCell="I21" sqref="I21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="33.140625" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="33.1640625" defaultRowHeight="16"/>
   <cols>
-    <col min="1" max="1" width="10.140625" style="60" customWidth="1"/>
-    <col min="2" max="2" width="5.7109375" style="60" customWidth="1"/>
-    <col min="3" max="3" width="30.28515625" style="60" customWidth="1"/>
-    <col min="4" max="4" width="16.140625" style="60" customWidth="1"/>
-    <col min="5" max="5" width="10.28515625" style="60" customWidth="1"/>
-    <col min="6" max="8" width="12.140625" style="60" customWidth="1"/>
-    <col min="9" max="9" width="36.7109375" style="61" customWidth="1"/>
-    <col min="10" max="10" width="105.42578125" style="60" customWidth="1"/>
-    <col min="11" max="16384" width="33.140625" style="60"/>
+    <col min="1" max="1" width="10.1640625" style="59" customWidth="1"/>
+    <col min="2" max="2" width="5.6640625" style="59" customWidth="1"/>
+    <col min="3" max="3" width="30.33203125" style="59" customWidth="1"/>
+    <col min="4" max="4" width="16.1640625" style="59" customWidth="1"/>
+    <col min="5" max="5" width="10.33203125" style="59" customWidth="1"/>
+    <col min="6" max="8" width="12.1640625" style="59" customWidth="1"/>
+    <col min="9" max="9" width="36.6640625" style="60" customWidth="1"/>
+    <col min="10" max="10" width="105.5" style="59" customWidth="1"/>
+    <col min="11" max="16384" width="33.1640625" style="59"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:10" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
-    <row r="2" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B2" s="62"/>
-      <c r="C2" s="63"/>
-      <c r="D2" s="63"/>
-      <c r="E2" s="63"/>
-      <c r="F2" s="63"/>
-      <c r="G2" s="63"/>
-      <c r="H2" s="63"/>
-      <c r="I2" s="64"/>
-      <c r="J2" s="63"/>
-    </row>
-    <row r="3" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B3" s="65"/>
-      <c r="C3" s="66" t="s">
+    <row r="1" spans="2:10" ht="17" thickBot="1"/>
+    <row r="2" spans="2:10">
+      <c r="B2" s="61"/>
+      <c r="C2" s="62"/>
+      <c r="D2" s="62"/>
+      <c r="E2" s="62"/>
+      <c r="F2" s="62"/>
+      <c r="G2" s="62"/>
+      <c r="H2" s="62"/>
+      <c r="I2" s="63"/>
+      <c r="J2" s="62"/>
+    </row>
+    <row r="3" spans="2:10">
+      <c r="B3" s="64"/>
+      <c r="C3" s="65" t="s">
         <v>24</v>
       </c>
-      <c r="D3" s="66"/>
-      <c r="E3" s="66"/>
-      <c r="F3" s="66"/>
-      <c r="G3" s="66"/>
-      <c r="H3" s="66"/>
-      <c r="I3" s="67"/>
-      <c r="J3" s="68"/>
-    </row>
-    <row r="4" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B4" s="65"/>
-      <c r="C4" s="68"/>
-      <c r="D4" s="68"/>
-      <c r="E4" s="68"/>
-      <c r="F4" s="68"/>
-      <c r="G4" s="68"/>
-      <c r="H4" s="68"/>
-      <c r="I4" s="69"/>
-      <c r="J4" s="68"/>
-    </row>
-    <row r="5" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B5" s="70"/>
-      <c r="C5" s="71" t="s">
+      <c r="D3" s="65"/>
+      <c r="E3" s="65"/>
+      <c r="F3" s="65"/>
+      <c r="G3" s="65"/>
+      <c r="H3" s="65"/>
+      <c r="I3" s="66"/>
+      <c r="J3" s="67"/>
+    </row>
+    <row r="4" spans="2:10">
+      <c r="B4" s="64"/>
+      <c r="C4" s="67"/>
+      <c r="D4" s="67"/>
+      <c r="E4" s="67"/>
+      <c r="F4" s="67"/>
+      <c r="G4" s="67"/>
+      <c r="H4" s="67"/>
+      <c r="I4" s="68"/>
+      <c r="J4" s="67"/>
+    </row>
+    <row r="5" spans="2:10">
+      <c r="B5" s="69"/>
+      <c r="C5" s="70" t="s">
         <v>34</v>
       </c>
-      <c r="D5" s="71" t="s">
+      <c r="D5" s="70" t="s">
         <v>0</v>
       </c>
-      <c r="E5" s="71" t="s">
+      <c r="E5" s="70" t="s">
         <v>21</v>
       </c>
-      <c r="F5" s="71" t="s">
+      <c r="F5" s="70" t="s">
         <v>35</v>
       </c>
-      <c r="G5" s="71" t="s">
-        <v>145</v>
-      </c>
-      <c r="H5" s="71" t="s">
+      <c r="G5" s="70" t="s">
+        <v>135</v>
+      </c>
+      <c r="H5" s="70" t="s">
+        <v>85</v>
+      </c>
+      <c r="I5" s="71" t="s">
+        <v>152</v>
+      </c>
+      <c r="J5" s="70" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="6" spans="2:10">
+      <c r="B6" s="64"/>
+      <c r="C6" s="65"/>
+      <c r="D6" s="65"/>
+      <c r="E6" s="65"/>
+      <c r="F6" s="65"/>
+      <c r="G6" s="65"/>
+      <c r="H6" s="65"/>
+      <c r="I6" s="66"/>
+      <c r="J6" s="65"/>
+    </row>
+    <row r="7" spans="2:10" ht="32">
+      <c r="B7" s="64"/>
+      <c r="C7" s="72"/>
+      <c r="D7" s="72" t="s">
+        <v>26</v>
+      </c>
+      <c r="E7" s="76" t="s">
+        <v>25</v>
+      </c>
+      <c r="F7" s="77" t="s">
+        <v>80</v>
+      </c>
+      <c r="G7" s="150">
+        <v>2010</v>
+      </c>
+      <c r="H7" s="77"/>
+      <c r="I7" s="78" t="s">
+        <v>153</v>
+      </c>
+      <c r="J7" s="79" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="8" spans="2:10">
+      <c r="B8" s="64"/>
+      <c r="C8" s="73" t="s">
+        <v>1</v>
+      </c>
+      <c r="D8" s="72"/>
+      <c r="E8" s="76"/>
+      <c r="F8" s="78"/>
+      <c r="G8" s="78"/>
+      <c r="H8" s="78"/>
+      <c r="I8" s="78"/>
+      <c r="J8" s="72"/>
+    </row>
+    <row r="9" spans="2:10">
+      <c r="B9" s="64"/>
+      <c r="C9" s="74" t="s">
+        <v>6</v>
+      </c>
+      <c r="D9" s="72"/>
+      <c r="E9" s="76"/>
+      <c r="F9" s="78"/>
+      <c r="G9" s="78"/>
+      <c r="H9" s="78"/>
+      <c r="I9" s="78"/>
+      <c r="J9" s="72"/>
+    </row>
+    <row r="10" spans="2:10">
+      <c r="B10" s="64"/>
+      <c r="C10" s="169"/>
+      <c r="D10" s="72"/>
+      <c r="E10" s="76"/>
+      <c r="F10" s="78"/>
+      <c r="G10" s="78"/>
+      <c r="H10" s="78"/>
+      <c r="I10" s="78"/>
+      <c r="J10" s="72"/>
+    </row>
+    <row r="11" spans="2:10" s="151" customFormat="1" ht="32">
+      <c r="B11" s="154"/>
+      <c r="C11" s="160"/>
+      <c r="D11" s="161" t="s">
+        <v>140</v>
+      </c>
+      <c r="E11" s="162" t="s">
+        <v>147</v>
+      </c>
+      <c r="F11" s="163" t="s">
+        <v>80</v>
+      </c>
+      <c r="G11" s="164" t="s">
+        <v>80</v>
+      </c>
+      <c r="H11" s="163"/>
+      <c r="I11" s="171" t="s">
+        <v>154</v>
+      </c>
+      <c r="J11" s="161" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="12" spans="2:10" s="151" customFormat="1">
+      <c r="B12" s="154"/>
+      <c r="C12" s="165" t="s">
+        <v>149</v>
+      </c>
+      <c r="D12" s="161"/>
+      <c r="E12" s="155"/>
+      <c r="F12" s="166"/>
+      <c r="G12" s="167"/>
+      <c r="H12" s="166"/>
+      <c r="I12" s="166"/>
+      <c r="J12" s="168"/>
+    </row>
+    <row r="13" spans="2:10" s="151" customFormat="1">
+      <c r="B13" s="154"/>
+      <c r="C13" s="165" t="s">
+        <v>150</v>
+      </c>
+      <c r="D13" s="161"/>
+      <c r="E13" s="155"/>
+      <c r="F13" s="166"/>
+      <c r="G13" s="167"/>
+      <c r="H13" s="166"/>
+      <c r="I13" s="166"/>
+      <c r="J13" s="168"/>
+    </row>
+    <row r="14" spans="2:10">
+      <c r="B14" s="64"/>
+      <c r="C14" s="169"/>
+      <c r="D14" s="72"/>
+      <c r="E14" s="76"/>
+      <c r="F14" s="78"/>
+      <c r="G14" s="78"/>
+      <c r="H14" s="78"/>
+      <c r="I14" s="78"/>
+      <c r="J14" s="72"/>
+    </row>
+    <row r="15" spans="2:10">
+      <c r="B15" s="64"/>
+      <c r="C15" s="72"/>
+      <c r="D15" s="72" t="s">
+        <v>66</v>
+      </c>
+      <c r="E15" s="67" t="s">
+        <v>10</v>
+      </c>
+      <c r="F15" s="68" t="s">
+        <v>78</v>
+      </c>
+      <c r="G15" s="68" t="s">
+        <v>78</v>
+      </c>
+      <c r="H15" s="68"/>
+      <c r="I15" s="68" t="s">
+        <v>155</v>
+      </c>
+      <c r="J15" s="79"/>
+    </row>
+    <row r="16" spans="2:10">
+      <c r="B16" s="64"/>
+      <c r="C16" s="75" t="s">
+        <v>92</v>
+      </c>
+      <c r="D16" s="72"/>
+      <c r="E16" s="67"/>
+      <c r="F16" s="67"/>
+      <c r="G16" s="67"/>
+      <c r="H16" s="67"/>
+      <c r="I16" s="68"/>
+      <c r="J16" s="72"/>
+    </row>
+    <row r="17" spans="2:10">
+      <c r="B17" s="64"/>
+      <c r="C17" s="75"/>
+      <c r="D17" s="72"/>
+      <c r="E17" s="67"/>
+      <c r="F17" s="67"/>
+      <c r="G17" s="67"/>
+      <c r="H17" s="67"/>
+      <c r="I17" s="68"/>
+      <c r="J17" s="72"/>
+    </row>
+    <row r="18" spans="2:10">
+      <c r="B18" s="64"/>
+      <c r="C18" s="72"/>
+      <c r="D18" s="72" t="s">
+        <v>81</v>
+      </c>
+      <c r="E18" s="67"/>
+      <c r="F18" s="68">
+        <v>2013</v>
+      </c>
+      <c r="G18" s="68" t="s">
+        <v>136</v>
+      </c>
+      <c r="H18" s="68"/>
+      <c r="I18" s="68"/>
+      <c r="J18" s="79" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="19" spans="2:10">
+      <c r="B19" s="64"/>
+      <c r="C19" s="72" t="s">
         <v>91</v>
       </c>
-      <c r="I5" s="72" t="s">
-        <v>162</v>
-      </c>
-      <c r="J5" s="71" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="6" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B6" s="65"/>
-      <c r="C6" s="66"/>
-      <c r="D6" s="66"/>
-      <c r="E6" s="66"/>
-      <c r="F6" s="66"/>
-      <c r="G6" s="66"/>
-      <c r="H6" s="66"/>
-      <c r="I6" s="67"/>
-      <c r="J6" s="66"/>
-    </row>
-    <row r="7" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B7" s="65"/>
-      <c r="C7" s="73"/>
-      <c r="D7" s="73" t="s">
-        <v>26</v>
-      </c>
-      <c r="E7" s="77" t="s">
-        <v>25</v>
-      </c>
-      <c r="F7" s="78" t="s">
+      <c r="D19" s="72"/>
+      <c r="E19" s="67"/>
+      <c r="F19" s="68"/>
+      <c r="G19" s="68"/>
+      <c r="H19" s="68"/>
+      <c r="I19" s="68"/>
+      <c r="J19" s="72"/>
+    </row>
+    <row r="20" spans="2:10">
+      <c r="B20" s="64"/>
+      <c r="C20" s="75" t="s">
+        <v>94</v>
+      </c>
+      <c r="D20" s="72"/>
+      <c r="E20" s="67"/>
+      <c r="F20" s="67"/>
+      <c r="G20" s="67"/>
+      <c r="H20" s="67"/>
+      <c r="I20" s="68"/>
+      <c r="J20" s="72"/>
+    </row>
+    <row r="21" spans="2:10">
+      <c r="B21" s="64"/>
+      <c r="C21" s="75" t="s">
+        <v>95</v>
+      </c>
+      <c r="D21" s="67"/>
+      <c r="E21" s="72"/>
+      <c r="F21" s="72"/>
+      <c r="G21" s="72"/>
+      <c r="H21" s="72"/>
+      <c r="I21" s="80"/>
+      <c r="J21" s="72"/>
+    </row>
+    <row r="22" spans="2:10">
+      <c r="B22" s="64"/>
+      <c r="C22" s="72"/>
+      <c r="D22" s="67"/>
+      <c r="E22" s="72"/>
+      <c r="F22" s="72"/>
+      <c r="G22" s="72"/>
+      <c r="H22" s="72"/>
+      <c r="I22" s="80"/>
+      <c r="J22" s="72"/>
+    </row>
+    <row r="23" spans="2:10">
+      <c r="B23" s="64"/>
+      <c r="C23" s="72"/>
+      <c r="D23" s="59" t="s">
+        <v>76</v>
+      </c>
+      <c r="E23" s="72" t="s">
+        <v>10</v>
+      </c>
+      <c r="F23" s="72"/>
+      <c r="G23" s="72"/>
+      <c r="H23" s="72" t="s">
         <v>86</v>
       </c>
-      <c r="G7" s="152">
-        <v>2010</v>
-      </c>
-      <c r="H7" s="78"/>
-      <c r="I7" s="79" t="s">
-        <v>163</v>
-      </c>
-      <c r="J7" s="80" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="8" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B8" s="65"/>
-      <c r="C8" s="74" t="s">
-        <v>1</v>
-      </c>
-      <c r="D8" s="73"/>
-      <c r="E8" s="77"/>
-      <c r="F8" s="79"/>
-      <c r="G8" s="79"/>
-      <c r="H8" s="79"/>
-      <c r="I8" s="79"/>
-      <c r="J8" s="73"/>
-    </row>
-    <row r="9" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B9" s="65"/>
-      <c r="C9" s="75" t="s">
-        <v>6</v>
-      </c>
-      <c r="D9" s="73"/>
-      <c r="E9" s="77"/>
-      <c r="F9" s="79"/>
-      <c r="G9" s="79"/>
-      <c r="H9" s="79"/>
-      <c r="I9" s="79"/>
-      <c r="J9" s="73"/>
-    </row>
-    <row r="10" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B10" s="65"/>
-      <c r="C10" s="171"/>
-      <c r="D10" s="73"/>
-      <c r="E10" s="77"/>
-      <c r="F10" s="79"/>
-      <c r="G10" s="79"/>
-      <c r="H10" s="79"/>
-      <c r="I10" s="79"/>
-      <c r="J10" s="73"/>
-    </row>
-    <row r="11" spans="2:10" s="153" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B11" s="156"/>
-      <c r="C11" s="162"/>
-      <c r="D11" s="163" t="s">
-        <v>150</v>
-      </c>
-      <c r="E11" s="164" t="s">
-        <v>157</v>
-      </c>
-      <c r="F11" s="165" t="s">
+      <c r="I23" s="80"/>
+      <c r="J23" s="72" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="24" spans="2:10">
+      <c r="B24" s="64"/>
+      <c r="C24" s="75" t="s">
+        <v>84</v>
+      </c>
+      <c r="D24" s="67" t="s">
+        <v>82</v>
+      </c>
+      <c r="E24" s="72"/>
+      <c r="F24" s="72"/>
+      <c r="G24" s="72"/>
+      <c r="H24" s="72"/>
+      <c r="I24" s="80"/>
+      <c r="J24" s="72"/>
+    </row>
+    <row r="25" spans="2:10">
+      <c r="B25" s="64"/>
+      <c r="C25" s="75"/>
+      <c r="D25" s="67"/>
+      <c r="E25" s="72"/>
+      <c r="F25" s="72"/>
+      <c r="G25" s="72"/>
+      <c r="H25" s="72"/>
+      <c r="I25" s="80"/>
+      <c r="J25" s="72"/>
+    </row>
+    <row r="26" spans="2:10">
+      <c r="B26" s="64"/>
+      <c r="C26" s="72"/>
+      <c r="D26" s="67" t="s">
+        <v>76</v>
+      </c>
+      <c r="E26" s="72" t="s">
+        <v>10</v>
+      </c>
+      <c r="F26" s="72"/>
+      <c r="G26" s="72"/>
+      <c r="H26" s="72" t="s">
         <v>86</v>
       </c>
-      <c r="G11" s="166" t="s">
-        <v>86</v>
-      </c>
-      <c r="H11" s="165"/>
-      <c r="I11" s="173" t="s">
-        <v>164</v>
-      </c>
-      <c r="J11" s="163" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="12" spans="2:10" s="153" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B12" s="156"/>
-      <c r="C12" s="167" t="s">
-        <v>159</v>
-      </c>
-      <c r="D12" s="163"/>
-      <c r="E12" s="157"/>
-      <c r="F12" s="168"/>
-      <c r="G12" s="169"/>
-      <c r="H12" s="168"/>
-      <c r="I12" s="168"/>
-      <c r="J12" s="170"/>
-    </row>
-    <row r="13" spans="2:10" s="153" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B13" s="156"/>
-      <c r="C13" s="167" t="s">
-        <v>160</v>
-      </c>
-      <c r="D13" s="163"/>
-      <c r="E13" s="157"/>
-      <c r="F13" s="168"/>
-      <c r="G13" s="169"/>
-      <c r="H13" s="168"/>
-      <c r="I13" s="168"/>
-      <c r="J13" s="170"/>
-    </row>
-    <row r="14" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B14" s="65"/>
-      <c r="C14" s="171"/>
-      <c r="D14" s="73"/>
-      <c r="E14" s="77"/>
-      <c r="F14" s="79"/>
-      <c r="G14" s="79"/>
-      <c r="H14" s="79"/>
-      <c r="I14" s="79"/>
-      <c r="J14" s="73"/>
-    </row>
-    <row r="15" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B15" s="65"/>
-      <c r="C15" s="73"/>
-      <c r="D15" s="73" t="s">
-        <v>71</v>
-      </c>
-      <c r="E15" s="68" t="s">
-        <v>10</v>
-      </c>
-      <c r="F15" s="69" t="s">
+      <c r="I26" s="80"/>
+      <c r="J26" s="72" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="27" spans="2:10">
+      <c r="B27" s="64"/>
+      <c r="C27" s="75" t="s">
         <v>84</v>
       </c>
-      <c r="G15" s="69" t="s">
-        <v>84</v>
-      </c>
-      <c r="H15" s="69"/>
-      <c r="I15" s="69" t="s">
-        <v>165</v>
-      </c>
-      <c r="J15" s="80"/>
-    </row>
-    <row r="16" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B16" s="65"/>
-      <c r="C16" s="76" t="s">
-        <v>98</v>
-      </c>
-      <c r="D16" s="73"/>
-      <c r="E16" s="68"/>
-      <c r="F16" s="68"/>
-      <c r="G16" s="68"/>
-      <c r="H16" s="68"/>
-      <c r="I16" s="69"/>
-      <c r="J16" s="73"/>
-    </row>
-    <row r="17" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B17" s="65"/>
-      <c r="C17" s="76"/>
-      <c r="D17" s="73"/>
-      <c r="E17" s="68"/>
-      <c r="F17" s="68"/>
-      <c r="G17" s="68"/>
-      <c r="H17" s="68"/>
-      <c r="I17" s="69"/>
-      <c r="J17" s="73"/>
-    </row>
-    <row r="18" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B18" s="65"/>
-      <c r="C18" s="73"/>
-      <c r="D18" s="73" t="s">
-        <v>87</v>
-      </c>
-      <c r="E18" s="68"/>
-      <c r="F18" s="69">
-        <v>2013</v>
-      </c>
-      <c r="G18" s="69" t="s">
-        <v>146</v>
-      </c>
-      <c r="H18" s="69"/>
-      <c r="I18" s="69"/>
-      <c r="J18" s="80" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="19" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B19" s="65"/>
-      <c r="C19" s="73" t="s">
-        <v>97</v>
-      </c>
-      <c r="D19" s="73"/>
-      <c r="E19" s="68"/>
-      <c r="F19" s="69"/>
-      <c r="G19" s="69"/>
-      <c r="H19" s="69"/>
-      <c r="I19" s="69"/>
-      <c r="J19" s="73"/>
-    </row>
-    <row r="20" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B20" s="65"/>
-      <c r="C20" s="76" t="s">
-        <v>104</v>
-      </c>
-      <c r="D20" s="73"/>
-      <c r="E20" s="68"/>
-      <c r="F20" s="68"/>
-      <c r="G20" s="68"/>
-      <c r="H20" s="68"/>
-      <c r="I20" s="69"/>
-      <c r="J20" s="73"/>
-    </row>
-    <row r="21" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B21" s="65"/>
-      <c r="C21" s="76" t="s">
-        <v>105</v>
-      </c>
-      <c r="D21" s="68"/>
-      <c r="E21" s="73"/>
-      <c r="F21" s="73"/>
-      <c r="G21" s="73"/>
-      <c r="H21" s="73"/>
-      <c r="I21" s="81"/>
-      <c r="J21" s="73"/>
-    </row>
-    <row r="22" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B22" s="65"/>
-      <c r="C22" s="73"/>
-      <c r="D22" s="68"/>
-      <c r="E22" s="73"/>
-      <c r="F22" s="73"/>
-      <c r="G22" s="73"/>
-      <c r="H22" s="73"/>
-      <c r="I22" s="81"/>
-      <c r="J22" s="73"/>
-    </row>
-    <row r="23" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B23" s="65"/>
-      <c r="C23" s="73"/>
-      <c r="D23" s="60" t="s">
-        <v>82</v>
-      </c>
-      <c r="E23" s="73" t="s">
-        <v>10</v>
-      </c>
-      <c r="F23" s="73"/>
-      <c r="G23" s="73"/>
-      <c r="H23" s="73" t="s">
-        <v>92</v>
-      </c>
-      <c r="I23" s="81"/>
-      <c r="J23" s="73" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="24" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B24" s="65"/>
-      <c r="C24" s="76" t="s">
-        <v>90</v>
-      </c>
-      <c r="D24" s="68" t="s">
-        <v>88</v>
-      </c>
-      <c r="E24" s="73"/>
-      <c r="F24" s="73"/>
-      <c r="G24" s="73"/>
-      <c r="H24" s="73"/>
-      <c r="I24" s="81"/>
-      <c r="J24" s="73"/>
-    </row>
-    <row r="25" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B25" s="65"/>
-      <c r="C25" s="76"/>
-      <c r="D25" s="68"/>
-      <c r="E25" s="73"/>
-      <c r="F25" s="73"/>
-      <c r="G25" s="73"/>
-      <c r="H25" s="73"/>
-      <c r="I25" s="81"/>
-      <c r="J25" s="73"/>
-    </row>
-    <row r="26" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B26" s="65"/>
-      <c r="C26" s="73"/>
-      <c r="D26" s="68" t="s">
-        <v>82</v>
-      </c>
-      <c r="E26" s="73" t="s">
-        <v>10</v>
-      </c>
-      <c r="F26" s="73"/>
-      <c r="G26" s="73"/>
-      <c r="H26" s="73" t="s">
-        <v>92</v>
-      </c>
-      <c r="I26" s="81"/>
-      <c r="J26" s="73" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="27" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B27" s="65"/>
-      <c r="C27" s="76" t="s">
-        <v>90</v>
-      </c>
-      <c r="D27" s="68" t="s">
-        <v>89</v>
-      </c>
-      <c r="E27" s="73"/>
-      <c r="F27" s="73"/>
-      <c r="G27" s="73"/>
-      <c r="H27" s="73"/>
-      <c r="I27" s="81"/>
-      <c r="J27" s="73"/>
+      <c r="D27" s="67" t="s">
+        <v>83</v>
+      </c>
+      <c r="E27" s="72"/>
+      <c r="F27" s="72"/>
+      <c r="G27" s="72"/>
+      <c r="H27" s="72"/>
+      <c r="I27" s="80"/>
+      <c r="J27" s="72"/>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="J18" r:id="rId1" location="issuecomment-18286997"/>
+    <hyperlink ref="J18" r:id="rId1" location="issuecomment-18286997" xr:uid="{00000000-0004-0000-0300-000000000000}"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
@@ -5111,47 +5002,47 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="B1:O73"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="E31" sqref="E31"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.6640625" defaultRowHeight="16"/>
   <cols>
-    <col min="1" max="1" width="5" style="153" customWidth="1"/>
-    <col min="2" max="2" width="4.85546875" style="153" customWidth="1"/>
-    <col min="3" max="3" width="12.7109375" style="153" customWidth="1"/>
-    <col min="4" max="4" width="12.140625" style="153" customWidth="1"/>
-    <col min="5" max="16384" width="10.7109375" style="153"/>
+    <col min="1" max="1" width="5" style="151" customWidth="1"/>
+    <col min="2" max="2" width="4.83203125" style="151" customWidth="1"/>
+    <col min="3" max="3" width="12.6640625" style="151" customWidth="1"/>
+    <col min="4" max="4" width="12.1640625" style="151" customWidth="1"/>
+    <col min="5" max="16384" width="10.6640625" style="151"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:15" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
-    <row r="2" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B2" s="154"/>
-      <c r="C2" s="155"/>
-      <c r="D2" s="155"/>
-      <c r="E2" s="155"/>
-      <c r="F2" s="155"/>
-      <c r="G2" s="155"/>
-      <c r="H2" s="155"/>
-      <c r="I2" s="155"/>
-      <c r="J2" s="155"/>
-      <c r="K2" s="155"/>
-      <c r="L2" s="155"/>
-      <c r="M2" s="155"/>
-      <c r="N2" s="155"/>
-      <c r="O2" s="155"/>
-    </row>
-    <row r="3" spans="2:15" s="38" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B3" s="141"/>
+    <row r="1" spans="2:15" ht="17" thickBot="1"/>
+    <row r="2" spans="2:15">
+      <c r="B2" s="152"/>
+      <c r="C2" s="153"/>
+      <c r="D2" s="153"/>
+      <c r="E2" s="153"/>
+      <c r="F2" s="153"/>
+      <c r="G2" s="153"/>
+      <c r="H2" s="153"/>
+      <c r="I2" s="153"/>
+      <c r="J2" s="153"/>
+      <c r="K2" s="153"/>
+      <c r="L2" s="153"/>
+      <c r="M2" s="153"/>
+      <c r="N2" s="153"/>
+      <c r="O2" s="153"/>
+    </row>
+    <row r="3" spans="2:15" s="38" customFormat="1">
+      <c r="B3" s="139"/>
       <c r="C3" s="24" t="s">
-        <v>116</v>
+        <v>106</v>
       </c>
       <c r="D3" s="24"/>
       <c r="E3" s="24" t="s">
-        <v>147</v>
+        <v>137</v>
       </c>
       <c r="F3" s="24"/>
       <c r="G3" s="24"/>
@@ -5164,1164 +5055,1164 @@
       <c r="N3" s="24"/>
       <c r="O3" s="24"/>
     </row>
-    <row r="4" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B4" s="156"/>
-      <c r="C4" s="157"/>
-      <c r="D4" s="157"/>
-      <c r="E4" s="157"/>
-      <c r="F4" s="157"/>
-      <c r="G4" s="157"/>
-      <c r="H4" s="157"/>
-      <c r="I4" s="157"/>
-      <c r="J4" s="157"/>
-      <c r="K4" s="157"/>
-      <c r="L4" s="157"/>
-      <c r="M4" s="157"/>
-      <c r="N4" s="157"/>
-      <c r="O4" s="157"/>
-    </row>
-    <row r="5" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B5" s="156"/>
-      <c r="C5" s="157" t="s">
-        <v>71</v>
-      </c>
-      <c r="D5" s="157"/>
-      <c r="E5" s="157"/>
-      <c r="F5" s="157"/>
-      <c r="G5" s="157"/>
-      <c r="H5" s="157"/>
-      <c r="I5" s="157"/>
-      <c r="J5" s="157"/>
-      <c r="K5" s="157"/>
-      <c r="L5" s="157"/>
-      <c r="M5" s="157"/>
-      <c r="N5" s="157"/>
-      <c r="O5" s="157"/>
-    </row>
-    <row r="6" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B6" s="156"/>
-      <c r="C6" s="157"/>
-      <c r="D6" s="157"/>
-      <c r="E6" s="157"/>
-      <c r="F6" s="157"/>
-      <c r="G6" s="157"/>
-      <c r="H6" s="157"/>
-      <c r="I6" s="157"/>
-      <c r="J6" s="157"/>
-      <c r="K6" s="157"/>
-      <c r="L6" s="157"/>
-      <c r="M6" s="157"/>
-      <c r="N6" s="157"/>
-      <c r="O6" s="157"/>
-    </row>
-    <row r="7" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B7" s="156"/>
-      <c r="C7" s="157" t="s">
-        <v>148</v>
-      </c>
-      <c r="D7" s="157"/>
-      <c r="E7" s="157"/>
-      <c r="F7" s="157"/>
-      <c r="G7" s="157"/>
-      <c r="H7" s="157"/>
-      <c r="I7" s="157"/>
-      <c r="J7" s="157"/>
-      <c r="K7" s="157"/>
-      <c r="L7" s="157"/>
-      <c r="M7" s="157"/>
-      <c r="N7" s="157"/>
-      <c r="O7" s="157"/>
-    </row>
-    <row r="8" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B8" s="156"/>
-      <c r="C8" s="157"/>
-      <c r="D8" s="157"/>
-      <c r="E8" s="157"/>
-      <c r="F8" s="157"/>
-      <c r="G8" s="157"/>
-      <c r="H8" s="157"/>
-      <c r="I8" s="157"/>
-      <c r="J8" s="157"/>
-      <c r="K8" s="157"/>
-      <c r="L8" s="157"/>
-      <c r="M8" s="157"/>
-      <c r="N8" s="157"/>
-      <c r="O8" s="157"/>
-    </row>
-    <row r="9" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B9" s="156"/>
-      <c r="C9" s="157"/>
-      <c r="D9" s="157"/>
-      <c r="E9" s="157"/>
-      <c r="F9" s="157"/>
-      <c r="G9" s="157"/>
-      <c r="H9" s="157"/>
-      <c r="I9" s="157"/>
-      <c r="J9" s="157"/>
-      <c r="K9" s="157"/>
-      <c r="L9" s="157"/>
-      <c r="M9" s="157"/>
-      <c r="N9" s="157"/>
-      <c r="O9" s="157"/>
-    </row>
-    <row r="10" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B10" s="156"/>
-      <c r="C10" s="157"/>
-      <c r="D10" s="157"/>
-      <c r="E10" s="157"/>
-      <c r="F10" s="157"/>
-      <c r="G10" s="157"/>
-      <c r="H10" s="157"/>
-      <c r="I10" s="157"/>
-      <c r="J10" s="157"/>
-      <c r="K10" s="157"/>
-      <c r="L10" s="157"/>
-      <c r="M10" s="157"/>
-      <c r="N10" s="157"/>
-      <c r="O10" s="157"/>
-    </row>
-    <row r="11" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B11" s="156"/>
-      <c r="C11" s="157"/>
-      <c r="D11" s="157"/>
-      <c r="E11" s="157"/>
-      <c r="F11" s="157"/>
-      <c r="G11" s="157"/>
-      <c r="H11" s="157"/>
-      <c r="I11" s="157"/>
-      <c r="J11" s="157"/>
-      <c r="K11" s="157"/>
-      <c r="L11" s="157"/>
-      <c r="M11" s="157"/>
-      <c r="N11" s="157"/>
-      <c r="O11" s="157"/>
-    </row>
-    <row r="12" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B12" s="156"/>
-      <c r="C12" s="157"/>
-      <c r="D12" s="157"/>
-      <c r="E12" s="157"/>
-      <c r="F12" s="157"/>
-      <c r="G12" s="157"/>
-      <c r="H12" s="157"/>
-      <c r="I12" s="157"/>
-      <c r="J12" s="157"/>
-      <c r="K12" s="157"/>
-      <c r="L12" s="157"/>
-      <c r="M12" s="157"/>
-      <c r="N12" s="157"/>
-      <c r="O12" s="157"/>
-    </row>
-    <row r="13" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B13" s="156"/>
-      <c r="C13" s="157"/>
-      <c r="D13" s="157"/>
-      <c r="E13" s="157"/>
-      <c r="F13" s="157"/>
-      <c r="G13" s="157"/>
-      <c r="H13" s="157"/>
-      <c r="I13" s="157"/>
-      <c r="J13" s="157"/>
-      <c r="K13" s="157"/>
-      <c r="L13" s="157"/>
-      <c r="M13" s="157"/>
-      <c r="N13" s="157"/>
-      <c r="O13" s="157"/>
-    </row>
-    <row r="14" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B14" s="156"/>
-      <c r="C14" s="157"/>
-      <c r="D14" s="157"/>
-      <c r="E14" s="157"/>
-      <c r="F14" s="157"/>
-      <c r="G14" s="157"/>
-      <c r="H14" s="157"/>
-      <c r="I14" s="157"/>
-      <c r="J14" s="157"/>
-      <c r="K14" s="157"/>
-      <c r="L14" s="157"/>
-      <c r="M14" s="157"/>
-      <c r="N14" s="157"/>
-      <c r="O14" s="157"/>
-    </row>
-    <row r="15" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B15" s="156"/>
-      <c r="C15" s="157"/>
-      <c r="D15" s="157"/>
-      <c r="E15" s="157"/>
-      <c r="F15" s="157"/>
-      <c r="G15" s="157"/>
-      <c r="H15" s="157"/>
-      <c r="I15" s="157"/>
-      <c r="J15" s="157"/>
-      <c r="K15" s="157"/>
-      <c r="L15" s="157"/>
-      <c r="M15" s="157"/>
-      <c r="N15" s="157"/>
-      <c r="O15" s="157"/>
-    </row>
-    <row r="16" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B16" s="156"/>
-      <c r="C16" s="157"/>
-      <c r="D16" s="157"/>
-      <c r="E16" s="157"/>
-      <c r="F16" s="157"/>
-      <c r="G16" s="157"/>
-      <c r="H16" s="157"/>
-      <c r="I16" s="157"/>
-      <c r="J16" s="157"/>
-      <c r="K16" s="157"/>
-      <c r="L16" s="157"/>
-      <c r="M16" s="157"/>
-      <c r="N16" s="157"/>
-      <c r="O16" s="157"/>
-    </row>
-    <row r="17" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B17" s="156"/>
-      <c r="C17" s="157"/>
-      <c r="D17" s="157"/>
-      <c r="E17" s="157"/>
-      <c r="F17" s="157"/>
-      <c r="G17" s="157"/>
-      <c r="H17" s="157"/>
-      <c r="I17" s="157"/>
-      <c r="J17" s="157"/>
-      <c r="K17" s="157"/>
-      <c r="L17" s="157"/>
-      <c r="M17" s="157"/>
-      <c r="N17" s="157"/>
-      <c r="O17" s="157"/>
-    </row>
-    <row r="18" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B18" s="156"/>
-      <c r="C18" s="157"/>
-      <c r="D18" s="157"/>
-      <c r="E18" s="157"/>
-      <c r="F18" s="157"/>
-      <c r="G18" s="157"/>
-      <c r="H18" s="157"/>
-      <c r="I18" s="157"/>
-      <c r="J18" s="157"/>
-      <c r="K18" s="157"/>
-      <c r="L18" s="157"/>
-      <c r="M18" s="157"/>
-      <c r="N18" s="157"/>
-      <c r="O18" s="157"/>
-    </row>
-    <row r="19" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B19" s="156"/>
-      <c r="C19" s="157"/>
-      <c r="D19" s="157"/>
-      <c r="E19" s="157"/>
-      <c r="F19" s="157"/>
-      <c r="G19" s="157"/>
-      <c r="H19" s="157"/>
-      <c r="I19" s="157"/>
-      <c r="J19" s="157"/>
-      <c r="K19" s="157"/>
-      <c r="L19" s="157"/>
-      <c r="M19" s="157"/>
-      <c r="N19" s="157"/>
-      <c r="O19" s="157"/>
-    </row>
-    <row r="20" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B20" s="156"/>
-      <c r="C20" s="157"/>
-      <c r="D20" s="157"/>
-      <c r="E20" s="157"/>
-      <c r="F20" s="157"/>
-      <c r="G20" s="157"/>
-      <c r="H20" s="157"/>
-      <c r="I20" s="157"/>
-      <c r="J20" s="157"/>
-      <c r="K20" s="157"/>
-      <c r="L20" s="157"/>
-      <c r="M20" s="157"/>
-      <c r="N20" s="157"/>
-      <c r="O20" s="157"/>
-    </row>
-    <row r="21" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B21" s="156"/>
-      <c r="C21" s="157"/>
-      <c r="D21" s="157"/>
-      <c r="E21" s="157"/>
-      <c r="F21" s="157"/>
-      <c r="G21" s="157"/>
-      <c r="H21" s="157"/>
-      <c r="I21" s="157"/>
-      <c r="J21" s="157"/>
-      <c r="K21" s="157"/>
-      <c r="L21" s="157"/>
-      <c r="M21" s="157"/>
-      <c r="N21" s="157"/>
-      <c r="O21" s="157"/>
-    </row>
-    <row r="22" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B22" s="156"/>
-      <c r="C22" s="157"/>
-      <c r="D22" s="157">
+    <row r="4" spans="2:15">
+      <c r="B4" s="154"/>
+      <c r="C4" s="155"/>
+      <c r="D4" s="155"/>
+      <c r="E4" s="155"/>
+      <c r="F4" s="155"/>
+      <c r="G4" s="155"/>
+      <c r="H4" s="155"/>
+      <c r="I4" s="155"/>
+      <c r="J4" s="155"/>
+      <c r="K4" s="155"/>
+      <c r="L4" s="155"/>
+      <c r="M4" s="155"/>
+      <c r="N4" s="155"/>
+      <c r="O4" s="155"/>
+    </row>
+    <row r="5" spans="2:15">
+      <c r="B5" s="154"/>
+      <c r="C5" s="155" t="s">
+        <v>66</v>
+      </c>
+      <c r="D5" s="155"/>
+      <c r="E5" s="155"/>
+      <c r="F5" s="155"/>
+      <c r="G5" s="155"/>
+      <c r="H5" s="155"/>
+      <c r="I5" s="155"/>
+      <c r="J5" s="155"/>
+      <c r="K5" s="155"/>
+      <c r="L5" s="155"/>
+      <c r="M5" s="155"/>
+      <c r="N5" s="155"/>
+      <c r="O5" s="155"/>
+    </row>
+    <row r="6" spans="2:15">
+      <c r="B6" s="154"/>
+      <c r="C6" s="155"/>
+      <c r="D6" s="155"/>
+      <c r="E6" s="155"/>
+      <c r="F6" s="155"/>
+      <c r="G6" s="155"/>
+      <c r="H6" s="155"/>
+      <c r="I6" s="155"/>
+      <c r="J6" s="155"/>
+      <c r="K6" s="155"/>
+      <c r="L6" s="155"/>
+      <c r="M6" s="155"/>
+      <c r="N6" s="155"/>
+      <c r="O6" s="155"/>
+    </row>
+    <row r="7" spans="2:15">
+      <c r="B7" s="154"/>
+      <c r="C7" s="155" t="s">
+        <v>138</v>
+      </c>
+      <c r="D7" s="155"/>
+      <c r="E7" s="155"/>
+      <c r="F7" s="155"/>
+      <c r="G7" s="155"/>
+      <c r="H7" s="155"/>
+      <c r="I7" s="155"/>
+      <c r="J7" s="155"/>
+      <c r="K7" s="155"/>
+      <c r="L7" s="155"/>
+      <c r="M7" s="155"/>
+      <c r="N7" s="155"/>
+      <c r="O7" s="155"/>
+    </row>
+    <row r="8" spans="2:15">
+      <c r="B8" s="154"/>
+      <c r="C8" s="155"/>
+      <c r="D8" s="155"/>
+      <c r="E8" s="155"/>
+      <c r="F8" s="155"/>
+      <c r="G8" s="155"/>
+      <c r="H8" s="155"/>
+      <c r="I8" s="155"/>
+      <c r="J8" s="155"/>
+      <c r="K8" s="155"/>
+      <c r="L8" s="155"/>
+      <c r="M8" s="155"/>
+      <c r="N8" s="155"/>
+      <c r="O8" s="155"/>
+    </row>
+    <row r="9" spans="2:15">
+      <c r="B9" s="154"/>
+      <c r="C9" s="155"/>
+      <c r="D9" s="155"/>
+      <c r="E9" s="155"/>
+      <c r="F9" s="155"/>
+      <c r="G9" s="155"/>
+      <c r="H9" s="155"/>
+      <c r="I9" s="155"/>
+      <c r="J9" s="155"/>
+      <c r="K9" s="155"/>
+      <c r="L9" s="155"/>
+      <c r="M9" s="155"/>
+      <c r="N9" s="155"/>
+      <c r="O9" s="155"/>
+    </row>
+    <row r="10" spans="2:15">
+      <c r="B10" s="154"/>
+      <c r="C10" s="155"/>
+      <c r="D10" s="155"/>
+      <c r="E10" s="155"/>
+      <c r="F10" s="155"/>
+      <c r="G10" s="155"/>
+      <c r="H10" s="155"/>
+      <c r="I10" s="155"/>
+      <c r="J10" s="155"/>
+      <c r="K10" s="155"/>
+      <c r="L10" s="155"/>
+      <c r="M10" s="155"/>
+      <c r="N10" s="155"/>
+      <c r="O10" s="155"/>
+    </row>
+    <row r="11" spans="2:15">
+      <c r="B11" s="154"/>
+      <c r="C11" s="155"/>
+      <c r="D11" s="155"/>
+      <c r="E11" s="155"/>
+      <c r="F11" s="155"/>
+      <c r="G11" s="155"/>
+      <c r="H11" s="155"/>
+      <c r="I11" s="155"/>
+      <c r="J11" s="155"/>
+      <c r="K11" s="155"/>
+      <c r="L11" s="155"/>
+      <c r="M11" s="155"/>
+      <c r="N11" s="155"/>
+      <c r="O11" s="155"/>
+    </row>
+    <row r="12" spans="2:15">
+      <c r="B12" s="154"/>
+      <c r="C12" s="155"/>
+      <c r="D12" s="155"/>
+      <c r="E12" s="155"/>
+      <c r="F12" s="155"/>
+      <c r="G12" s="155"/>
+      <c r="H12" s="155"/>
+      <c r="I12" s="155"/>
+      <c r="J12" s="155"/>
+      <c r="K12" s="155"/>
+      <c r="L12" s="155"/>
+      <c r="M12" s="155"/>
+      <c r="N12" s="155"/>
+      <c r="O12" s="155"/>
+    </row>
+    <row r="13" spans="2:15">
+      <c r="B13" s="154"/>
+      <c r="C13" s="155"/>
+      <c r="D13" s="155"/>
+      <c r="E13" s="155"/>
+      <c r="F13" s="155"/>
+      <c r="G13" s="155"/>
+      <c r="H13" s="155"/>
+      <c r="I13" s="155"/>
+      <c r="J13" s="155"/>
+      <c r="K13" s="155"/>
+      <c r="L13" s="155"/>
+      <c r="M13" s="155"/>
+      <c r="N13" s="155"/>
+      <c r="O13" s="155"/>
+    </row>
+    <row r="14" spans="2:15">
+      <c r="B14" s="154"/>
+      <c r="C14" s="155"/>
+      <c r="D14" s="155"/>
+      <c r="E14" s="155"/>
+      <c r="F14" s="155"/>
+      <c r="G14" s="155"/>
+      <c r="H14" s="155"/>
+      <c r="I14" s="155"/>
+      <c r="J14" s="155"/>
+      <c r="K14" s="155"/>
+      <c r="L14" s="155"/>
+      <c r="M14" s="155"/>
+      <c r="N14" s="155"/>
+      <c r="O14" s="155"/>
+    </row>
+    <row r="15" spans="2:15">
+      <c r="B15" s="154"/>
+      <c r="C15" s="155"/>
+      <c r="D15" s="155"/>
+      <c r="E15" s="155"/>
+      <c r="F15" s="155"/>
+      <c r="G15" s="155"/>
+      <c r="H15" s="155"/>
+      <c r="I15" s="155"/>
+      <c r="J15" s="155"/>
+      <c r="K15" s="155"/>
+      <c r="L15" s="155"/>
+      <c r="M15" s="155"/>
+      <c r="N15" s="155"/>
+      <c r="O15" s="155"/>
+    </row>
+    <row r="16" spans="2:15">
+      <c r="B16" s="154"/>
+      <c r="C16" s="155"/>
+      <c r="D16" s="155"/>
+      <c r="E16" s="155"/>
+      <c r="F16" s="155"/>
+      <c r="G16" s="155"/>
+      <c r="H16" s="155"/>
+      <c r="I16" s="155"/>
+      <c r="J16" s="155"/>
+      <c r="K16" s="155"/>
+      <c r="L16" s="155"/>
+      <c r="M16" s="155"/>
+      <c r="N16" s="155"/>
+      <c r="O16" s="155"/>
+    </row>
+    <row r="17" spans="2:15">
+      <c r="B17" s="154"/>
+      <c r="C17" s="155"/>
+      <c r="D17" s="155"/>
+      <c r="E17" s="155"/>
+      <c r="F17" s="155"/>
+      <c r="G17" s="155"/>
+      <c r="H17" s="155"/>
+      <c r="I17" s="155"/>
+      <c r="J17" s="155"/>
+      <c r="K17" s="155"/>
+      <c r="L17" s="155"/>
+      <c r="M17" s="155"/>
+      <c r="N17" s="155"/>
+      <c r="O17" s="155"/>
+    </row>
+    <row r="18" spans="2:15">
+      <c r="B18" s="154"/>
+      <c r="C18" s="155"/>
+      <c r="D18" s="155"/>
+      <c r="E18" s="155"/>
+      <c r="F18" s="155"/>
+      <c r="G18" s="155"/>
+      <c r="H18" s="155"/>
+      <c r="I18" s="155"/>
+      <c r="J18" s="155"/>
+      <c r="K18" s="155"/>
+      <c r="L18" s="155"/>
+      <c r="M18" s="155"/>
+      <c r="N18" s="155"/>
+      <c r="O18" s="155"/>
+    </row>
+    <row r="19" spans="2:15">
+      <c r="B19" s="154"/>
+      <c r="C19" s="155"/>
+      <c r="D19" s="155"/>
+      <c r="E19" s="155"/>
+      <c r="F19" s="155"/>
+      <c r="G19" s="155"/>
+      <c r="H19" s="155"/>
+      <c r="I19" s="155"/>
+      <c r="J19" s="155"/>
+      <c r="K19" s="155"/>
+      <c r="L19" s="155"/>
+      <c r="M19" s="155"/>
+      <c r="N19" s="155"/>
+      <c r="O19" s="155"/>
+    </row>
+    <row r="20" spans="2:15">
+      <c r="B20" s="154"/>
+      <c r="C20" s="155"/>
+      <c r="D20" s="155"/>
+      <c r="E20" s="155"/>
+      <c r="F20" s="155"/>
+      <c r="G20" s="155"/>
+      <c r="H20" s="155"/>
+      <c r="I20" s="155"/>
+      <c r="J20" s="155"/>
+      <c r="K20" s="155"/>
+      <c r="L20" s="155"/>
+      <c r="M20" s="155"/>
+      <c r="N20" s="155"/>
+      <c r="O20" s="155"/>
+    </row>
+    <row r="21" spans="2:15">
+      <c r="B21" s="154"/>
+      <c r="C21" s="155"/>
+      <c r="D21" s="155"/>
+      <c r="E21" s="155"/>
+      <c r="F21" s="155"/>
+      <c r="G21" s="155"/>
+      <c r="H21" s="155"/>
+      <c r="I21" s="155"/>
+      <c r="J21" s="155"/>
+      <c r="K21" s="155"/>
+      <c r="L21" s="155"/>
+      <c r="M21" s="155"/>
+      <c r="N21" s="155"/>
+      <c r="O21" s="155"/>
+    </row>
+    <row r="22" spans="2:15">
+      <c r="B22" s="154"/>
+      <c r="C22" s="155"/>
+      <c r="D22" s="155">
         <v>1400</v>
       </c>
-      <c r="E22" s="157" t="s">
-        <v>149</v>
-      </c>
-      <c r="F22" s="157"/>
-      <c r="G22" s="157"/>
-      <c r="H22" s="157"/>
-      <c r="I22" s="157"/>
-      <c r="J22" s="157"/>
-      <c r="K22" s="157"/>
-      <c r="L22" s="157"/>
-      <c r="M22" s="157"/>
-      <c r="N22" s="157"/>
-      <c r="O22" s="157"/>
-    </row>
-    <row r="23" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B23" s="156"/>
-      <c r="C23" s="157"/>
-      <c r="D23" s="157"/>
-      <c r="E23" s="157"/>
-      <c r="F23" s="157"/>
-      <c r="G23" s="157"/>
-      <c r="H23" s="157"/>
-      <c r="I23" s="157"/>
-      <c r="J23" s="157"/>
-      <c r="K23" s="157"/>
-      <c r="L23" s="157"/>
-      <c r="M23" s="157"/>
-      <c r="N23" s="157"/>
-      <c r="O23" s="157"/>
-    </row>
-    <row r="24" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B24" s="156"/>
-      <c r="C24" s="157"/>
-      <c r="D24" s="157"/>
-      <c r="E24" s="157"/>
-      <c r="F24" s="157"/>
-      <c r="G24" s="157"/>
-      <c r="H24" s="157"/>
-      <c r="I24" s="157"/>
-      <c r="J24" s="157"/>
-      <c r="K24" s="157"/>
-      <c r="L24" s="157"/>
-      <c r="M24" s="157"/>
-      <c r="N24" s="157"/>
-      <c r="O24" s="157"/>
-    </row>
-    <row r="25" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B25" s="156"/>
-      <c r="C25" s="157"/>
-      <c r="D25" s="157"/>
-      <c r="E25" s="157"/>
-      <c r="F25" s="157"/>
-      <c r="G25" s="157"/>
-      <c r="H25" s="157"/>
-      <c r="I25" s="157"/>
-      <c r="J25" s="157"/>
-      <c r="K25" s="157"/>
-      <c r="L25" s="157"/>
-      <c r="M25" s="157"/>
-      <c r="N25" s="157"/>
-      <c r="O25" s="157"/>
-    </row>
-    <row r="26" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B26" s="156"/>
-      <c r="C26" s="157"/>
-      <c r="D26" s="157"/>
-      <c r="E26" s="157"/>
-      <c r="F26" s="157"/>
-      <c r="G26" s="157"/>
-      <c r="H26" s="157"/>
-      <c r="I26" s="157"/>
-      <c r="J26" s="157"/>
-      <c r="K26" s="157"/>
-      <c r="L26" s="157"/>
-      <c r="M26" s="157"/>
-      <c r="N26" s="157"/>
-      <c r="O26" s="157"/>
-    </row>
-    <row r="27" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B27" s="156"/>
-      <c r="C27" s="157" t="s">
-        <v>150</v>
-      </c>
-      <c r="D27" s="157"/>
-      <c r="E27" s="157"/>
-      <c r="F27" s="157"/>
-      <c r="G27" s="157"/>
-      <c r="H27" s="157"/>
-      <c r="I27" s="157"/>
-      <c r="J27" s="157"/>
-      <c r="K27" s="157"/>
-      <c r="L27" s="157"/>
-      <c r="M27" s="157"/>
-      <c r="N27" s="157"/>
-      <c r="O27" s="157"/>
-    </row>
-    <row r="28" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B28" s="156"/>
-      <c r="C28" s="157"/>
-      <c r="D28" s="157"/>
-      <c r="E28" s="157"/>
-      <c r="F28" s="157"/>
-      <c r="G28" s="157"/>
-      <c r="H28" s="157"/>
-      <c r="I28" s="157"/>
-      <c r="J28" s="157"/>
-      <c r="K28" s="157"/>
-      <c r="L28" s="157"/>
-      <c r="M28" s="157"/>
-      <c r="N28" s="157"/>
-      <c r="O28" s="157"/>
-    </row>
-    <row r="29" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B29" s="156"/>
-      <c r="C29" s="157" t="s">
-        <v>151</v>
-      </c>
-      <c r="D29" s="157"/>
-      <c r="E29" s="157"/>
-      <c r="F29" s="157"/>
-      <c r="G29" s="157"/>
-      <c r="H29" s="157"/>
-      <c r="I29" s="157"/>
-      <c r="J29" s="157"/>
-      <c r="K29" s="157"/>
-      <c r="L29" s="157"/>
-      <c r="M29" s="157"/>
-      <c r="N29" s="157"/>
-      <c r="O29" s="157"/>
-    </row>
-    <row r="30" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B30" s="156"/>
-      <c r="C30" s="157"/>
-      <c r="D30" s="157"/>
-      <c r="E30" s="157"/>
-      <c r="F30" s="157"/>
-      <c r="G30" s="157"/>
-      <c r="H30" s="157"/>
-      <c r="I30" s="157"/>
-      <c r="J30" s="157"/>
-      <c r="K30" s="157"/>
-      <c r="L30" s="157"/>
-      <c r="M30" s="157"/>
-      <c r="N30" s="157"/>
-      <c r="O30" s="157"/>
-    </row>
-    <row r="31" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B31" s="156"/>
-      <c r="C31" s="157"/>
-      <c r="D31" s="157"/>
-      <c r="E31" s="157"/>
-      <c r="F31" s="157"/>
-      <c r="G31" s="157"/>
-      <c r="H31" s="157"/>
-      <c r="I31" s="157"/>
-      <c r="J31" s="157"/>
-      <c r="K31" s="157"/>
-      <c r="L31" s="157"/>
-      <c r="M31" s="157"/>
-      <c r="N31" s="157"/>
-      <c r="O31" s="157"/>
-    </row>
-    <row r="32" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B32" s="156"/>
-      <c r="C32" s="157"/>
-      <c r="D32" s="157"/>
-      <c r="E32" s="157"/>
-      <c r="F32" s="157"/>
-      <c r="G32" s="157"/>
-      <c r="H32" s="157"/>
-      <c r="I32" s="157"/>
-      <c r="J32" s="157"/>
-      <c r="K32" s="157"/>
-      <c r="L32" s="157"/>
-      <c r="M32" s="157"/>
-      <c r="N32" s="157"/>
-      <c r="O32" s="157"/>
-    </row>
-    <row r="33" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B33" s="156"/>
-      <c r="C33" s="157"/>
-      <c r="D33" s="157"/>
-      <c r="E33" s="157"/>
-      <c r="F33" s="157"/>
-      <c r="G33" s="157"/>
-      <c r="H33" s="157"/>
-      <c r="I33" s="157"/>
-      <c r="J33" s="157"/>
-      <c r="K33" s="157"/>
-      <c r="L33" s="157"/>
-      <c r="M33" s="157"/>
-      <c r="N33" s="157"/>
-      <c r="O33" s="157"/>
-    </row>
-    <row r="34" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B34" s="156"/>
-      <c r="C34" s="157" t="s">
+      <c r="E22" s="155" t="s">
+        <v>139</v>
+      </c>
+      <c r="F22" s="155"/>
+      <c r="G22" s="155"/>
+      <c r="H22" s="155"/>
+      <c r="I22" s="155"/>
+      <c r="J22" s="155"/>
+      <c r="K22" s="155"/>
+      <c r="L22" s="155"/>
+      <c r="M22" s="155"/>
+      <c r="N22" s="155"/>
+      <c r="O22" s="155"/>
+    </row>
+    <row r="23" spans="2:15">
+      <c r="B23" s="154"/>
+      <c r="C23" s="155"/>
+      <c r="D23" s="155"/>
+      <c r="E23" s="155"/>
+      <c r="F23" s="155"/>
+      <c r="G23" s="155"/>
+      <c r="H23" s="155"/>
+      <c r="I23" s="155"/>
+      <c r="J23" s="155"/>
+      <c r="K23" s="155"/>
+      <c r="L23" s="155"/>
+      <c r="M23" s="155"/>
+      <c r="N23" s="155"/>
+      <c r="O23" s="155"/>
+    </row>
+    <row r="24" spans="2:15">
+      <c r="B24" s="154"/>
+      <c r="C24" s="155"/>
+      <c r="D24" s="155"/>
+      <c r="E24" s="155"/>
+      <c r="F24" s="155"/>
+      <c r="G24" s="155"/>
+      <c r="H24" s="155"/>
+      <c r="I24" s="155"/>
+      <c r="J24" s="155"/>
+      <c r="K24" s="155"/>
+      <c r="L24" s="155"/>
+      <c r="M24" s="155"/>
+      <c r="N24" s="155"/>
+      <c r="O24" s="155"/>
+    </row>
+    <row r="25" spans="2:15">
+      <c r="B25" s="154"/>
+      <c r="C25" s="155"/>
+      <c r="D25" s="155"/>
+      <c r="E25" s="155"/>
+      <c r="F25" s="155"/>
+      <c r="G25" s="155"/>
+      <c r="H25" s="155"/>
+      <c r="I25" s="155"/>
+      <c r="J25" s="155"/>
+      <c r="K25" s="155"/>
+      <c r="L25" s="155"/>
+      <c r="M25" s="155"/>
+      <c r="N25" s="155"/>
+      <c r="O25" s="155"/>
+    </row>
+    <row r="26" spans="2:15">
+      <c r="B26" s="154"/>
+      <c r="C26" s="155"/>
+      <c r="D26" s="155"/>
+      <c r="E26" s="155"/>
+      <c r="F26" s="155"/>
+      <c r="G26" s="155"/>
+      <c r="H26" s="155"/>
+      <c r="I26" s="155"/>
+      <c r="J26" s="155"/>
+      <c r="K26" s="155"/>
+      <c r="L26" s="155"/>
+      <c r="M26" s="155"/>
+      <c r="N26" s="155"/>
+      <c r="O26" s="155"/>
+    </row>
+    <row r="27" spans="2:15">
+      <c r="B27" s="154"/>
+      <c r="C27" s="155" t="s">
+        <v>140</v>
+      </c>
+      <c r="D27" s="155"/>
+      <c r="E27" s="155"/>
+      <c r="F27" s="155"/>
+      <c r="G27" s="155"/>
+      <c r="H27" s="155"/>
+      <c r="I27" s="155"/>
+      <c r="J27" s="155"/>
+      <c r="K27" s="155"/>
+      <c r="L27" s="155"/>
+      <c r="M27" s="155"/>
+      <c r="N27" s="155"/>
+      <c r="O27" s="155"/>
+    </row>
+    <row r="28" spans="2:15">
+      <c r="B28" s="154"/>
+      <c r="C28" s="155"/>
+      <c r="D28" s="155"/>
+      <c r="E28" s="155"/>
+      <c r="F28" s="155"/>
+      <c r="G28" s="155"/>
+      <c r="H28" s="155"/>
+      <c r="I28" s="155"/>
+      <c r="J28" s="155"/>
+      <c r="K28" s="155"/>
+      <c r="L28" s="155"/>
+      <c r="M28" s="155"/>
+      <c r="N28" s="155"/>
+      <c r="O28" s="155"/>
+    </row>
+    <row r="29" spans="2:15">
+      <c r="B29" s="154"/>
+      <c r="C29" s="155" t="s">
+        <v>141</v>
+      </c>
+      <c r="D29" s="155"/>
+      <c r="E29" s="155"/>
+      <c r="F29" s="155"/>
+      <c r="G29" s="155"/>
+      <c r="H29" s="155"/>
+      <c r="I29" s="155"/>
+      <c r="J29" s="155"/>
+      <c r="K29" s="155"/>
+      <c r="L29" s="155"/>
+      <c r="M29" s="155"/>
+      <c r="N29" s="155"/>
+      <c r="O29" s="155"/>
+    </row>
+    <row r="30" spans="2:15">
+      <c r="B30" s="154"/>
+      <c r="C30" s="155"/>
+      <c r="D30" s="155"/>
+      <c r="E30" s="155"/>
+      <c r="F30" s="155"/>
+      <c r="G30" s="155"/>
+      <c r="H30" s="155"/>
+      <c r="I30" s="155"/>
+      <c r="J30" s="155"/>
+      <c r="K30" s="155"/>
+      <c r="L30" s="155"/>
+      <c r="M30" s="155"/>
+      <c r="N30" s="155"/>
+      <c r="O30" s="155"/>
+    </row>
+    <row r="31" spans="2:15">
+      <c r="B31" s="154"/>
+      <c r="C31" s="155"/>
+      <c r="D31" s="155"/>
+      <c r="E31" s="155"/>
+      <c r="F31" s="155"/>
+      <c r="G31" s="155"/>
+      <c r="H31" s="155"/>
+      <c r="I31" s="155"/>
+      <c r="J31" s="155"/>
+      <c r="K31" s="155"/>
+      <c r="L31" s="155"/>
+      <c r="M31" s="155"/>
+      <c r="N31" s="155"/>
+      <c r="O31" s="155"/>
+    </row>
+    <row r="32" spans="2:15">
+      <c r="B32" s="154"/>
+      <c r="C32" s="155"/>
+      <c r="D32" s="155"/>
+      <c r="E32" s="155"/>
+      <c r="F32" s="155"/>
+      <c r="G32" s="155"/>
+      <c r="H32" s="155"/>
+      <c r="I32" s="155"/>
+      <c r="J32" s="155"/>
+      <c r="K32" s="155"/>
+      <c r="L32" s="155"/>
+      <c r="M32" s="155"/>
+      <c r="N32" s="155"/>
+      <c r="O32" s="155"/>
+    </row>
+    <row r="33" spans="2:15">
+      <c r="B33" s="154"/>
+      <c r="C33" s="155"/>
+      <c r="D33" s="155"/>
+      <c r="E33" s="155"/>
+      <c r="F33" s="155"/>
+      <c r="G33" s="155"/>
+      <c r="H33" s="155"/>
+      <c r="I33" s="155"/>
+      <c r="J33" s="155"/>
+      <c r="K33" s="155"/>
+      <c r="L33" s="155"/>
+      <c r="M33" s="155"/>
+      <c r="N33" s="155"/>
+      <c r="O33" s="155"/>
+    </row>
+    <row r="34" spans="2:15">
+      <c r="B34" s="154"/>
+      <c r="C34" s="155" t="s">
         <v>1</v>
       </c>
-      <c r="D34" s="157">
+      <c r="D34" s="155">
         <v>4</v>
       </c>
-      <c r="E34" s="157" t="s">
-        <v>152</v>
-      </c>
-      <c r="G34" s="157"/>
-      <c r="H34" s="157"/>
-      <c r="I34" s="157"/>
-      <c r="J34" s="157"/>
-      <c r="K34" s="157"/>
-      <c r="L34" s="157"/>
-      <c r="M34" s="157"/>
-      <c r="N34" s="157"/>
-      <c r="O34" s="157"/>
-    </row>
-    <row r="35" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B35" s="156"/>
-      <c r="C35" s="157" t="s">
-        <v>153</v>
-      </c>
-      <c r="D35" s="157">
+      <c r="E34" s="155" t="s">
+        <v>142</v>
+      </c>
+      <c r="G34" s="155"/>
+      <c r="H34" s="155"/>
+      <c r="I34" s="155"/>
+      <c r="J34" s="155"/>
+      <c r="K34" s="155"/>
+      <c r="L34" s="155"/>
+      <c r="M34" s="155"/>
+      <c r="N34" s="155"/>
+      <c r="O34" s="155"/>
+    </row>
+    <row r="35" spans="2:15">
+      <c r="B35" s="154"/>
+      <c r="C35" s="155" t="s">
+        <v>143</v>
+      </c>
+      <c r="D35" s="155">
         <v>40</v>
       </c>
-      <c r="E35" s="157" t="s">
-        <v>152</v>
-      </c>
-      <c r="G35" s="157"/>
-      <c r="H35" s="157"/>
-      <c r="I35" s="157"/>
-      <c r="J35" s="157"/>
-      <c r="K35" s="157"/>
-      <c r="L35" s="157"/>
-      <c r="M35" s="157"/>
-      <c r="N35" s="157"/>
-      <c r="O35" s="157"/>
-    </row>
-    <row r="36" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B36" s="156"/>
-      <c r="C36" s="157"/>
-      <c r="D36" s="157"/>
-      <c r="E36" s="157"/>
-      <c r="F36" s="157"/>
-      <c r="G36" s="157"/>
-      <c r="H36" s="157"/>
-      <c r="I36" s="157"/>
-      <c r="J36" s="157"/>
-      <c r="K36" s="157"/>
-      <c r="L36" s="157"/>
-      <c r="M36" s="157"/>
-      <c r="N36" s="157"/>
-      <c r="O36" s="157"/>
-    </row>
-    <row r="37" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B37" s="156"/>
-      <c r="C37" s="157"/>
-      <c r="D37" s="157"/>
-      <c r="E37" s="157"/>
-      <c r="F37" s="157"/>
-      <c r="G37" s="157"/>
-      <c r="H37" s="157"/>
-      <c r="I37" s="157"/>
-      <c r="J37" s="157"/>
-      <c r="K37" s="157"/>
-      <c r="L37" s="157"/>
-      <c r="M37" s="157"/>
-      <c r="N37" s="157"/>
-      <c r="O37" s="157"/>
-    </row>
-    <row r="38" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B38" s="156"/>
-      <c r="C38" s="157"/>
-      <c r="D38" s="157"/>
-      <c r="E38" s="157"/>
-      <c r="F38" s="157"/>
-      <c r="G38" s="157"/>
-      <c r="H38" s="157"/>
-      <c r="I38" s="157"/>
-      <c r="J38" s="157"/>
-      <c r="K38" s="157"/>
-      <c r="L38" s="157"/>
-      <c r="M38" s="157"/>
-      <c r="N38" s="157"/>
-      <c r="O38" s="157"/>
-    </row>
-    <row r="39" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B39" s="156"/>
-      <c r="C39" s="157"/>
-      <c r="D39" s="157"/>
-      <c r="E39" s="157"/>
-      <c r="F39" s="157"/>
-      <c r="G39" s="157"/>
-      <c r="H39" s="157"/>
-      <c r="I39" s="157"/>
-      <c r="J39" s="157"/>
-      <c r="K39" s="157"/>
-      <c r="L39" s="157"/>
-      <c r="M39" s="157"/>
-      <c r="N39" s="157"/>
-      <c r="O39" s="157"/>
-    </row>
-    <row r="40" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B40" s="156"/>
-      <c r="C40" s="157"/>
-      <c r="D40" s="157"/>
-      <c r="E40" s="157"/>
-      <c r="F40" s="157"/>
-      <c r="G40" s="157"/>
-      <c r="H40" s="157"/>
-      <c r="I40" s="157"/>
-      <c r="J40" s="157"/>
-      <c r="K40" s="157"/>
-      <c r="L40" s="157"/>
-      <c r="M40" s="157"/>
-      <c r="N40" s="157"/>
-      <c r="O40" s="157"/>
-    </row>
-    <row r="41" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B41" s="156"/>
-      <c r="C41" s="157"/>
-      <c r="D41" s="157"/>
-      <c r="E41" s="157"/>
-      <c r="F41" s="157"/>
-      <c r="G41" s="157"/>
-      <c r="H41" s="157"/>
-      <c r="I41" s="157"/>
-      <c r="J41" s="157"/>
-      <c r="K41" s="157"/>
-      <c r="L41" s="157"/>
-      <c r="M41" s="157"/>
-      <c r="N41" s="157"/>
-      <c r="O41" s="157"/>
-    </row>
-    <row r="42" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B42" s="156"/>
-      <c r="C42" s="157"/>
-      <c r="D42" s="157"/>
-      <c r="E42" s="157"/>
-      <c r="F42" s="157"/>
-      <c r="G42" s="157"/>
-      <c r="H42" s="157"/>
-      <c r="I42" s="157"/>
-      <c r="J42" s="157"/>
-      <c r="K42" s="157"/>
-      <c r="L42" s="157"/>
-      <c r="M42" s="157"/>
-      <c r="N42" s="157"/>
-      <c r="O42" s="157"/>
-    </row>
-    <row r="43" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B43" s="156"/>
-      <c r="C43" s="157"/>
-      <c r="D43" s="157"/>
-      <c r="E43" s="157"/>
-      <c r="F43" s="157"/>
-      <c r="G43" s="157"/>
-      <c r="H43" s="157"/>
-      <c r="I43" s="157"/>
-      <c r="J43" s="157"/>
-      <c r="K43" s="157"/>
-      <c r="L43" s="157"/>
-      <c r="M43" s="157"/>
-      <c r="N43" s="157"/>
-      <c r="O43" s="157"/>
-    </row>
-    <row r="44" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B44" s="156"/>
-      <c r="C44" s="157"/>
-      <c r="D44" s="157"/>
-      <c r="E44" s="157"/>
-      <c r="F44" s="157"/>
-      <c r="G44" s="157"/>
-      <c r="H44" s="157"/>
-      <c r="I44" s="157"/>
-      <c r="J44" s="157"/>
-      <c r="K44" s="157"/>
-      <c r="L44" s="157"/>
-      <c r="M44" s="157"/>
-      <c r="N44" s="157"/>
-      <c r="O44" s="157"/>
-    </row>
-    <row r="45" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B45" s="156"/>
-      <c r="C45" s="157"/>
-      <c r="D45" s="157"/>
-      <c r="E45" s="157"/>
-      <c r="F45" s="157"/>
-      <c r="G45" s="157"/>
-      <c r="H45" s="157"/>
-      <c r="I45" s="157"/>
-      <c r="J45" s="157"/>
-      <c r="K45" s="157"/>
-      <c r="L45" s="157"/>
-      <c r="M45" s="157"/>
-      <c r="N45" s="157"/>
-      <c r="O45" s="157"/>
-    </row>
-    <row r="46" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B46" s="156"/>
-      <c r="C46" s="157"/>
-      <c r="D46" s="157"/>
-      <c r="E46" s="157"/>
-      <c r="F46" s="157"/>
-      <c r="G46" s="157"/>
-      <c r="H46" s="157"/>
-      <c r="I46" s="157"/>
-      <c r="J46" s="157"/>
-      <c r="K46" s="157"/>
-      <c r="L46" s="157"/>
-      <c r="M46" s="157"/>
-      <c r="N46" s="157"/>
-      <c r="O46" s="157"/>
-    </row>
-    <row r="47" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B47" s="156"/>
-      <c r="C47" s="157" t="s">
+      <c r="E35" s="155" t="s">
+        <v>142</v>
+      </c>
+      <c r="G35" s="155"/>
+      <c r="H35" s="155"/>
+      <c r="I35" s="155"/>
+      <c r="J35" s="155"/>
+      <c r="K35" s="155"/>
+      <c r="L35" s="155"/>
+      <c r="M35" s="155"/>
+      <c r="N35" s="155"/>
+      <c r="O35" s="155"/>
+    </row>
+    <row r="36" spans="2:15">
+      <c r="B36" s="154"/>
+      <c r="C36" s="155"/>
+      <c r="D36" s="155"/>
+      <c r="E36" s="155"/>
+      <c r="F36" s="155"/>
+      <c r="G36" s="155"/>
+      <c r="H36" s="155"/>
+      <c r="I36" s="155"/>
+      <c r="J36" s="155"/>
+      <c r="K36" s="155"/>
+      <c r="L36" s="155"/>
+      <c r="M36" s="155"/>
+      <c r="N36" s="155"/>
+      <c r="O36" s="155"/>
+    </row>
+    <row r="37" spans="2:15">
+      <c r="B37" s="154"/>
+      <c r="C37" s="155"/>
+      <c r="D37" s="155"/>
+      <c r="E37" s="155"/>
+      <c r="F37" s="155"/>
+      <c r="G37" s="155"/>
+      <c r="H37" s="155"/>
+      <c r="I37" s="155"/>
+      <c r="J37" s="155"/>
+      <c r="K37" s="155"/>
+      <c r="L37" s="155"/>
+      <c r="M37" s="155"/>
+      <c r="N37" s="155"/>
+      <c r="O37" s="155"/>
+    </row>
+    <row r="38" spans="2:15">
+      <c r="B38" s="154"/>
+      <c r="C38" s="155"/>
+      <c r="D38" s="155"/>
+      <c r="E38" s="155"/>
+      <c r="F38" s="155"/>
+      <c r="G38" s="155"/>
+      <c r="H38" s="155"/>
+      <c r="I38" s="155"/>
+      <c r="J38" s="155"/>
+      <c r="K38" s="155"/>
+      <c r="L38" s="155"/>
+      <c r="M38" s="155"/>
+      <c r="N38" s="155"/>
+      <c r="O38" s="155"/>
+    </row>
+    <row r="39" spans="2:15">
+      <c r="B39" s="154"/>
+      <c r="C39" s="155"/>
+      <c r="D39" s="155"/>
+      <c r="E39" s="155"/>
+      <c r="F39" s="155"/>
+      <c r="G39" s="155"/>
+      <c r="H39" s="155"/>
+      <c r="I39" s="155"/>
+      <c r="J39" s="155"/>
+      <c r="K39" s="155"/>
+      <c r="L39" s="155"/>
+      <c r="M39" s="155"/>
+      <c r="N39" s="155"/>
+      <c r="O39" s="155"/>
+    </row>
+    <row r="40" spans="2:15">
+      <c r="B40" s="154"/>
+      <c r="C40" s="155"/>
+      <c r="D40" s="155"/>
+      <c r="E40" s="155"/>
+      <c r="F40" s="155"/>
+      <c r="G40" s="155"/>
+      <c r="H40" s="155"/>
+      <c r="I40" s="155"/>
+      <c r="J40" s="155"/>
+      <c r="K40" s="155"/>
+      <c r="L40" s="155"/>
+      <c r="M40" s="155"/>
+      <c r="N40" s="155"/>
+      <c r="O40" s="155"/>
+    </row>
+    <row r="41" spans="2:15">
+      <c r="B41" s="154"/>
+      <c r="C41" s="155"/>
+      <c r="D41" s="155"/>
+      <c r="E41" s="155"/>
+      <c r="F41" s="155"/>
+      <c r="G41" s="155"/>
+      <c r="H41" s="155"/>
+      <c r="I41" s="155"/>
+      <c r="J41" s="155"/>
+      <c r="K41" s="155"/>
+      <c r="L41" s="155"/>
+      <c r="M41" s="155"/>
+      <c r="N41" s="155"/>
+      <c r="O41" s="155"/>
+    </row>
+    <row r="42" spans="2:15">
+      <c r="B42" s="154"/>
+      <c r="C42" s="155"/>
+      <c r="D42" s="155"/>
+      <c r="E42" s="155"/>
+      <c r="F42" s="155"/>
+      <c r="G42" s="155"/>
+      <c r="H42" s="155"/>
+      <c r="I42" s="155"/>
+      <c r="J42" s="155"/>
+      <c r="K42" s="155"/>
+      <c r="L42" s="155"/>
+      <c r="M42" s="155"/>
+      <c r="N42" s="155"/>
+      <c r="O42" s="155"/>
+    </row>
+    <row r="43" spans="2:15">
+      <c r="B43" s="154"/>
+      <c r="C43" s="155"/>
+      <c r="D43" s="155"/>
+      <c r="E43" s="155"/>
+      <c r="F43" s="155"/>
+      <c r="G43" s="155"/>
+      <c r="H43" s="155"/>
+      <c r="I43" s="155"/>
+      <c r="J43" s="155"/>
+      <c r="K43" s="155"/>
+      <c r="L43" s="155"/>
+      <c r="M43" s="155"/>
+      <c r="N43" s="155"/>
+      <c r="O43" s="155"/>
+    </row>
+    <row r="44" spans="2:15">
+      <c r="B44" s="154"/>
+      <c r="C44" s="155"/>
+      <c r="D44" s="155"/>
+      <c r="E44" s="155"/>
+      <c r="F44" s="155"/>
+      <c r="G44" s="155"/>
+      <c r="H44" s="155"/>
+      <c r="I44" s="155"/>
+      <c r="J44" s="155"/>
+      <c r="K44" s="155"/>
+      <c r="L44" s="155"/>
+      <c r="M44" s="155"/>
+      <c r="N44" s="155"/>
+      <c r="O44" s="155"/>
+    </row>
+    <row r="45" spans="2:15">
+      <c r="B45" s="154"/>
+      <c r="C45" s="155"/>
+      <c r="D45" s="155"/>
+      <c r="E45" s="155"/>
+      <c r="F45" s="155"/>
+      <c r="G45" s="155"/>
+      <c r="H45" s="155"/>
+      <c r="I45" s="155"/>
+      <c r="J45" s="155"/>
+      <c r="K45" s="155"/>
+      <c r="L45" s="155"/>
+      <c r="M45" s="155"/>
+      <c r="N45" s="155"/>
+      <c r="O45" s="155"/>
+    </row>
+    <row r="46" spans="2:15">
+      <c r="B46" s="154"/>
+      <c r="C46" s="155"/>
+      <c r="D46" s="155"/>
+      <c r="E46" s="155"/>
+      <c r="F46" s="155"/>
+      <c r="G46" s="155"/>
+      <c r="H46" s="155"/>
+      <c r="I46" s="155"/>
+      <c r="J46" s="155"/>
+      <c r="K46" s="155"/>
+      <c r="L46" s="155"/>
+      <c r="M46" s="155"/>
+      <c r="N46" s="155"/>
+      <c r="O46" s="155"/>
+    </row>
+    <row r="47" spans="2:15">
+      <c r="B47" s="154"/>
+      <c r="C47" s="155" t="s">
         <v>26</v>
       </c>
-      <c r="D47" s="157"/>
-      <c r="E47" s="157"/>
-      <c r="F47" s="157"/>
-      <c r="G47" s="157"/>
-      <c r="H47" s="157"/>
-      <c r="I47" s="157"/>
-      <c r="J47" s="157"/>
-      <c r="K47" s="157"/>
-      <c r="L47" s="157"/>
-      <c r="M47" s="157"/>
-      <c r="N47" s="157"/>
-      <c r="O47" s="157"/>
-    </row>
-    <row r="48" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B48" s="156"/>
-      <c r="C48" s="157" t="s">
-        <v>154</v>
-      </c>
-      <c r="D48" s="157"/>
-      <c r="E48" s="157"/>
-      <c r="F48" s="157"/>
-      <c r="G48" s="157"/>
-      <c r="H48" s="157"/>
-      <c r="I48" s="157"/>
-      <c r="J48" s="157"/>
-      <c r="K48" s="157"/>
-      <c r="L48" s="157"/>
-      <c r="M48" s="157"/>
-      <c r="N48" s="157"/>
-      <c r="O48" s="157"/>
-    </row>
-    <row r="49" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B49" s="156"/>
-      <c r="C49" s="157"/>
-      <c r="D49" s="157"/>
-      <c r="E49" s="157"/>
-      <c r="F49" s="157"/>
-      <c r="G49" s="157"/>
-      <c r="H49" s="157"/>
-      <c r="I49" s="157"/>
-      <c r="J49" s="157"/>
-      <c r="K49" s="157"/>
-      <c r="L49" s="157"/>
-      <c r="M49" s="157"/>
-      <c r="N49" s="157"/>
-      <c r="O49" s="157"/>
-    </row>
-    <row r="50" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B50" s="156"/>
-      <c r="C50" s="157"/>
-      <c r="D50" s="157"/>
-      <c r="E50" s="157"/>
-      <c r="F50" s="157"/>
-      <c r="G50" s="157"/>
-      <c r="H50" s="157"/>
-      <c r="I50" s="157"/>
-      <c r="J50" s="157"/>
-      <c r="K50" s="157"/>
-      <c r="L50" s="157"/>
-      <c r="M50" s="157"/>
-      <c r="N50" s="157"/>
-      <c r="O50" s="157"/>
-    </row>
-    <row r="51" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B51" s="156"/>
-      <c r="C51" s="157"/>
-      <c r="D51" s="157"/>
-      <c r="E51" s="157"/>
-      <c r="F51" s="157"/>
-      <c r="G51" s="157"/>
-      <c r="H51" s="157"/>
-      <c r="I51" s="157"/>
-      <c r="J51" s="157"/>
-      <c r="K51" s="157"/>
-      <c r="L51" s="157"/>
-      <c r="M51" s="157"/>
-      <c r="N51" s="157"/>
-      <c r="O51" s="157"/>
-    </row>
-    <row r="52" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B52" s="156"/>
-      <c r="C52" s="157"/>
-      <c r="D52" s="157"/>
-      <c r="E52" s="157"/>
-      <c r="F52" s="157"/>
-      <c r="G52" s="157"/>
-      <c r="H52" s="157"/>
-      <c r="I52" s="157"/>
-      <c r="J52" s="157"/>
-      <c r="K52" s="157"/>
-      <c r="L52" s="157"/>
-      <c r="M52" s="157"/>
-      <c r="N52" s="157"/>
-      <c r="O52" s="157"/>
-    </row>
-    <row r="53" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B53" s="156"/>
-      <c r="C53" s="157"/>
-      <c r="D53" s="157"/>
-      <c r="E53" s="157"/>
-      <c r="F53" s="157"/>
-      <c r="G53" s="157"/>
-      <c r="H53" s="157"/>
-      <c r="I53" s="157"/>
-      <c r="J53" s="157"/>
-      <c r="K53" s="157"/>
-      <c r="L53" s="157"/>
-      <c r="M53" s="157"/>
-      <c r="N53" s="157"/>
-      <c r="O53" s="157"/>
-    </row>
-    <row r="54" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B54" s="156"/>
-      <c r="C54" s="157"/>
-      <c r="D54" s="157"/>
-      <c r="E54" s="157"/>
-      <c r="F54" s="157"/>
-      <c r="G54" s="157"/>
-      <c r="H54" s="157"/>
-      <c r="I54" s="157"/>
-      <c r="J54" s="157"/>
-      <c r="K54" s="157"/>
-      <c r="L54" s="157"/>
-      <c r="M54" s="157"/>
-      <c r="N54" s="157"/>
-      <c r="O54" s="157"/>
-    </row>
-    <row r="55" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B55" s="156"/>
-      <c r="C55" s="157"/>
-      <c r="D55" s="157"/>
-      <c r="E55" s="157"/>
-      <c r="F55" s="157"/>
-      <c r="G55" s="157"/>
-      <c r="H55" s="157"/>
-      <c r="I55" s="157"/>
-      <c r="J55" s="157"/>
-      <c r="K55" s="157"/>
-      <c r="L55" s="157"/>
-      <c r="M55" s="157"/>
-      <c r="N55" s="157"/>
-      <c r="O55" s="157"/>
-    </row>
-    <row r="56" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B56" s="156"/>
-      <c r="C56" s="157" t="s">
-        <v>153</v>
-      </c>
-      <c r="D56" s="161">
+      <c r="D47" s="155"/>
+      <c r="E47" s="155"/>
+      <c r="F47" s="155"/>
+      <c r="G47" s="155"/>
+      <c r="H47" s="155"/>
+      <c r="I47" s="155"/>
+      <c r="J47" s="155"/>
+      <c r="K47" s="155"/>
+      <c r="L47" s="155"/>
+      <c r="M47" s="155"/>
+      <c r="N47" s="155"/>
+      <c r="O47" s="155"/>
+    </row>
+    <row r="48" spans="2:15">
+      <c r="B48" s="154"/>
+      <c r="C48" s="155" t="s">
+        <v>144</v>
+      </c>
+      <c r="D48" s="155"/>
+      <c r="E48" s="155"/>
+      <c r="F48" s="155"/>
+      <c r="G48" s="155"/>
+      <c r="H48" s="155"/>
+      <c r="I48" s="155"/>
+      <c r="J48" s="155"/>
+      <c r="K48" s="155"/>
+      <c r="L48" s="155"/>
+      <c r="M48" s="155"/>
+      <c r="N48" s="155"/>
+      <c r="O48" s="155"/>
+    </row>
+    <row r="49" spans="2:15">
+      <c r="B49" s="154"/>
+      <c r="C49" s="155"/>
+      <c r="D49" s="155"/>
+      <c r="E49" s="155"/>
+      <c r="F49" s="155"/>
+      <c r="G49" s="155"/>
+      <c r="H49" s="155"/>
+      <c r="I49" s="155"/>
+      <c r="J49" s="155"/>
+      <c r="K49" s="155"/>
+      <c r="L49" s="155"/>
+      <c r="M49" s="155"/>
+      <c r="N49" s="155"/>
+      <c r="O49" s="155"/>
+    </row>
+    <row r="50" spans="2:15">
+      <c r="B50" s="154"/>
+      <c r="C50" s="155"/>
+      <c r="D50" s="155"/>
+      <c r="E50" s="155"/>
+      <c r="F50" s="155"/>
+      <c r="G50" s="155"/>
+      <c r="H50" s="155"/>
+      <c r="I50" s="155"/>
+      <c r="J50" s="155"/>
+      <c r="K50" s="155"/>
+      <c r="L50" s="155"/>
+      <c r="M50" s="155"/>
+      <c r="N50" s="155"/>
+      <c r="O50" s="155"/>
+    </row>
+    <row r="51" spans="2:15">
+      <c r="B51" s="154"/>
+      <c r="C51" s="155"/>
+      <c r="D51" s="155"/>
+      <c r="E51" s="155"/>
+      <c r="F51" s="155"/>
+      <c r="G51" s="155"/>
+      <c r="H51" s="155"/>
+      <c r="I51" s="155"/>
+      <c r="J51" s="155"/>
+      <c r="K51" s="155"/>
+      <c r="L51" s="155"/>
+      <c r="M51" s="155"/>
+      <c r="N51" s="155"/>
+      <c r="O51" s="155"/>
+    </row>
+    <row r="52" spans="2:15">
+      <c r="B52" s="154"/>
+      <c r="C52" s="155"/>
+      <c r="D52" s="155"/>
+      <c r="E52" s="155"/>
+      <c r="F52" s="155"/>
+      <c r="G52" s="155"/>
+      <c r="H52" s="155"/>
+      <c r="I52" s="155"/>
+      <c r="J52" s="155"/>
+      <c r="K52" s="155"/>
+      <c r="L52" s="155"/>
+      <c r="M52" s="155"/>
+      <c r="N52" s="155"/>
+      <c r="O52" s="155"/>
+    </row>
+    <row r="53" spans="2:15">
+      <c r="B53" s="154"/>
+      <c r="C53" s="155"/>
+      <c r="D53" s="155"/>
+      <c r="E53" s="155"/>
+      <c r="F53" s="155"/>
+      <c r="G53" s="155"/>
+      <c r="H53" s="155"/>
+      <c r="I53" s="155"/>
+      <c r="J53" s="155"/>
+      <c r="K53" s="155"/>
+      <c r="L53" s="155"/>
+      <c r="M53" s="155"/>
+      <c r="N53" s="155"/>
+      <c r="O53" s="155"/>
+    </row>
+    <row r="54" spans="2:15">
+      <c r="B54" s="154"/>
+      <c r="C54" s="155"/>
+      <c r="D54" s="155"/>
+      <c r="E54" s="155"/>
+      <c r="F54" s="155"/>
+      <c r="G54" s="155"/>
+      <c r="H54" s="155"/>
+      <c r="I54" s="155"/>
+      <c r="J54" s="155"/>
+      <c r="K54" s="155"/>
+      <c r="L54" s="155"/>
+      <c r="M54" s="155"/>
+      <c r="N54" s="155"/>
+      <c r="O54" s="155"/>
+    </row>
+    <row r="55" spans="2:15">
+      <c r="B55" s="154"/>
+      <c r="C55" s="155"/>
+      <c r="D55" s="155"/>
+      <c r="E55" s="155"/>
+      <c r="F55" s="155"/>
+      <c r="G55" s="155"/>
+      <c r="H55" s="155"/>
+      <c r="I55" s="155"/>
+      <c r="J55" s="155"/>
+      <c r="K55" s="155"/>
+      <c r="L55" s="155"/>
+      <c r="M55" s="155"/>
+      <c r="N55" s="155"/>
+      <c r="O55" s="155"/>
+    </row>
+    <row r="56" spans="2:15">
+      <c r="B56" s="154"/>
+      <c r="C56" s="155" t="s">
+        <v>143</v>
+      </c>
+      <c r="D56" s="159">
         <v>40</v>
       </c>
-      <c r="E56" s="161" t="s">
-        <v>152</v>
-      </c>
-      <c r="F56" s="157"/>
-      <c r="G56" s="157"/>
-      <c r="H56" s="157"/>
-      <c r="I56" s="157"/>
-      <c r="J56" s="157"/>
-      <c r="K56" s="157"/>
-      <c r="L56" s="157"/>
-      <c r="M56" s="157"/>
-      <c r="N56" s="157"/>
-      <c r="O56" s="157"/>
-    </row>
-    <row r="57" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B57" s="156"/>
-      <c r="C57" s="157"/>
-      <c r="D57" s="157"/>
-      <c r="E57" s="157"/>
-      <c r="F57" s="157"/>
-      <c r="G57" s="157"/>
-      <c r="H57" s="157"/>
-      <c r="I57" s="157"/>
-      <c r="J57" s="157"/>
-      <c r="K57" s="157"/>
-      <c r="L57" s="157"/>
-      <c r="M57" s="157"/>
-      <c r="N57" s="157"/>
-      <c r="O57" s="157"/>
-    </row>
-    <row r="58" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B58" s="156"/>
-      <c r="C58" s="157"/>
-      <c r="D58" s="157"/>
-      <c r="E58" s="157"/>
-      <c r="F58" s="157"/>
-      <c r="G58" s="157"/>
-      <c r="H58" s="157"/>
-      <c r="I58" s="157"/>
-      <c r="J58" s="157"/>
-      <c r="K58" s="157"/>
-      <c r="L58" s="157"/>
-      <c r="M58" s="157"/>
-      <c r="N58" s="157"/>
-      <c r="O58" s="157"/>
-    </row>
-    <row r="59" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B59" s="156"/>
-      <c r="C59" s="157"/>
-      <c r="D59" s="157"/>
-      <c r="E59" s="157"/>
-      <c r="F59" s="157"/>
-      <c r="G59" s="157"/>
-      <c r="H59" s="157"/>
-      <c r="I59" s="157"/>
-      <c r="J59" s="157"/>
-      <c r="K59" s="157"/>
-      <c r="L59" s="157"/>
-      <c r="M59" s="157"/>
-      <c r="N59" s="157"/>
-      <c r="O59" s="157"/>
-    </row>
-    <row r="60" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B60" s="156"/>
-      <c r="C60" s="157"/>
-      <c r="D60" s="157"/>
-      <c r="E60" s="157"/>
-      <c r="F60" s="157"/>
-      <c r="G60" s="157"/>
-      <c r="H60" s="157"/>
-      <c r="I60" s="157"/>
-      <c r="J60" s="157"/>
-      <c r="K60" s="157"/>
-      <c r="L60" s="157"/>
-      <c r="M60" s="157"/>
-      <c r="N60" s="157"/>
-      <c r="O60" s="157"/>
-    </row>
-    <row r="61" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B61" s="156"/>
-      <c r="C61" s="157" t="s">
-        <v>155</v>
-      </c>
-      <c r="D61" s="157"/>
-      <c r="E61" s="157"/>
-      <c r="F61" s="157"/>
-      <c r="G61" s="157"/>
-      <c r="H61" s="157"/>
-      <c r="I61" s="157"/>
-      <c r="J61" s="157"/>
-      <c r="K61" s="157"/>
-      <c r="L61" s="157"/>
-      <c r="M61" s="157"/>
-      <c r="N61" s="157"/>
-      <c r="O61" s="157"/>
-    </row>
-    <row r="62" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B62" s="156"/>
-      <c r="C62" s="157"/>
-      <c r="D62" s="157"/>
-      <c r="E62" s="157"/>
-      <c r="F62" s="157"/>
-      <c r="G62" s="157"/>
-      <c r="H62" s="157"/>
-      <c r="I62" s="157"/>
-      <c r="J62" s="157"/>
-      <c r="K62" s="157"/>
-      <c r="L62" s="157"/>
-      <c r="M62" s="157"/>
-      <c r="N62" s="157"/>
-      <c r="O62" s="157"/>
-    </row>
-    <row r="63" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B63" s="156"/>
-      <c r="C63" s="157"/>
-      <c r="D63" s="157"/>
-      <c r="E63" s="157"/>
-      <c r="F63" s="157"/>
-      <c r="G63" s="157"/>
-      <c r="H63" s="157"/>
-      <c r="I63" s="157"/>
-      <c r="J63" s="157"/>
-      <c r="K63" s="157"/>
-      <c r="L63" s="157"/>
-      <c r="M63" s="157"/>
-      <c r="N63" s="157"/>
-      <c r="O63" s="157"/>
-    </row>
-    <row r="64" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B64" s="156"/>
-      <c r="C64" s="157"/>
-      <c r="D64" s="157"/>
-      <c r="E64" s="157"/>
-      <c r="F64" s="157"/>
-      <c r="G64" s="157"/>
-      <c r="H64" s="157"/>
-      <c r="I64" s="157"/>
-      <c r="J64" s="157"/>
-      <c r="K64" s="157"/>
-      <c r="L64" s="157"/>
-      <c r="M64" s="157"/>
-      <c r="N64" s="157"/>
-      <c r="O64" s="157"/>
-    </row>
-    <row r="65" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B65" s="156"/>
-      <c r="C65" s="157"/>
-      <c r="D65" s="157"/>
-      <c r="E65" s="157"/>
-      <c r="F65" s="157"/>
-      <c r="G65" s="157"/>
-      <c r="H65" s="157"/>
-      <c r="I65" s="157"/>
-      <c r="J65" s="157"/>
-      <c r="K65" s="157"/>
-      <c r="L65" s="157"/>
-      <c r="M65" s="157"/>
-      <c r="N65" s="157"/>
-      <c r="O65" s="157"/>
-    </row>
-    <row r="66" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B66" s="156"/>
-      <c r="C66" s="157"/>
-      <c r="D66" s="157"/>
-      <c r="E66" s="157"/>
-      <c r="F66" s="157"/>
-      <c r="G66" s="157"/>
-      <c r="H66" s="157"/>
-      <c r="I66" s="157"/>
-      <c r="J66" s="157"/>
-      <c r="K66" s="157"/>
-      <c r="L66" s="157"/>
-      <c r="M66" s="157"/>
-      <c r="N66" s="157"/>
-      <c r="O66" s="157"/>
-    </row>
-    <row r="67" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B67" s="156"/>
-      <c r="C67" s="157" t="s">
+      <c r="E56" s="159" t="s">
+        <v>142</v>
+      </c>
+      <c r="F56" s="155"/>
+      <c r="G56" s="155"/>
+      <c r="H56" s="155"/>
+      <c r="I56" s="155"/>
+      <c r="J56" s="155"/>
+      <c r="K56" s="155"/>
+      <c r="L56" s="155"/>
+      <c r="M56" s="155"/>
+      <c r="N56" s="155"/>
+      <c r="O56" s="155"/>
+    </row>
+    <row r="57" spans="2:15">
+      <c r="B57" s="154"/>
+      <c r="C57" s="155"/>
+      <c r="D57" s="155"/>
+      <c r="E57" s="155"/>
+      <c r="F57" s="155"/>
+      <c r="G57" s="155"/>
+      <c r="H57" s="155"/>
+      <c r="I57" s="155"/>
+      <c r="J57" s="155"/>
+      <c r="K57" s="155"/>
+      <c r="L57" s="155"/>
+      <c r="M57" s="155"/>
+      <c r="N57" s="155"/>
+      <c r="O57" s="155"/>
+    </row>
+    <row r="58" spans="2:15">
+      <c r="B58" s="154"/>
+      <c r="C58" s="155"/>
+      <c r="D58" s="155"/>
+      <c r="E58" s="155"/>
+      <c r="F58" s="155"/>
+      <c r="G58" s="155"/>
+      <c r="H58" s="155"/>
+      <c r="I58" s="155"/>
+      <c r="J58" s="155"/>
+      <c r="K58" s="155"/>
+      <c r="L58" s="155"/>
+      <c r="M58" s="155"/>
+      <c r="N58" s="155"/>
+      <c r="O58" s="155"/>
+    </row>
+    <row r="59" spans="2:15">
+      <c r="B59" s="154"/>
+      <c r="C59" s="155"/>
+      <c r="D59" s="155"/>
+      <c r="E59" s="155"/>
+      <c r="F59" s="155"/>
+      <c r="G59" s="155"/>
+      <c r="H59" s="155"/>
+      <c r="I59" s="155"/>
+      <c r="J59" s="155"/>
+      <c r="K59" s="155"/>
+      <c r="L59" s="155"/>
+      <c r="M59" s="155"/>
+      <c r="N59" s="155"/>
+      <c r="O59" s="155"/>
+    </row>
+    <row r="60" spans="2:15">
+      <c r="B60" s="154"/>
+      <c r="C60" s="155"/>
+      <c r="D60" s="155"/>
+      <c r="E60" s="155"/>
+      <c r="F60" s="155"/>
+      <c r="G60" s="155"/>
+      <c r="H60" s="155"/>
+      <c r="I60" s="155"/>
+      <c r="J60" s="155"/>
+      <c r="K60" s="155"/>
+      <c r="L60" s="155"/>
+      <c r="M60" s="155"/>
+      <c r="N60" s="155"/>
+      <c r="O60" s="155"/>
+    </row>
+    <row r="61" spans="2:15">
+      <c r="B61" s="154"/>
+      <c r="C61" s="155" t="s">
+        <v>145</v>
+      </c>
+      <c r="D61" s="155"/>
+      <c r="E61" s="155"/>
+      <c r="F61" s="155"/>
+      <c r="G61" s="155"/>
+      <c r="H61" s="155"/>
+      <c r="I61" s="155"/>
+      <c r="J61" s="155"/>
+      <c r="K61" s="155"/>
+      <c r="L61" s="155"/>
+      <c r="M61" s="155"/>
+      <c r="N61" s="155"/>
+      <c r="O61" s="155"/>
+    </row>
+    <row r="62" spans="2:15">
+      <c r="B62" s="154"/>
+      <c r="C62" s="155"/>
+      <c r="D62" s="155"/>
+      <c r="E62" s="155"/>
+      <c r="F62" s="155"/>
+      <c r="G62" s="155"/>
+      <c r="H62" s="155"/>
+      <c r="I62" s="155"/>
+      <c r="J62" s="155"/>
+      <c r="K62" s="155"/>
+      <c r="L62" s="155"/>
+      <c r="M62" s="155"/>
+      <c r="N62" s="155"/>
+      <c r="O62" s="155"/>
+    </row>
+    <row r="63" spans="2:15">
+      <c r="B63" s="154"/>
+      <c r="C63" s="155"/>
+      <c r="D63" s="155"/>
+      <c r="E63" s="155"/>
+      <c r="F63" s="155"/>
+      <c r="G63" s="155"/>
+      <c r="H63" s="155"/>
+      <c r="I63" s="155"/>
+      <c r="J63" s="155"/>
+      <c r="K63" s="155"/>
+      <c r="L63" s="155"/>
+      <c r="M63" s="155"/>
+      <c r="N63" s="155"/>
+      <c r="O63" s="155"/>
+    </row>
+    <row r="64" spans="2:15">
+      <c r="B64" s="154"/>
+      <c r="C64" s="155"/>
+      <c r="D64" s="155"/>
+      <c r="E64" s="155"/>
+      <c r="F64" s="155"/>
+      <c r="G64" s="155"/>
+      <c r="H64" s="155"/>
+      <c r="I64" s="155"/>
+      <c r="J64" s="155"/>
+      <c r="K64" s="155"/>
+      <c r="L64" s="155"/>
+      <c r="M64" s="155"/>
+      <c r="N64" s="155"/>
+      <c r="O64" s="155"/>
+    </row>
+    <row r="65" spans="2:15">
+      <c r="B65" s="154"/>
+      <c r="C65" s="155"/>
+      <c r="D65" s="155"/>
+      <c r="E65" s="155"/>
+      <c r="F65" s="155"/>
+      <c r="G65" s="155"/>
+      <c r="H65" s="155"/>
+      <c r="I65" s="155"/>
+      <c r="J65" s="155"/>
+      <c r="K65" s="155"/>
+      <c r="L65" s="155"/>
+      <c r="M65" s="155"/>
+      <c r="N65" s="155"/>
+      <c r="O65" s="155"/>
+    </row>
+    <row r="66" spans="2:15">
+      <c r="B66" s="154"/>
+      <c r="C66" s="155"/>
+      <c r="D66" s="155"/>
+      <c r="E66" s="155"/>
+      <c r="F66" s="155"/>
+      <c r="G66" s="155"/>
+      <c r="H66" s="155"/>
+      <c r="I66" s="155"/>
+      <c r="J66" s="155"/>
+      <c r="K66" s="155"/>
+      <c r="L66" s="155"/>
+      <c r="M66" s="155"/>
+      <c r="N66" s="155"/>
+      <c r="O66" s="155"/>
+    </row>
+    <row r="67" spans="2:15">
+      <c r="B67" s="154"/>
+      <c r="C67" s="155" t="s">
         <v>1</v>
       </c>
-      <c r="D67" s="157">
+      <c r="D67" s="155">
         <v>4</v>
       </c>
-      <c r="E67" s="157" t="s">
-        <v>152</v>
-      </c>
-      <c r="G67" s="157"/>
-      <c r="H67" s="157"/>
-      <c r="I67" s="157"/>
-      <c r="J67" s="157"/>
-      <c r="K67" s="157"/>
-      <c r="L67" s="157"/>
-      <c r="M67" s="157"/>
-      <c r="N67" s="157"/>
-      <c r="O67" s="157"/>
-    </row>
-    <row r="68" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B68" s="156"/>
-      <c r="C68" s="157"/>
-      <c r="D68" s="157"/>
-      <c r="E68" s="157"/>
-      <c r="F68" s="157"/>
-      <c r="G68" s="157"/>
-      <c r="H68" s="157"/>
-      <c r="I68" s="157"/>
-      <c r="J68" s="157"/>
-      <c r="K68" s="157"/>
-      <c r="L68" s="157"/>
-      <c r="M68" s="157"/>
-      <c r="N68" s="157"/>
-      <c r="O68" s="157"/>
-    </row>
-    <row r="69" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B69" s="156"/>
-      <c r="C69" s="157"/>
-      <c r="D69" s="157"/>
-      <c r="E69" s="157"/>
-      <c r="F69" s="157"/>
-      <c r="G69" s="157"/>
-      <c r="H69" s="157"/>
-      <c r="I69" s="157"/>
-      <c r="J69" s="157"/>
-      <c r="K69" s="157"/>
-      <c r="L69" s="157"/>
-      <c r="M69" s="157"/>
-      <c r="N69" s="157"/>
-      <c r="O69" s="157"/>
-    </row>
-    <row r="70" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B70" s="156"/>
-      <c r="C70" s="157"/>
-      <c r="D70" s="157"/>
-      <c r="E70" s="157"/>
-      <c r="F70" s="157"/>
-      <c r="G70" s="157"/>
-      <c r="H70" s="157"/>
-      <c r="I70" s="157"/>
-      <c r="J70" s="157"/>
-      <c r="K70" s="157"/>
-      <c r="L70" s="157"/>
-      <c r="M70" s="157"/>
-      <c r="N70" s="157"/>
-      <c r="O70" s="157"/>
-    </row>
-    <row r="71" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B71" s="156"/>
-      <c r="C71" s="157"/>
-      <c r="D71" s="157"/>
-      <c r="E71" s="157"/>
-      <c r="F71" s="157"/>
-      <c r="G71" s="157"/>
-      <c r="H71" s="157"/>
-      <c r="I71" s="157"/>
-      <c r="J71" s="157"/>
-      <c r="K71" s="157"/>
-      <c r="L71" s="157"/>
-      <c r="M71" s="157"/>
-      <c r="N71" s="157"/>
-      <c r="O71" s="157"/>
-    </row>
-    <row r="72" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B72" s="156"/>
-      <c r="C72" s="157"/>
-      <c r="D72" s="157"/>
-      <c r="E72" s="157"/>
-      <c r="F72" s="157"/>
-      <c r="G72" s="157"/>
-      <c r="H72" s="157"/>
-      <c r="I72" s="157"/>
-      <c r="J72" s="157"/>
-      <c r="K72" s="157"/>
-      <c r="L72" s="157"/>
-      <c r="M72" s="157"/>
-      <c r="N72" s="157"/>
-      <c r="O72" s="157"/>
-    </row>
-    <row r="73" spans="2:15" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B73" s="158"/>
-      <c r="C73" s="159"/>
-      <c r="D73" s="159"/>
-      <c r="E73" s="159"/>
-      <c r="F73" s="159"/>
-      <c r="G73" s="159"/>
-      <c r="H73" s="159"/>
-      <c r="I73" s="159"/>
-      <c r="J73" s="159"/>
-      <c r="K73" s="159"/>
-      <c r="L73" s="159"/>
-      <c r="M73" s="159"/>
-      <c r="N73" s="159"/>
-      <c r="O73" s="159"/>
+      <c r="E67" s="155" t="s">
+        <v>142</v>
+      </c>
+      <c r="G67" s="155"/>
+      <c r="H67" s="155"/>
+      <c r="I67" s="155"/>
+      <c r="J67" s="155"/>
+      <c r="K67" s="155"/>
+      <c r="L67" s="155"/>
+      <c r="M67" s="155"/>
+      <c r="N67" s="155"/>
+      <c r="O67" s="155"/>
+    </row>
+    <row r="68" spans="2:15">
+      <c r="B68" s="154"/>
+      <c r="C68" s="155"/>
+      <c r="D68" s="155"/>
+      <c r="E68" s="155"/>
+      <c r="F68" s="155"/>
+      <c r="G68" s="155"/>
+      <c r="H68" s="155"/>
+      <c r="I68" s="155"/>
+      <c r="J68" s="155"/>
+      <c r="K68" s="155"/>
+      <c r="L68" s="155"/>
+      <c r="M68" s="155"/>
+      <c r="N68" s="155"/>
+      <c r="O68" s="155"/>
+    </row>
+    <row r="69" spans="2:15">
+      <c r="B69" s="154"/>
+      <c r="C69" s="155"/>
+      <c r="D69" s="155"/>
+      <c r="E69" s="155"/>
+      <c r="F69" s="155"/>
+      <c r="G69" s="155"/>
+      <c r="H69" s="155"/>
+      <c r="I69" s="155"/>
+      <c r="J69" s="155"/>
+      <c r="K69" s="155"/>
+      <c r="L69" s="155"/>
+      <c r="M69" s="155"/>
+      <c r="N69" s="155"/>
+      <c r="O69" s="155"/>
+    </row>
+    <row r="70" spans="2:15">
+      <c r="B70" s="154"/>
+      <c r="C70" s="155"/>
+      <c r="D70" s="155"/>
+      <c r="E70" s="155"/>
+      <c r="F70" s="155"/>
+      <c r="G70" s="155"/>
+      <c r="H70" s="155"/>
+      <c r="I70" s="155"/>
+      <c r="J70" s="155"/>
+      <c r="K70" s="155"/>
+      <c r="L70" s="155"/>
+      <c r="M70" s="155"/>
+      <c r="N70" s="155"/>
+      <c r="O70" s="155"/>
+    </row>
+    <row r="71" spans="2:15">
+      <c r="B71" s="154"/>
+      <c r="C71" s="155"/>
+      <c r="D71" s="155"/>
+      <c r="E71" s="155"/>
+      <c r="F71" s="155"/>
+      <c r="G71" s="155"/>
+      <c r="H71" s="155"/>
+      <c r="I71" s="155"/>
+      <c r="J71" s="155"/>
+      <c r="K71" s="155"/>
+      <c r="L71" s="155"/>
+      <c r="M71" s="155"/>
+      <c r="N71" s="155"/>
+      <c r="O71" s="155"/>
+    </row>
+    <row r="72" spans="2:15">
+      <c r="B72" s="154"/>
+      <c r="C72" s="155"/>
+      <c r="D72" s="155"/>
+      <c r="E72" s="155"/>
+      <c r="F72" s="155"/>
+      <c r="G72" s="155"/>
+      <c r="H72" s="155"/>
+      <c r="I72" s="155"/>
+      <c r="J72" s="155"/>
+      <c r="K72" s="155"/>
+      <c r="L72" s="155"/>
+      <c r="M72" s="155"/>
+      <c r="N72" s="155"/>
+      <c r="O72" s="155"/>
+    </row>
+    <row r="73" spans="2:15" ht="17" thickBot="1">
+      <c r="B73" s="156"/>
+      <c r="C73" s="157"/>
+      <c r="D73" s="157"/>
+      <c r="E73" s="157"/>
+      <c r="F73" s="157"/>
+      <c r="G73" s="157"/>
+      <c r="H73" s="157"/>
+      <c r="I73" s="157"/>
+      <c r="J73" s="157"/>
+      <c r="K73" s="157"/>
+      <c r="L73" s="157"/>
+      <c r="M73" s="157"/>
+      <c r="N73" s="157"/>
+      <c r="O73" s="157"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/nodes_source_analyses/energy/energy_chp_ultra_supercritical_coal.central_producer.xlsx
+++ b/nodes_source_analyses/energy/energy_chp_ultra_supercritical_coal.central_producer.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10523"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10609"/>
   <workbookPr showInkAnnotation="0" codeName="ThisWorkbook" autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/marliekeverweij/Projects/etdataset/nodes_source_analyses/energy/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/michieldenhaan/Projects/etdataset/nodes_source_analyses/energy/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{93B1E2D2-DBF4-8745-AE93-4B14F3FAE80B}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FC8ACF49-22DC-9A4F-BDE8-B008F7959E57}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1080" yWindow="460" windowWidth="25600" windowHeight="15900" tabRatio="762" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -37,10 +37,16 @@
     <definedName name="Wp_to_kWp">#REF!</definedName>
     <definedName name="WP_to_MWp">#REF!</definedName>
   </definedNames>
-  <calcPr calcId="179017"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
       <x14:workbookPr defaultImageDpi="32767"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+      </xcalcf:calcFeatures>
     </ext>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -239,9 +245,6 @@
   </si>
   <si>
     <t>input.coal</t>
-  </si>
-  <si>
-    <t>input.torrified_biomass_pellets</t>
   </si>
   <si>
     <t>euro/FLH</t>
@@ -830,6 +833,9 @@
   <si>
     <t xml:space="preserve">This sheet summarizes all node attributes formatted in the way they are used by the Energy Transition Model. Use the Excel formulas to find the original data and sources for these numbers. You can also use this document to update the attribute value. Once you have finished updating, save this document and run rake import:node NODE="nodename" to update the node attributes on ETSource. 
 </t>
+  </si>
+  <si>
+    <t>input.torrefied_biomass_pellets</t>
   </si>
 </sst>
 </file>
@@ -963,6 +969,7 @@
       <sz val="12"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -970,6 +977,7 @@
       <sz val="12"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -977,6 +985,7 @@
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -984,6 +993,7 @@
       <sz val="16"/>
       <color rgb="FF1F497D"/>
       <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -991,17 +1001,20 @@
       <sz val="12"/>
       <color theme="10"/>
       <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="12"/>
       <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
       <sz val="12"/>
       <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1015,6 +1028,7 @@
       <sz val="12"/>
       <color theme="1"/>
       <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -2794,16 +2808,16 @@
         <v>20</v>
       </c>
       <c r="C4" s="9" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="5" spans="1:3">
       <c r="A5" s="7"/>
       <c r="B5" s="10" t="s">
+        <v>110</v>
+      </c>
+      <c r="C5" s="11" t="s">
         <v>111</v>
-      </c>
-      <c r="C5" s="11" t="s">
-        <v>112</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -2828,7 +2842,7 @@
     <row r="9" spans="1:3">
       <c r="A9" s="7"/>
       <c r="B9" s="111" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C9" s="112"/>
     </row>
@@ -2840,31 +2854,31 @@
     <row r="11" spans="1:3">
       <c r="A11" s="7"/>
       <c r="B11" s="113" t="s">
+        <v>96</v>
+      </c>
+      <c r="C11" s="115" t="s">
         <v>97</v>
-      </c>
-      <c r="C11" s="115" t="s">
-        <v>98</v>
       </c>
     </row>
     <row r="12" spans="1:3" ht="17" thickBot="1">
       <c r="A12" s="7"/>
       <c r="B12" s="113"/>
       <c r="C12" s="23" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="13" spans="1:3" ht="17" thickBot="1">
       <c r="A13" s="7"/>
       <c r="B13" s="113"/>
       <c r="C13" s="116" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="14" spans="1:3">
       <c r="A14" s="7"/>
       <c r="B14" s="113"/>
       <c r="C14" s="114" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="15" spans="1:3">
@@ -2875,58 +2889,58 @@
     <row r="16" spans="1:3">
       <c r="A16" s="7"/>
       <c r="B16" s="113" t="s">
+        <v>101</v>
+      </c>
+      <c r="C16" s="117" t="s">
         <v>102</v>
-      </c>
-      <c r="C16" s="117" t="s">
-        <v>103</v>
       </c>
     </row>
     <row r="17" spans="1:3">
       <c r="A17" s="7"/>
       <c r="B17" s="113"/>
       <c r="C17" s="118" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="18" spans="1:3">
       <c r="A18" s="7"/>
       <c r="B18" s="113"/>
       <c r="C18" s="119" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="19" spans="1:3">
       <c r="A19" s="7"/>
       <c r="B19" s="113"/>
       <c r="C19" s="120" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="20" spans="1:3">
       <c r="A20" s="7"/>
       <c r="B20" s="121"/>
       <c r="C20" s="122" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="21" spans="1:3">
       <c r="A21" s="7"/>
       <c r="B21" s="121"/>
       <c r="C21" s="123" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="22" spans="1:3">
       <c r="A22" s="7"/>
       <c r="B22" s="121"/>
       <c r="C22" s="124" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="23" spans="1:3">
       <c r="B23" s="121"/>
       <c r="C23" s="125" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
   </sheetData>
@@ -2942,8 +2956,8 @@
   </sheetPr>
   <dimension ref="B1:K67"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A20" sqref="A20:XFD24"/>
+    <sheetView tabSelected="1" topLeftCell="A30" workbookViewId="0">
+      <selection activeCell="C43" sqref="C43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.6640625" defaultRowHeight="16"/>
@@ -2973,7 +2987,7 @@
     </row>
     <row r="2" spans="2:11">
       <c r="B2" s="172" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="C2" s="173"/>
       <c r="D2" s="173"/>
@@ -3069,7 +3083,7 @@
     <row r="10" spans="2:11" s="5" customFormat="1" ht="19" thickBot="1">
       <c r="B10" s="37"/>
       <c r="C10" s="23" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="D10" s="45"/>
       <c r="E10" s="23"/>
@@ -3094,7 +3108,7 @@
       <c r="G11" s="28"/>
       <c r="H11" s="44"/>
       <c r="I11" s="31" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="J11" s="22"/>
     </row>
@@ -3113,7 +3127,7 @@
       <c r="G12" s="28"/>
       <c r="H12" s="28"/>
       <c r="I12" s="31" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="J12" s="145"/>
       <c r="K12" s="3"/>
@@ -3133,7 +3147,7 @@
       <c r="G13" s="28"/>
       <c r="H13" s="28"/>
       <c r="I13" s="31" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="J13" s="145"/>
       <c r="K13" s="3"/>
@@ -3153,7 +3167,7 @@
       <c r="G14" s="28"/>
       <c r="H14" s="28"/>
       <c r="I14" s="31" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="J14" s="145"/>
       <c r="K14" s="3"/>
@@ -3173,7 +3187,7 @@
       <c r="G15" s="28"/>
       <c r="H15" s="28"/>
       <c r="I15" s="31" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="J15" s="145"/>
       <c r="K15" s="3"/>
@@ -3193,7 +3207,7 @@
       <c r="G16" s="28"/>
       <c r="H16" s="28"/>
       <c r="I16" s="31" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="J16" s="146"/>
       <c r="K16" s="1"/>
@@ -3213,7 +3227,7 @@
       <c r="G17" s="28"/>
       <c r="H17" s="28"/>
       <c r="I17" s="31" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="J17" s="146"/>
       <c r="K17" s="1"/>
@@ -3224,7 +3238,7 @@
         <v>47</v>
       </c>
       <c r="D18" s="33" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="E18" s="53">
         <f>'Research data'!H6</f>
@@ -3236,7 +3250,7 @@
       </c>
       <c r="H18" s="28"/>
       <c r="I18" s="31" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="J18" s="145"/>
     </row>
@@ -3246,18 +3260,18 @@
         <v>48</v>
       </c>
       <c r="D19" s="33" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="E19" s="53">
         <v>260.86956521739103</v>
       </c>
       <c r="F19" s="28"/>
       <c r="G19" s="51" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="H19" s="28"/>
       <c r="I19" s="31" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="J19" s="145"/>
     </row>
@@ -3275,7 +3289,7 @@
     <row r="21" spans="2:11" ht="17" thickBot="1">
       <c r="B21" s="32"/>
       <c r="C21" s="23" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="D21" s="143"/>
       <c r="E21" s="136"/>
@@ -3303,7 +3317,7 @@
       </c>
       <c r="H22" s="28"/>
       <c r="I22" s="52" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="J22" s="147"/>
     </row>
@@ -3320,11 +3334,11 @@
       </c>
       <c r="F23" s="28"/>
       <c r="G23" s="51" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="H23" s="28"/>
       <c r="I23" s="31" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="J23" s="147"/>
     </row>
@@ -3345,7 +3359,7 @@
       </c>
       <c r="H24" s="28"/>
       <c r="I24" s="31" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="J24" s="145"/>
     </row>
@@ -3366,7 +3380,7 @@
       </c>
       <c r="H25" s="28"/>
       <c r="I25" s="31" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="J25" s="145"/>
     </row>
@@ -3376,7 +3390,7 @@
         <v>52</v>
       </c>
       <c r="D26" s="33" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="E26" s="135">
         <f>'Research data'!H16</f>
@@ -3384,11 +3398,11 @@
       </c>
       <c r="F26" s="28"/>
       <c r="G26" s="51" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="H26" s="28"/>
       <c r="I26" s="31" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="J26" s="145"/>
     </row>
@@ -3398,7 +3412,7 @@
         <v>53</v>
       </c>
       <c r="D27" s="33" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="E27" s="49">
         <f>'Research data'!H18</f>
@@ -3406,11 +3420,11 @@
       </c>
       <c r="F27" s="28"/>
       <c r="G27" s="51" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="H27" s="28"/>
       <c r="I27" s="31" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="J27" s="145"/>
     </row>
@@ -3420,18 +3434,18 @@
         <v>54</v>
       </c>
       <c r="D28" s="33" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="E28" s="49">
         <v>0</v>
       </c>
       <c r="F28" s="28"/>
       <c r="G28" s="51" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="H28" s="28"/>
       <c r="I28" s="31" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="J28" s="145"/>
     </row>
@@ -3452,7 +3466,7 @@
       </c>
       <c r="H29" s="28"/>
       <c r="I29" s="31" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="J29" s="145"/>
     </row>
@@ -3471,7 +3485,7 @@
       <c r="G30" s="28"/>
       <c r="H30" s="28"/>
       <c r="I30" s="31" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="J30" s="145"/>
     </row>
@@ -3517,7 +3531,7 @@
       </c>
       <c r="H33" s="28"/>
       <c r="I33" s="52" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="J33" s="145"/>
     </row>
@@ -3539,7 +3553,7 @@
       </c>
       <c r="H34" s="28"/>
       <c r="I34" s="158" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="J34" s="145"/>
     </row>
@@ -3561,7 +3575,7 @@
       </c>
       <c r="H35" s="28"/>
       <c r="I35" s="158" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="J35" s="145"/>
     </row>
@@ -3580,7 +3594,7 @@
       <c r="G36" s="28"/>
       <c r="H36" s="28"/>
       <c r="I36" s="31" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="J36" s="145"/>
     </row>
@@ -3599,7 +3613,7 @@
       <c r="G37" s="28"/>
       <c r="H37" s="28"/>
       <c r="I37" s="31" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="J37" s="145"/>
     </row>
@@ -3618,7 +3632,7 @@
       <c r="G38" s="28"/>
       <c r="H38" s="28"/>
       <c r="I38" s="31" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="J38" s="145"/>
     </row>
@@ -3637,7 +3651,7 @@
       <c r="G39" s="28"/>
       <c r="H39" s="28"/>
       <c r="I39" s="31" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="J39" s="145"/>
     </row>
@@ -3656,7 +3670,7 @@
       <c r="G40" s="28"/>
       <c r="H40" s="28"/>
       <c r="I40" s="31" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="J40" s="145"/>
     </row>
@@ -3675,7 +3689,7 @@
       <c r="G41" s="28"/>
       <c r="H41" s="28"/>
       <c r="I41" s="31" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="J41" s="145"/>
     </row>
@@ -3694,14 +3708,14 @@
       <c r="G42" s="28"/>
       <c r="H42" s="28"/>
       <c r="I42" s="31" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="J42" s="145"/>
     </row>
     <row r="43" spans="2:10" ht="17" thickBot="1">
       <c r="B43" s="32"/>
       <c r="C43" s="48" t="s">
-        <v>63</v>
+        <v>156</v>
       </c>
       <c r="D43" s="33" t="s">
         <v>5</v>
@@ -3713,7 +3727,7 @@
       <c r="G43" s="28"/>
       <c r="H43" s="28"/>
       <c r="I43" s="31" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="J43" s="145"/>
     </row>
@@ -4011,7 +4025,7 @@
     <row r="3" spans="2:20" s="38" customFormat="1">
       <c r="B3" s="37"/>
       <c r="C3" s="130" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="D3" s="17"/>
       <c r="E3" s="17"/>
@@ -4020,11 +4034,11 @@
       </c>
       <c r="G3" s="130"/>
       <c r="H3" s="130" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="I3" s="130"/>
       <c r="J3" s="131" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="K3" s="131"/>
       <c r="L3" s="131" t="s">
@@ -4032,19 +4046,19 @@
       </c>
       <c r="M3" s="131"/>
       <c r="N3" s="131" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="O3" s="130"/>
       <c r="P3" s="131" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="Q3" s="131"/>
       <c r="R3" s="131" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="S3" s="130"/>
       <c r="T3" s="130" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="4" spans="2:20">
@@ -4071,7 +4085,7 @@
     <row r="5" spans="2:20" ht="17" thickBot="1">
       <c r="B5" s="57"/>
       <c r="C5" s="46" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="D5" s="46"/>
       <c r="E5" s="46"/>
@@ -4099,7 +4113,7 @@
       <c r="D6" s="86"/>
       <c r="E6" s="86"/>
       <c r="F6" s="126" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="G6" s="134"/>
       <c r="H6" s="88">
@@ -4187,7 +4201,7 @@
         <v>0.28313100000000002</v>
       </c>
       <c r="T9" s="138" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="10" spans="2:20" ht="17" thickBot="1">
@@ -4222,7 +4236,7 @@
       <c r="Q10" s="84"/>
       <c r="R10" s="84"/>
       <c r="T10" s="50" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="11" spans="2:20" ht="17" thickBot="1">
@@ -4257,7 +4271,7 @@
       <c r="Q11" s="84"/>
       <c r="R11" s="84"/>
       <c r="T11" s="50" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="12" spans="2:20">
@@ -4283,7 +4297,7 @@
     <row r="13" spans="2:20" ht="17" thickBot="1">
       <c r="B13" s="57"/>
       <c r="C13" s="21" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="D13" s="21"/>
       <c r="E13" s="21"/>
@@ -4305,7 +4319,7 @@
     <row r="14" spans="2:20" ht="17" thickBot="1">
       <c r="B14" s="57"/>
       <c r="C14" s="137" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="D14" s="21"/>
       <c r="E14" s="21"/>
@@ -4328,18 +4342,18 @@
       <c r="Q14" s="97"/>
       <c r="R14" s="97"/>
       <c r="T14" s="149" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
     <row r="15" spans="2:20" ht="17" thickBot="1">
       <c r="B15" s="57"/>
       <c r="C15" s="137" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="D15" s="103"/>
       <c r="E15" s="103"/>
       <c r="F15" s="126" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="G15" s="134"/>
       <c r="H15" s="102">
@@ -4359,18 +4373,18 @@
       <c r="Q15" s="97"/>
       <c r="R15" s="97"/>
       <c r="T15" s="170" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
     </row>
     <row r="16" spans="2:20" ht="17" thickBot="1">
       <c r="B16" s="57"/>
       <c r="C16" s="137" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="D16" s="46"/>
       <c r="E16" s="46"/>
       <c r="F16" s="128" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="G16" s="128"/>
       <c r="H16" s="105">
@@ -4388,18 +4402,18 @@
       <c r="Q16" s="94"/>
       <c r="R16" s="94"/>
       <c r="T16" s="149" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="17" spans="2:20" ht="17" thickBot="1">
       <c r="B17" s="57"/>
       <c r="C17" s="137" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="D17" s="46"/>
       <c r="E17" s="46"/>
       <c r="F17" s="128" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="G17" s="128"/>
       <c r="H17" s="105">
@@ -4416,18 +4430,18 @@
       <c r="Q17" s="94"/>
       <c r="R17" s="94"/>
       <c r="T17" s="50" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="18" spans="2:20" ht="17" thickBot="1">
       <c r="B18" s="57"/>
       <c r="C18" s="137" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="D18" s="107"/>
       <c r="E18" s="107"/>
       <c r="F18" s="87" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="G18" s="89"/>
       <c r="H18" s="102">
@@ -4445,18 +4459,18 @@
       <c r="Q18" s="94"/>
       <c r="R18" s="94"/>
       <c r="T18" s="129" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="19" spans="2:20" ht="17" thickBot="1">
       <c r="B19" s="57"/>
       <c r="C19" s="137" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D19" s="106"/>
       <c r="E19" s="106"/>
       <c r="F19" s="87" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="G19" s="89"/>
       <c r="H19" s="102">
@@ -4474,18 +4488,18 @@
       <c r="Q19" s="94"/>
       <c r="R19" s="94"/>
       <c r="T19" s="50" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="20" spans="2:20" ht="17" thickBot="1">
       <c r="B20" s="57"/>
       <c r="C20" s="137" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D20" s="106"/>
       <c r="E20" s="106"/>
       <c r="F20" s="126" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="G20" s="134"/>
       <c r="H20" s="102">
@@ -4506,12 +4520,12 @@
     <row r="21" spans="2:20" ht="17" thickBot="1">
       <c r="B21" s="57"/>
       <c r="C21" s="137" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="D21" s="85"/>
       <c r="E21" s="85"/>
       <c r="F21" s="85" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="G21" s="58"/>
       <c r="H21" s="108">
@@ -4532,12 +4546,12 @@
     <row r="22" spans="2:20" ht="17" thickBot="1">
       <c r="B22" s="57"/>
       <c r="C22" s="148" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="D22" s="85"/>
       <c r="E22" s="85"/>
       <c r="F22" s="129" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="G22" s="114"/>
       <c r="H22" s="108">
@@ -4653,13 +4667,13 @@
         <v>35</v>
       </c>
       <c r="G5" s="70" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="H5" s="70" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="I5" s="71" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="J5" s="70" t="s">
         <v>18</v>
@@ -4676,7 +4690,7 @@
       <c r="I6" s="66"/>
       <c r="J6" s="65"/>
     </row>
-    <row r="7" spans="2:10" ht="32">
+    <row r="7" spans="2:10" ht="34">
       <c r="B7" s="64"/>
       <c r="C7" s="72"/>
       <c r="D7" s="72" t="s">
@@ -4686,17 +4700,17 @@
         <v>25</v>
       </c>
       <c r="F7" s="77" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="G7" s="150">
         <v>2010</v>
       </c>
       <c r="H7" s="77"/>
       <c r="I7" s="78" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="J7" s="79" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="8" spans="2:10">
@@ -4736,33 +4750,33 @@
       <c r="I10" s="78"/>
       <c r="J10" s="72"/>
     </row>
-    <row r="11" spans="2:10" s="151" customFormat="1" ht="32">
+    <row r="11" spans="2:10" s="151" customFormat="1" ht="34">
       <c r="B11" s="154"/>
       <c r="C11" s="160"/>
       <c r="D11" s="161" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="E11" s="162" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="F11" s="163" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="G11" s="164" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="H11" s="163"/>
       <c r="I11" s="171" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="J11" s="161" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
     </row>
     <row r="12" spans="2:10" s="151" customFormat="1">
       <c r="B12" s="154"/>
       <c r="C12" s="165" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="D12" s="161"/>
       <c r="E12" s="155"/>
@@ -4775,7 +4789,7 @@
     <row r="13" spans="2:10" s="151" customFormat="1">
       <c r="B13" s="154"/>
       <c r="C13" s="165" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="D13" s="161"/>
       <c r="E13" s="155"/>
@@ -4800,27 +4814,27 @@
       <c r="B15" s="64"/>
       <c r="C15" s="72"/>
       <c r="D15" s="72" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="E15" s="67" t="s">
         <v>10</v>
       </c>
       <c r="F15" s="68" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="G15" s="68" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="H15" s="68"/>
       <c r="I15" s="68" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="J15" s="79"/>
     </row>
     <row r="16" spans="2:10">
       <c r="B16" s="64"/>
       <c r="C16" s="75" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D16" s="72"/>
       <c r="E16" s="67"/>
@@ -4845,25 +4859,25 @@
       <c r="B18" s="64"/>
       <c r="C18" s="72"/>
       <c r="D18" s="72" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="E18" s="67"/>
       <c r="F18" s="68">
         <v>2013</v>
       </c>
       <c r="G18" s="68" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="H18" s="68"/>
       <c r="I18" s="68"/>
       <c r="J18" s="79" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="19" spans="2:10">
       <c r="B19" s="64"/>
       <c r="C19" s="72" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D19" s="72"/>
       <c r="E19" s="67"/>
@@ -4876,7 +4890,7 @@
     <row r="20" spans="2:10">
       <c r="B20" s="64"/>
       <c r="C20" s="75" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="D20" s="72"/>
       <c r="E20" s="67"/>
@@ -4889,7 +4903,7 @@
     <row r="21" spans="2:10">
       <c r="B21" s="64"/>
       <c r="C21" s="75" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="D21" s="67"/>
       <c r="E21" s="72"/>
@@ -4914,7 +4928,7 @@
       <c r="B23" s="64"/>
       <c r="C23" s="72"/>
       <c r="D23" s="59" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="E23" s="72" t="s">
         <v>10</v>
@@ -4922,20 +4936,20 @@
       <c r="F23" s="72"/>
       <c r="G23" s="72"/>
       <c r="H23" s="72" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="I23" s="80"/>
       <c r="J23" s="72" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="24" spans="2:10">
       <c r="B24" s="64"/>
       <c r="C24" s="75" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D24" s="67" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="E24" s="72"/>
       <c r="F24" s="72"/>
@@ -4959,7 +4973,7 @@
       <c r="B26" s="64"/>
       <c r="C26" s="72"/>
       <c r="D26" s="67" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="E26" s="72" t="s">
         <v>10</v>
@@ -4967,20 +4981,20 @@
       <c r="F26" s="72"/>
       <c r="G26" s="72"/>
       <c r="H26" s="72" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="I26" s="80"/>
       <c r="J26" s="72" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="27" spans="2:10">
       <c r="B27" s="64"/>
       <c r="C27" s="75" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D27" s="67" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="E27" s="72"/>
       <c r="F27" s="72"/>
@@ -5038,11 +5052,11 @@
     <row r="3" spans="2:15" s="38" customFormat="1">
       <c r="B3" s="139"/>
       <c r="C3" s="24" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="D3" s="24"/>
       <c r="E3" s="24" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="F3" s="24"/>
       <c r="G3" s="24"/>
@@ -5074,7 +5088,7 @@
     <row r="5" spans="2:15">
       <c r="B5" s="154"/>
       <c r="C5" s="155" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D5" s="155"/>
       <c r="E5" s="155"/>
@@ -5108,7 +5122,7 @@
     <row r="7" spans="2:15">
       <c r="B7" s="154"/>
       <c r="C7" s="155" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="D7" s="155"/>
       <c r="E7" s="155"/>
@@ -5354,7 +5368,7 @@
         <v>1400</v>
       </c>
       <c r="E22" s="155" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="F22" s="155"/>
       <c r="G22" s="155"/>
@@ -5434,7 +5448,7 @@
     <row r="27" spans="2:15">
       <c r="B27" s="154"/>
       <c r="C27" s="155" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="D27" s="155"/>
       <c r="E27" s="155"/>
@@ -5468,7 +5482,7 @@
     <row r="29" spans="2:15">
       <c r="B29" s="154"/>
       <c r="C29" s="155" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="D29" s="155"/>
       <c r="E29" s="155"/>
@@ -5556,7 +5570,7 @@
         <v>4</v>
       </c>
       <c r="E34" s="155" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="G34" s="155"/>
       <c r="H34" s="155"/>
@@ -5571,13 +5585,13 @@
     <row r="35" spans="2:15">
       <c r="B35" s="154"/>
       <c r="C35" s="155" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="D35" s="155">
         <v>40</v>
       </c>
       <c r="E35" s="155" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="G35" s="155"/>
       <c r="H35" s="155"/>
@@ -5786,7 +5800,7 @@
     <row r="48" spans="2:15">
       <c r="B48" s="154"/>
       <c r="C48" s="155" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="D48" s="155"/>
       <c r="E48" s="155"/>
@@ -5916,13 +5930,13 @@
     <row r="56" spans="2:15">
       <c r="B56" s="154"/>
       <c r="C56" s="155" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="D56" s="159">
         <v>40</v>
       </c>
       <c r="E56" s="159" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="F56" s="155"/>
       <c r="G56" s="155"/>
@@ -6002,7 +6016,7 @@
     <row r="61" spans="2:15">
       <c r="B61" s="154"/>
       <c r="C61" s="155" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="D61" s="155"/>
       <c r="E61" s="155"/>
@@ -6106,7 +6120,7 @@
         <v>4</v>
       </c>
       <c r="E67" s="155" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="G67" s="155"/>
       <c r="H67" s="155"/>

--- a/nodes_source_analyses/energy/energy_chp_ultra_supercritical_coal.central_producer.xlsx
+++ b/nodes_source_analyses/energy/energy_chp_ultra_supercritical_coal.central_producer.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10609"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="11208"/>
   <workbookPr showInkAnnotation="0" codeName="ThisWorkbook" autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/michieldenhaan/Projects/etdataset/nodes_source_analyses/energy/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/marliekeverweij/Projects/etdataset/nodes_source_analyses/energy/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FC8ACF49-22DC-9A4F-BDE8-B008F7959E57}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0F89C472-7F78-6A4D-8EC4-B73FC92C65BD}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1080" yWindow="460" windowWidth="25600" windowHeight="15900" tabRatio="762" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="28340" tabRatio="762" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Cover sheet" sheetId="14" r:id="rId1"/>
@@ -37,7 +37,7 @@
     <definedName name="Wp_to_kWp">#REF!</definedName>
     <definedName name="WP_to_MWp">#REF!</definedName>
   </definedNames>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="191029" calcOnSave="0"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
       <x14:workbookPr defaultImageDpi="32767"/>
@@ -56,7 +56,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="244" uniqueCount="157">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="244" uniqueCount="158">
   <si>
     <t>Source</t>
   </si>
@@ -836,6 +836,9 @@
   </si>
   <si>
     <t>input.torrefied_biomass_pellets</t>
+  </si>
+  <si>
+    <t>See https://github.com/quintel/documentation/blob/master/general/cost_calculations.md#weighted-average-cost-of-capital</t>
   </si>
 </sst>
 </file>
@@ -1581,7 +1584,7 @@
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="181">
+  <cellXfs count="182">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -1903,6 +1906,7 @@
     <xf numFmtId="0" fontId="24" fillId="12" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="24" fillId="12" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="238">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
@@ -2777,12 +2781,12 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="10.6640625" defaultRowHeight="16"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.7109375" defaultRowHeight="16"/>
   <cols>
-    <col min="1" max="1" width="4.83203125" style="43" customWidth="1"/>
-    <col min="2" max="2" width="9.33203125" style="30" customWidth="1"/>
-    <col min="3" max="3" width="38.5" style="30" customWidth="1"/>
-    <col min="4" max="16384" width="10.6640625" style="30"/>
+    <col min="1" max="1" width="4.85546875" style="43" customWidth="1"/>
+    <col min="2" max="2" width="9.28515625" style="30" customWidth="1"/>
+    <col min="3" max="3" width="38.42578125" style="30" customWidth="1"/>
+    <col min="4" max="16384" width="10.7109375" style="30"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" s="41" customFormat="1">
@@ -2956,23 +2960,23 @@
   </sheetPr>
   <dimension ref="B1:K67"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A30" workbookViewId="0">
-      <selection activeCell="C43" sqref="C43"/>
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="I29" sqref="I29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="10.6640625" defaultRowHeight="16"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.7109375" defaultRowHeight="16"/>
   <cols>
-    <col min="1" max="1" width="3.33203125" style="4" customWidth="1"/>
-    <col min="2" max="2" width="3.6640625" style="4" customWidth="1"/>
-    <col min="3" max="3" width="44.5" style="4" customWidth="1"/>
-    <col min="4" max="4" width="14.5" style="4" customWidth="1"/>
-    <col min="5" max="5" width="17.5" style="4" customWidth="1"/>
-    <col min="6" max="6" width="4.5" style="4" customWidth="1"/>
+    <col min="1" max="1" width="3.28515625" style="4" customWidth="1"/>
+    <col min="2" max="2" width="3.7109375" style="4" customWidth="1"/>
+    <col min="3" max="3" width="44.42578125" style="4" customWidth="1"/>
+    <col min="4" max="4" width="14.42578125" style="4" customWidth="1"/>
+    <col min="5" max="5" width="17.42578125" style="4" customWidth="1"/>
+    <col min="6" max="6" width="4.42578125" style="4" customWidth="1"/>
     <col min="7" max="7" width="45" style="4" customWidth="1"/>
-    <col min="8" max="8" width="5.1640625" style="4" customWidth="1"/>
-    <col min="9" max="9" width="49.5" style="4" customWidth="1"/>
-    <col min="10" max="10" width="5.5" style="4" customWidth="1"/>
-    <col min="11" max="16384" width="10.6640625" style="4"/>
+    <col min="8" max="8" width="5.140625" style="4" customWidth="1"/>
+    <col min="9" max="9" width="49.42578125" style="4" customWidth="1"/>
+    <col min="10" max="10" width="5.42578125" style="4" customWidth="1"/>
+    <col min="11" max="16384" width="10.7109375" style="4"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:11">
@@ -3458,15 +3462,15 @@
         <v>3</v>
       </c>
       <c r="E29" s="49">
-        <v>0.1</v>
+        <v>0.04</v>
       </c>
       <c r="F29" s="28"/>
       <c r="G29" s="51" t="s">
         <v>27</v>
       </c>
       <c r="H29" s="28"/>
-      <c r="I29" s="31" t="s">
-        <v>66</v>
+      <c r="I29" s="181" t="s">
+        <v>157</v>
       </c>
       <c r="J29" s="145"/>
     </row>
@@ -3971,33 +3975,33 @@
   </sheetPr>
   <dimension ref="B1:T22"/>
   <sheetViews>
-    <sheetView topLeftCell="H1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="T21" sqref="T21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="10.6640625" defaultRowHeight="16"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.7109375" defaultRowHeight="16"/>
   <cols>
-    <col min="1" max="1" width="3.5" style="54" customWidth="1"/>
-    <col min="2" max="2" width="4.33203125" style="54" customWidth="1"/>
-    <col min="3" max="3" width="35.83203125" style="54" customWidth="1"/>
-    <col min="4" max="4" width="16.5" style="54" hidden="1" customWidth="1"/>
-    <col min="5" max="5" width="13.83203125" style="54" hidden="1" customWidth="1"/>
-    <col min="6" max="6" width="11.1640625" style="54" customWidth="1"/>
-    <col min="7" max="7" width="2.5" style="54" customWidth="1"/>
-    <col min="8" max="8" width="12.5" style="54" customWidth="1"/>
-    <col min="9" max="9" width="2.83203125" style="54" customWidth="1"/>
-    <col min="10" max="10" width="11.83203125" style="81" customWidth="1"/>
-    <col min="11" max="11" width="2.5" style="81" customWidth="1"/>
-    <col min="12" max="12" width="9.33203125" style="81" customWidth="1"/>
-    <col min="13" max="13" width="2.83203125" style="81" customWidth="1"/>
-    <col min="14" max="14" width="8.5" style="81" customWidth="1"/>
-    <col min="15" max="15" width="2.33203125" style="54" customWidth="1"/>
+    <col min="1" max="1" width="3.42578125" style="54" customWidth="1"/>
+    <col min="2" max="2" width="4.28515625" style="54" customWidth="1"/>
+    <col min="3" max="3" width="35.85546875" style="54" customWidth="1"/>
+    <col min="4" max="4" width="16.42578125" style="54" hidden="1" customWidth="1"/>
+    <col min="5" max="5" width="13.85546875" style="54" hidden="1" customWidth="1"/>
+    <col min="6" max="6" width="11.140625" style="54" customWidth="1"/>
+    <col min="7" max="7" width="2.42578125" style="54" customWidth="1"/>
+    <col min="8" max="8" width="12.42578125" style="54" customWidth="1"/>
+    <col min="9" max="9" width="2.85546875" style="54" customWidth="1"/>
+    <col min="10" max="10" width="11.85546875" style="81" customWidth="1"/>
+    <col min="11" max="11" width="2.42578125" style="81" customWidth="1"/>
+    <col min="12" max="12" width="9.28515625" style="81" customWidth="1"/>
+    <col min="13" max="13" width="2.85546875" style="81" customWidth="1"/>
+    <col min="14" max="14" width="8.42578125" style="81" customWidth="1"/>
+    <col min="15" max="15" width="2.28515625" style="54" customWidth="1"/>
     <col min="16" max="16" width="10" style="81" customWidth="1"/>
-    <col min="17" max="17" width="3.5" style="81" customWidth="1"/>
+    <col min="17" max="17" width="3.42578125" style="81" customWidth="1"/>
     <col min="18" max="18" width="10" style="81" customWidth="1"/>
-    <col min="19" max="19" width="2.83203125" style="54" customWidth="1"/>
-    <col min="20" max="20" width="75.5" style="54" customWidth="1"/>
-    <col min="21" max="16384" width="10.6640625" style="54"/>
+    <col min="19" max="19" width="2.85546875" style="54" customWidth="1"/>
+    <col min="20" max="20" width="75.42578125" style="54" customWidth="1"/>
+    <col min="21" max="16384" width="10.7109375" style="54"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:20" ht="17" thickBot="1"/>
@@ -4603,17 +4607,17 @@
       <selection activeCell="I21" sqref="I21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="33.1640625" defaultRowHeight="16"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="33.140625" defaultRowHeight="16"/>
   <cols>
-    <col min="1" max="1" width="10.1640625" style="59" customWidth="1"/>
-    <col min="2" max="2" width="5.6640625" style="59" customWidth="1"/>
-    <col min="3" max="3" width="30.33203125" style="59" customWidth="1"/>
-    <col min="4" max="4" width="16.1640625" style="59" customWidth="1"/>
-    <col min="5" max="5" width="10.33203125" style="59" customWidth="1"/>
-    <col min="6" max="8" width="12.1640625" style="59" customWidth="1"/>
-    <col min="9" max="9" width="36.6640625" style="60" customWidth="1"/>
-    <col min="10" max="10" width="105.5" style="59" customWidth="1"/>
-    <col min="11" max="16384" width="33.1640625" style="59"/>
+    <col min="1" max="1" width="10.140625" style="59" customWidth="1"/>
+    <col min="2" max="2" width="5.7109375" style="59" customWidth="1"/>
+    <col min="3" max="3" width="30.28515625" style="59" customWidth="1"/>
+    <col min="4" max="4" width="16.140625" style="59" customWidth="1"/>
+    <col min="5" max="5" width="10.28515625" style="59" customWidth="1"/>
+    <col min="6" max="8" width="12.140625" style="59" customWidth="1"/>
+    <col min="9" max="9" width="36.7109375" style="60" customWidth="1"/>
+    <col min="10" max="10" width="105.42578125" style="59" customWidth="1"/>
+    <col min="11" max="16384" width="33.140625" style="59"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:10" ht="17" thickBot="1"/>
@@ -4690,7 +4694,7 @@
       <c r="I6" s="66"/>
       <c r="J6" s="65"/>
     </row>
-    <row r="7" spans="2:10" ht="34">
+    <row r="7" spans="2:10" ht="17">
       <c r="B7" s="64"/>
       <c r="C7" s="72"/>
       <c r="D7" s="72" t="s">
@@ -4750,7 +4754,7 @@
       <c r="I10" s="78"/>
       <c r="J10" s="72"/>
     </row>
-    <row r="11" spans="2:10" s="151" customFormat="1" ht="34">
+    <row r="11" spans="2:10" s="151" customFormat="1" ht="17">
       <c r="B11" s="154"/>
       <c r="C11" s="160"/>
       <c r="D11" s="161" t="s">
@@ -5023,13 +5027,13 @@
       <selection activeCell="E31" sqref="E31"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="10.6640625" defaultRowHeight="16"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.7109375" defaultRowHeight="16"/>
   <cols>
     <col min="1" max="1" width="5" style="151" customWidth="1"/>
-    <col min="2" max="2" width="4.83203125" style="151" customWidth="1"/>
-    <col min="3" max="3" width="12.6640625" style="151" customWidth="1"/>
-    <col min="4" max="4" width="12.1640625" style="151" customWidth="1"/>
-    <col min="5" max="16384" width="10.6640625" style="151"/>
+    <col min="2" max="2" width="4.85546875" style="151" customWidth="1"/>
+    <col min="3" max="3" width="12.7109375" style="151" customWidth="1"/>
+    <col min="4" max="4" width="12.140625" style="151" customWidth="1"/>
+    <col min="5" max="16384" width="10.7109375" style="151"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:15" ht="17" thickBot="1"/>
